--- a/notes/Sanskrit99_Conversion_Mapping.xlsx
+++ b/notes/Sanskrit99_Conversion_Mapping.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$54</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$B$1:$E$209</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$I$1</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -2727,6 +2727,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-4000439]0"/>
+  </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2856,7 +2859,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1161">
+  <cellStyleXfs count="1355">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4018,8 +4021,202 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4056,8 +4253,9 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1161">
+  <cellStyles count="1355">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4638,6 +4836,103 @@
     <cellStyle name="Followed Hyperlink" xfId="1156" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1158" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1354" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5218,6 +5513,103 @@
     <cellStyle name="Hyperlink" xfId="1155" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1157" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1353" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -6910,11 +7302,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:I216"/>
+  <dimension ref="A1:I218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="B216" activeCellId="3" sqref="A1:XFD80 A84:XFD94 A99:XFD110 A113:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6928,7 +7319,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" t="s">
+      <c r="A1" s="14" t="s">
         <v>850</v>
       </c>
       <c r="B1" s="14" t="s">
@@ -6959,5370 +7350,5444 @@
     <row r="2" spans="1:9">
       <c r="A2">
         <f>HEX2DEC(MID(B2,3,4))</f>
-        <v>32</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>857</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="25" t="s">
-        <v>858</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>858</v>
-      </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
+        <v>255</v>
+      </c>
+      <c r="B2" t="s">
+        <v>843</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" t="s">
+        <v>844</v>
+      </c>
+      <c r="E2" t="s">
+        <v>845</v>
+      </c>
+      <c r="F2" t="s">
+        <v>861</v>
+      </c>
+      <c r="G2" s="20" t="str">
+        <f>CONCATENATE("\x",LEFT(D2,2),"\x",MID(D2,4,2))</f>
+        <v>\xc3\xbf</v>
+      </c>
+      <c r="I2" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A2,"() throws Exception { verify( (char) ",A2, ", """,C2,"""); }")</f>
+        <v>@Test public void testConvert_255() throws Exception { verify( (char) 255, "ÿ"); }</v>
+      </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="A3">
+        <f>HEX2DEC(MID(B3,3,4))</f>
+        <v>254</v>
+      </c>
+      <c r="B3" t="s">
+        <v>839</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="D3" t="s">
+        <v>841</v>
+      </c>
+      <c r="E3" t="s">
+        <v>842</v>
+      </c>
+      <c r="F3" t="s">
+        <v>862</v>
+      </c>
+      <c r="G3" s="20" t="str">
+        <f>CONCATENATE("\x",LEFT(D3,2),"\x",MID(D3,4,2))</f>
+        <v>\xc3\xbe</v>
+      </c>
+      <c r="I3" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A3,"() throws Exception { verify( (char) ",A3, ", """,C3,"""); }")</f>
+        <v>@Test public void testConvert_254() throws Exception { verify( (char) 254, "þ"); }</v>
+      </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
         <f>HEX2DEC(MID(B4,3,4))</f>
-        <v>50</v>
+        <v>253</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C4" s="3">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>32</v>
+        <v>835</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="D4" t="s">
+        <v>837</v>
       </c>
       <c r="E4" t="s">
-        <v>184</v>
+        <v>838</v>
+      </c>
+      <c r="F4" t="s">
+        <v>863</v>
       </c>
       <c r="G4" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D4))</f>
-        <v>\x32</v>
-      </c>
-      <c r="I4" s="14" t="str">
-        <f t="shared" ref="I4:I66" si="0">CONCATENATE("@Test public void testConvert_",A4,"() throws Exception { verify( (char) ",A4, ", """,C4,"""); }")</f>
-        <v>@Test public void testConvert_50() throws Exception { verify( (char) 50, "2"); }</v>
+        <f>CONCATENATE("\x",LEFT(D4,2),"\x",MID(D4,4,2))</f>
+        <v>\xc3\xbd</v>
+      </c>
+      <c r="I4" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A4,"() throws Exception { verify( (char) ",A4, ", """,C4,"""); }")</f>
+        <v>@Test public void testConvert_253() throws Exception { verify( (char) 253, "ý"); }</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <f t="shared" ref="A5:A68" si="1">HEX2DEC(MID(B5,3,4))</f>
-        <v>51</v>
+        <f>HEX2DEC(MID(B5,3,4))</f>
+        <v>252</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C5" s="3">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>33</v>
+        <v>832</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" t="s">
+        <v>833</v>
       </c>
       <c r="E5" t="s">
-        <v>186</v>
+        <v>834</v>
+      </c>
+      <c r="F5" t="s">
+        <v>864</v>
       </c>
       <c r="G5" s="20" t="str">
-        <f t="shared" ref="G5:G68" si="2">CONCATENATE("\x",TRIM(D5))</f>
-        <v>\x33</v>
-      </c>
-      <c r="I5" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_51() throws Exception { verify( (char) 51, "3"); }</v>
+        <f>CONCATENATE("\x",LEFT(D5,2),"\x",MID(D5,4,2))</f>
+        <v>\xc3\xbc</v>
+      </c>
+      <c r="I5" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A5,"() throws Exception { verify( (char) ",A5, ", """,C5,"""); }")</f>
+        <v>@Test public void testConvert_252() throws Exception { verify( (char) 252, "ü"); }</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <f t="shared" si="1"/>
-        <v>52</v>
+        <f>HEX2DEC(MID(B6,3,4))</f>
+        <v>251</v>
       </c>
       <c r="B6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C6" s="3">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>34</v>
+        <v>828</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="D6" t="s">
+        <v>830</v>
       </c>
       <c r="E6" t="s">
-        <v>188</v>
+        <v>831</v>
+      </c>
+      <c r="F6" t="s">
+        <v>865</v>
       </c>
       <c r="G6" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x34</v>
-      </c>
-      <c r="I6" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_52() throws Exception { verify( (char) 52, "4"); }</v>
+        <f>CONCATENATE("\x",LEFT(D6,2),"\x",MID(D6,4,2))</f>
+        <v>\xc3\xbb</v>
+      </c>
+      <c r="I6" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A6,"() throws Exception { verify( (char) ",A6, ", """,C6,"""); }")</f>
+        <v>@Test public void testConvert_251() throws Exception { verify( (char) 251, "û"); }</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <f t="shared" si="1"/>
-        <v>53</v>
+        <f>HEX2DEC(MID(B7,3,4))</f>
+        <v>250</v>
       </c>
       <c r="B7" t="s">
-        <v>189</v>
-      </c>
-      <c r="C7" s="3">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>35</v>
+        <v>824</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="D7" t="s">
+        <v>826</v>
       </c>
       <c r="E7" t="s">
-        <v>190</v>
+        <v>827</v>
+      </c>
+      <c r="F7" t="s">
+        <v>866</v>
       </c>
       <c r="G7" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x35</v>
-      </c>
-      <c r="I7" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_53() throws Exception { verify( (char) 53, "5"); }</v>
+        <f>CONCATENATE("\x",LEFT(D7,2),"\x",MID(D7,4,2))</f>
+        <v>\xc3\xba</v>
+      </c>
+      <c r="I7" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A7,"() throws Exception { verify( (char) ",A7, ", """,C7,"""); }")</f>
+        <v>@Test public void testConvert_250() throws Exception { verify( (char) 250, "ú"); }</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <f t="shared" si="1"/>
-        <v>54</v>
+        <f>HEX2DEC(MID(B8,3,4))</f>
+        <v>249</v>
       </c>
       <c r="B8" t="s">
-        <v>191</v>
-      </c>
-      <c r="C8" s="3">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>36</v>
+        <v>821</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" t="s">
+        <v>822</v>
       </c>
       <c r="E8" t="s">
-        <v>192</v>
+        <v>823</v>
+      </c>
+      <c r="F8" t="s">
+        <v>867</v>
       </c>
       <c r="G8" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x36</v>
-      </c>
-      <c r="I8" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_54() throws Exception { verify( (char) 54, "6"); }</v>
+        <f>CONCATENATE("\x",LEFT(D8,2),"\x",MID(D8,4,2))</f>
+        <v>\xc3\xb9</v>
+      </c>
+      <c r="I8" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A8,"() throws Exception { verify( (char) ",A8, ", """,C8,"""); }")</f>
+        <v>@Test public void testConvert_249() throws Exception { verify( (char) 249, "ù"); }</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <f t="shared" si="1"/>
-        <v>55</v>
+        <f>HEX2DEC(MID(B9,3,4))</f>
+        <v>248</v>
       </c>
       <c r="B9" t="s">
-        <v>193</v>
-      </c>
-      <c r="C9" s="3">
-        <v>7</v>
-      </c>
-      <c r="D9">
-        <v>37</v>
+        <v>817</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="D9" t="s">
+        <v>819</v>
       </c>
       <c r="E9" t="s">
-        <v>194</v>
+        <v>820</v>
+      </c>
+      <c r="F9" t="s">
+        <v>868</v>
       </c>
       <c r="G9" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x37</v>
-      </c>
-      <c r="I9" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_55() throws Exception { verify( (char) 55, "7"); }</v>
+        <f>CONCATENATE("\x",LEFT(D9,2),"\x",MID(D9,4,2))</f>
+        <v>\xc3\xb8</v>
+      </c>
+      <c r="I9" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A9,"() throws Exception { verify( (char) ",A9, ", """,C9,"""); }")</f>
+        <v>@Test public void testConvert_248() throws Exception { verify( (char) 248, "ø"); }</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <f t="shared" si="1"/>
-        <v>56</v>
+        <f>HEX2DEC(MID(B10,3,4))</f>
+        <v>247</v>
       </c>
       <c r="B10" t="s">
-        <v>195</v>
-      </c>
-      <c r="C10" s="3">
-        <v>8</v>
-      </c>
-      <c r="D10">
-        <v>38</v>
+        <v>814</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" t="s">
+        <v>815</v>
       </c>
       <c r="E10" t="s">
-        <v>196</v>
+        <v>816</v>
+      </c>
+      <c r="F10" t="s">
+        <v>869</v>
       </c>
       <c r="G10" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x38</v>
-      </c>
-      <c r="I10" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_56() throws Exception { verify( (char) 56, "8"); }</v>
+        <f>CONCATENATE("\x",LEFT(D10,2),"\x",MID(D10,4,2))</f>
+        <v>\xc3\xb7</v>
+      </c>
+      <c r="I10" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A10,"() throws Exception { verify( (char) ",A10, ", """,C10,"""); }")</f>
+        <v>@Test public void testConvert_247() throws Exception { verify( (char) 247, "÷"); }</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <f t="shared" si="1"/>
-        <v>57</v>
+        <f>HEX2DEC(MID(B11,3,4))</f>
+        <v>246</v>
       </c>
       <c r="B11" t="s">
-        <v>197</v>
-      </c>
-      <c r="C11" s="3">
-        <v>9</v>
-      </c>
-      <c r="D11">
-        <v>39</v>
+        <v>811</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D11" t="s">
+        <v>812</v>
       </c>
       <c r="E11" t="s">
-        <v>198</v>
+        <v>813</v>
+      </c>
+      <c r="F11" t="s">
+        <v>870</v>
       </c>
       <c r="G11" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x39</v>
-      </c>
-      <c r="I11" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_57() throws Exception { verify( (char) 57, "9"); }</v>
+        <f>CONCATENATE("\x",LEFT(D11,2),"\x",MID(D11,4,2))</f>
+        <v>\xc3\xb6</v>
+      </c>
+      <c r="I11" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A11,"() throws Exception { verify( (char) ",A11, ", """,C11,"""); }")</f>
+        <v>@Test public void testConvert_246() throws Exception { verify( (char) 246, "ö"); }</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <f t="shared" si="1"/>
-        <v>58</v>
+        <f>HEX2DEC(MID(B12,3,4))</f>
+        <v>245</v>
       </c>
       <c r="B12" t="s">
-        <v>199</v>
+        <v>807</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>200</v>
+        <v>808</v>
       </c>
       <c r="D12" t="s">
-        <v>201</v>
+        <v>809</v>
       </c>
       <c r="E12" t="s">
-        <v>202</v>
+        <v>810</v>
+      </c>
+      <c r="F12" t="s">
+        <v>871</v>
       </c>
       <c r="G12" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x3a</v>
-      </c>
-      <c r="I12" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_58() throws Exception { verify( (char) 58, ":"); }</v>
+        <f>CONCATENATE("\x",LEFT(D12,2),"\x",MID(D12,4,2))</f>
+        <v>\xc3\xb5</v>
+      </c>
+      <c r="I12" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A12,"() throws Exception { verify( (char) ",A12, ", """,C12,"""); }")</f>
+        <v>@Test public void testConvert_245() throws Exception { verify( (char) 245, "õ"); }</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <f t="shared" si="1"/>
-        <v>59</v>
+        <f>HEX2DEC(MID(B13,3,4))</f>
+        <v>244</v>
       </c>
       <c r="B13" t="s">
-        <v>203</v>
+        <v>804</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>204</v>
+        <v>139</v>
       </c>
       <c r="D13" t="s">
-        <v>205</v>
+        <v>805</v>
       </c>
       <c r="E13" t="s">
-        <v>206</v>
+        <v>806</v>
+      </c>
+      <c r="F13" t="s">
+        <v>872</v>
       </c>
       <c r="G13" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x3b</v>
-      </c>
-      <c r="I13" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_59() throws Exception { verify( (char) 59, ";"); }</v>
+        <f>CONCATENATE("\x",LEFT(D13,2),"\x",MID(D13,4,2))</f>
+        <v>\xc3\xb4</v>
+      </c>
+      <c r="I13" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A13,"() throws Exception { verify( (char) ",A13, ", """,C13,"""); }")</f>
+        <v>@Test public void testConvert_244() throws Exception { verify( (char) 244, "ô"); }</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <f>HEX2DEC(MID(B14,3,4))</f>
+        <v>243</v>
       </c>
       <c r="B14" t="s">
-        <v>207</v>
+        <v>800</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>208</v>
+        <v>801</v>
       </c>
       <c r="D14" t="s">
-        <v>209</v>
+        <v>802</v>
       </c>
       <c r="E14" t="s">
-        <v>210</v>
+        <v>803</v>
+      </c>
+      <c r="F14" t="s">
+        <v>873</v>
       </c>
       <c r="G14" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x3c</v>
-      </c>
-      <c r="I14" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_60() throws Exception { verify( (char) 60, "&lt;"); }</v>
+        <f>CONCATENATE("\x",LEFT(D14,2),"\x",MID(D14,4,2))</f>
+        <v>\xc3\xb3</v>
+      </c>
+      <c r="I14" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A14,"() throws Exception { verify( (char) ",A14, ", """,C14,"""); }")</f>
+        <v>@Test public void testConvert_243() throws Exception { verify( (char) 243, "ó"); }</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <f t="shared" si="1"/>
-        <v>61</v>
+        <f>HEX2DEC(MID(B15,3,4))</f>
+        <v>242</v>
       </c>
       <c r="B15" t="s">
-        <v>211</v>
+        <v>797</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>212</v>
+        <v>158</v>
       </c>
       <c r="D15" t="s">
-        <v>213</v>
+        <v>798</v>
       </c>
       <c r="E15" t="s">
-        <v>214</v>
+        <v>799</v>
+      </c>
+      <c r="F15" t="s">
+        <v>874</v>
       </c>
       <c r="G15" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x3d</v>
-      </c>
-      <c r="I15" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_61() throws Exception { verify( (char) 61, "="); }</v>
+        <f>CONCATENATE("\x",LEFT(D15,2),"\x",MID(D15,4,2))</f>
+        <v>\xc3\xb2</v>
+      </c>
+      <c r="I15" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A15,"() throws Exception { verify( (char) ",A15, ", """,C15,"""); }")</f>
+        <v>@Test public void testConvert_242() throws Exception { verify( (char) 242, "ò"); }</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <f t="shared" si="1"/>
-        <v>62</v>
+        <f>HEX2DEC(MID(B16,3,4))</f>
+        <v>241</v>
       </c>
       <c r="B16" t="s">
-        <v>215</v>
+        <v>794</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>216</v>
+        <v>67</v>
       </c>
       <c r="D16" t="s">
-        <v>217</v>
+        <v>795</v>
       </c>
       <c r="E16" t="s">
-        <v>218</v>
+        <v>796</v>
+      </c>
+      <c r="F16" t="s">
+        <v>875</v>
       </c>
       <c r="G16" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x3e</v>
-      </c>
-      <c r="I16" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_62() throws Exception { verify( (char) 62, "&gt;"); }</v>
+        <f>CONCATENATE("\x",LEFT(D16,2),"\x",MID(D16,4,2))</f>
+        <v>\xc3\xb1</v>
+      </c>
+      <c r="I16" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A16,"() throws Exception { verify( (char) ",A16, ", """,C16,"""); }")</f>
+        <v>@Test public void testConvert_241() throws Exception { verify( (char) 241, "ñ"); }</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <f t="shared" si="1"/>
-        <v>63</v>
+        <f>HEX2DEC(MID(B17,3,4))</f>
+        <v>240</v>
       </c>
       <c r="B17" t="s">
-        <v>219</v>
+        <v>791</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>220</v>
+        <v>177</v>
       </c>
       <c r="D17" t="s">
-        <v>221</v>
+        <v>792</v>
       </c>
       <c r="E17" t="s">
-        <v>222</v>
+        <v>793</v>
+      </c>
+      <c r="F17" t="s">
+        <v>876</v>
       </c>
       <c r="G17" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x3f</v>
-      </c>
-      <c r="I17" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_63() throws Exception { verify( (char) 63, "?"); }</v>
+        <f>CONCATENATE("\x",LEFT(D17,2),"\x",MID(D17,4,2))</f>
+        <v>\xc3\xb0</v>
+      </c>
+      <c r="I17" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A17,"() throws Exception { verify( (char) ",A17, ", """,C17,"""); }")</f>
+        <v>@Test public void testConvert_240() throws Exception { verify( (char) 240, "ð"); }</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <f t="shared" si="1"/>
-        <v>64</v>
+        <f>HEX2DEC(MID(B18,3,4))</f>
+        <v>239</v>
       </c>
       <c r="B18" t="s">
-        <v>223</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="D18">
-        <v>40</v>
+        <v>788</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" t="s">
+        <v>789</v>
       </c>
       <c r="E18" t="s">
-        <v>225</v>
+        <v>790</v>
+      </c>
+      <c r="F18" t="s">
+        <v>877</v>
       </c>
       <c r="G18" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x40</v>
-      </c>
-      <c r="I18" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_64() throws Exception { verify( (char) 64, "@"); }</v>
+        <f>CONCATENATE("\x",LEFT(D18,2),"\x",MID(D18,4,2))</f>
+        <v>\xc3\xaf</v>
+      </c>
+      <c r="I18" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A18,"() throws Exception { verify( (char) ",A18, ", """,C18,"""); }")</f>
+        <v>@Test public void testConvert_239() throws Exception { verify( (char) 239, "ï"); }</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <f t="shared" si="1"/>
-        <v>65</v>
+        <f>HEX2DEC(MID(B19,3,4))</f>
+        <v>238</v>
       </c>
       <c r="B19" t="s">
-        <v>226</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="D19">
-        <v>41</v>
+        <v>784</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="D19" t="s">
+        <v>786</v>
       </c>
       <c r="E19" t="s">
-        <v>228</v>
+        <v>787</v>
       </c>
       <c r="G19" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x41</v>
-      </c>
-      <c r="I19" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_65() throws Exception { verify( (char) 65, "A"); }</v>
+        <f>CONCATENATE("\x",LEFT(D19,2),"\x",MID(D19,4,2))</f>
+        <v>\xc3\xae</v>
+      </c>
+      <c r="I19" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A19,"() throws Exception { verify( (char) ",A19, ", """,C19,"""); }")</f>
+        <v>@Test public void testConvert_238() throws Exception { verify( (char) 238, "î"); }</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <f t="shared" si="1"/>
-        <v>66</v>
+        <f>HEX2DEC(MID(B20,3,4))</f>
+        <v>237</v>
       </c>
       <c r="B20" t="s">
-        <v>229</v>
+        <v>780</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D20">
-        <v>42</v>
+        <v>781</v>
+      </c>
+      <c r="D20" t="s">
+        <v>782</v>
       </c>
       <c r="E20" t="s">
-        <v>231</v>
+        <v>783</v>
       </c>
       <c r="G20" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x42</v>
-      </c>
-      <c r="I20" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_66() throws Exception { verify( (char) 66, "B"); }</v>
+        <f>CONCATENATE("\x",LEFT(D20,2),"\x",MID(D20,4,2))</f>
+        <v>\xc3\xad</v>
+      </c>
+      <c r="I20" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A20,"() throws Exception { verify( (char) ",A20, ", """,C20,"""); }")</f>
+        <v>@Test public void testConvert_237() throws Exception { verify( (char) 237, "í"); }</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <f t="shared" si="1"/>
-        <v>67</v>
+        <f>HEX2DEC(MID(B21,3,4))</f>
+        <v>236</v>
       </c>
       <c r="B21" t="s">
-        <v>232</v>
+        <v>777</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D21">
-        <v>43</v>
+        <v>166</v>
+      </c>
+      <c r="D21" t="s">
+        <v>778</v>
       </c>
       <c r="E21" t="s">
-        <v>234</v>
+        <v>779</v>
       </c>
       <c r="G21" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x43</v>
-      </c>
-      <c r="I21" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_67() throws Exception { verify( (char) 67, "C"); }</v>
+        <f>CONCATENATE("\x",LEFT(D21,2),"\x",MID(D21,4,2))</f>
+        <v>\xc3\xac</v>
+      </c>
+      <c r="I21" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A21,"() throws Exception { verify( (char) ",A21, ", """,C21,"""); }")</f>
+        <v>@Test public void testConvert_236() throws Exception { verify( (char) 236, "ì"); }</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <f t="shared" si="1"/>
-        <v>68</v>
+        <f>HEX2DEC(MID(B22,3,4))</f>
+        <v>235</v>
       </c>
       <c r="B22" t="s">
-        <v>235</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="D22">
-        <v>44</v>
+        <v>774</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="D22" t="s">
+        <v>775</v>
       </c>
       <c r="E22" t="s">
-        <v>237</v>
+        <v>776</v>
+      </c>
+      <c r="F22" t="s">
+        <v>883</v>
       </c>
       <c r="G22" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x44</v>
-      </c>
-      <c r="I22" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_68() throws Exception { verify( (char) 68, "D"); }</v>
+        <f>CONCATENATE("\x",LEFT(D22,2),"\x",MID(D22,4,2))</f>
+        <v>\xc3\xab</v>
+      </c>
+      <c r="I22" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A22,"() throws Exception { verify( (char) ",A22, ", """,C22,"""); }")</f>
+        <v>@Test public void testConvert_235() throws Exception { verify( (char) 235, "ë"); }</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <f t="shared" si="1"/>
-        <v>69</v>
+        <f>HEX2DEC(MID(B23,3,4))</f>
+        <v>234</v>
       </c>
       <c r="B23" t="s">
-        <v>238</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="D23">
-        <v>45</v>
+        <v>770</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="D23" t="s">
+        <v>772</v>
       </c>
       <c r="E23" t="s">
-        <v>240</v>
+        <v>773</v>
       </c>
       <c r="G23" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x45</v>
-      </c>
-      <c r="I23" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_69() throws Exception { verify( (char) 69, "E"); }</v>
+        <f>CONCATENATE("\x",LEFT(D23,2),"\x",MID(D23,4,2))</f>
+        <v>\xc3\xaa</v>
+      </c>
+      <c r="I23" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A23,"() throws Exception { verify( (char) ",A23, ", """,C23,"""); }")</f>
+        <v>@Test public void testConvert_234() throws Exception { verify( (char) 234, "ê"); }</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
-        <f t="shared" si="1"/>
-        <v>70</v>
+        <f>HEX2DEC(MID(B24,3,4))</f>
+        <v>233</v>
       </c>
       <c r="B24" t="s">
-        <v>241</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>242</v>
-      </c>
-      <c r="D24">
-        <v>46</v>
+        <v>767</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D24" t="s">
+        <v>768</v>
       </c>
       <c r="E24" t="s">
-        <v>243</v>
+        <v>769</v>
       </c>
       <c r="G24" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x46</v>
-      </c>
-      <c r="I24" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_70() throws Exception { verify( (char) 70, "F"); }</v>
+        <f>CONCATENATE("\x",LEFT(D24,2),"\x",MID(D24,4,2))</f>
+        <v>\xc3\xa9</v>
+      </c>
+      <c r="I24" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A24,"() throws Exception { verify( (char) ",A24, ", """,C24,"""); }")</f>
+        <v>@Test public void testConvert_233() throws Exception { verify( (char) 233, "é"); }</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
-        <f t="shared" si="1"/>
-        <v>71</v>
+        <f>HEX2DEC(MID(B25,3,4))</f>
+        <v>232</v>
       </c>
       <c r="B25" t="s">
-        <v>244</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="D25">
-        <v>47</v>
+        <v>764</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D25" t="s">
+        <v>765</v>
       </c>
       <c r="E25" t="s">
-        <v>246</v>
+        <v>766</v>
       </c>
       <c r="G25" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x47</v>
-      </c>
-      <c r="I25" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_71() throws Exception { verify( (char) 71, "G"); }</v>
+        <f>CONCATENATE("\x",LEFT(D25,2),"\x",MID(D25,4,2))</f>
+        <v>\xc3\xa8</v>
+      </c>
+      <c r="I25" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A25,"() throws Exception { verify( (char) ",A25, ", """,C25,"""); }")</f>
+        <v>@Test public void testConvert_232() throws Exception { verify( (char) 232, "è"); }</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
-        <f t="shared" si="1"/>
-        <v>72</v>
+        <f>HEX2DEC(MID(B26,3,4))</f>
+        <v>231</v>
       </c>
       <c r="B26" t="s">
-        <v>247</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="D26">
-        <v>48</v>
+        <v>761</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D26" t="s">
+        <v>762</v>
       </c>
       <c r="E26" t="s">
-        <v>249</v>
+        <v>763</v>
       </c>
       <c r="G26" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x48</v>
-      </c>
-      <c r="I26" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_72() throws Exception { verify( (char) 72, "H"); }</v>
+        <f>CONCATENATE("\x",LEFT(D26,2),"\x",MID(D26,4,2))</f>
+        <v>\xc3\xa7</v>
+      </c>
+      <c r="I26" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A26,"() throws Exception { verify( (char) ",A26, ", """,C26,"""); }")</f>
+        <v>@Test public void testConvert_231() throws Exception { verify( (char) 231, "ç"); }</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
-        <f t="shared" si="1"/>
-        <v>73</v>
+        <f>HEX2DEC(MID(B27,3,4))</f>
+        <v>230</v>
       </c>
       <c r="B27" t="s">
-        <v>250</v>
+        <v>757</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D27">
-        <v>49</v>
+        <v>758</v>
+      </c>
+      <c r="D27" t="s">
+        <v>759</v>
       </c>
       <c r="E27" t="s">
-        <v>252</v>
+        <v>760</v>
       </c>
       <c r="G27" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x49</v>
-      </c>
-      <c r="I27" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_73() throws Exception { verify( (char) 73, "I"); }</v>
+        <f>CONCATENATE("\x",LEFT(D27,2),"\x",MID(D27,4,2))</f>
+        <v>\xc3\xa6</v>
+      </c>
+      <c r="I27" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A27,"() throws Exception { verify( (char) ",A27, ", """,C27,"""); }")</f>
+        <v>@Test public void testConvert_230() throws Exception { verify( (char) 230, "æ"); }</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
-        <f t="shared" si="1"/>
-        <v>74</v>
+        <f>HEX2DEC(MID(B28,3,4))</f>
+        <v>229</v>
       </c>
       <c r="B28" t="s">
-        <v>253</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>254</v>
+        <v>754</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>170</v>
       </c>
       <c r="D28" t="s">
-        <v>255</v>
+        <v>755</v>
       </c>
       <c r="E28" t="s">
-        <v>256</v>
+        <v>756</v>
+      </c>
+      <c r="F28" t="s">
+        <v>884</v>
       </c>
       <c r="G28" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x4a</v>
-      </c>
-      <c r="I28" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_74() throws Exception { verify( (char) 74, "J"); }</v>
+        <f>CONCATENATE("\x",LEFT(D28,2),"\x",MID(D28,4,2))</f>
+        <v>\xc3\xa5</v>
+      </c>
+      <c r="I28" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A28,"() throws Exception { verify( (char) ",A28, ", """,C28,"""); }")</f>
+        <v>@Test public void testConvert_229() throws Exception { verify( (char) 229, "å"); }</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
-        <f t="shared" si="1"/>
-        <v>75</v>
+        <f>HEX2DEC(MID(B29,3,4))</f>
+        <v>228</v>
       </c>
       <c r="B29" t="s">
-        <v>257</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>258</v>
+        <v>751</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="D29" t="s">
-        <v>259</v>
+        <v>752</v>
       </c>
       <c r="E29" t="s">
-        <v>260</v>
+        <v>753</v>
       </c>
       <c r="G29" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x4b</v>
-      </c>
-      <c r="I29" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_75() throws Exception { verify( (char) 75, "K"); }</v>
+        <f>CONCATENATE("\x",LEFT(D29,2),"\x",MID(D29,4,2))</f>
+        <v>\xc3\xa4</v>
+      </c>
+      <c r="I29" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A29,"() throws Exception { verify( (char) ",A29, ", """,C29,"""); }")</f>
+        <v>@Test public void testConvert_228() throws Exception { verify( (char) 228, "ä"); }</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <f t="shared" si="1"/>
-        <v>76</v>
+        <f>HEX2DEC(MID(B30,3,4))</f>
+        <v>227</v>
       </c>
       <c r="B30" t="s">
-        <v>261</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>262</v>
+        <v>747</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>748</v>
       </c>
       <c r="D30" t="s">
-        <v>263</v>
+        <v>749</v>
       </c>
       <c r="E30" t="s">
-        <v>264</v>
+        <v>750</v>
+      </c>
+      <c r="F30" t="s">
+        <v>885</v>
       </c>
       <c r="G30" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x4c</v>
-      </c>
-      <c r="I30" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_76() throws Exception { verify( (char) 76, "L"); }</v>
+        <f>CONCATENATE("\x",LEFT(D30,2),"\x",MID(D30,4,2))</f>
+        <v>\xc3\xa3</v>
+      </c>
+      <c r="I30" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A30,"() throws Exception { verify( (char) ",A30, ", """,C30,"""); }")</f>
+        <v>@Test public void testConvert_227() throws Exception { verify( (char) 227, "ã"); }</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
-        <f t="shared" si="1"/>
-        <v>77</v>
+        <f>HEX2DEC(MID(B31,3,4))</f>
+        <v>226</v>
       </c>
       <c r="B31" t="s">
-        <v>265</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>266</v>
+        <v>743</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>744</v>
       </c>
       <c r="D31" t="s">
-        <v>267</v>
+        <v>745</v>
       </c>
       <c r="E31" t="s">
-        <v>268</v>
+        <v>746</v>
+      </c>
+      <c r="F31" t="s">
+        <v>886</v>
       </c>
       <c r="G31" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x4d</v>
-      </c>
-      <c r="I31" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_77() throws Exception { verify( (char) 77, "M"); }</v>
+        <f>CONCATENATE("\x",LEFT(D31,2),"\x",MID(D31,4,2))</f>
+        <v>\xc3\xa2</v>
+      </c>
+      <c r="I31" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A31,"() throws Exception { verify( (char) ",A31, ", """,C31,"""); }")</f>
+        <v>@Test public void testConvert_226() throws Exception { verify( (char) 226, "â"); }</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32">
-        <f t="shared" si="1"/>
-        <v>78</v>
+        <f>HEX2DEC(MID(B32,3,4))</f>
+        <v>225</v>
       </c>
       <c r="B32" t="s">
-        <v>269</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>270</v>
+        <v>739</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>740</v>
       </c>
       <c r="D32" t="s">
-        <v>271</v>
+        <v>741</v>
       </c>
       <c r="E32" t="s">
-        <v>272</v>
+        <v>742</v>
       </c>
       <c r="G32" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x4e</v>
-      </c>
-      <c r="I32" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_78() throws Exception { verify( (char) 78, "N"); }</v>
+        <f>CONCATENATE("\x",LEFT(D32,2),"\x",MID(D32,4,2))</f>
+        <v>\xc3\xa1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>849</v>
+      </c>
+      <c r="I32" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A32,"() throws Exception { verify( (char) ",A32, ", """,C32,"""); }")</f>
+        <v>@Test public void testConvert_225() throws Exception { verify( (char) 225, "á"); }</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33">
-        <f t="shared" si="1"/>
-        <v>79</v>
+        <f>HEX2DEC(MID(B33,3,4))</f>
+        <v>224</v>
       </c>
       <c r="B33" t="s">
-        <v>273</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>274</v>
+        <v>736</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="D33" t="s">
-        <v>275</v>
+        <v>737</v>
       </c>
       <c r="E33" t="s">
-        <v>276</v>
+        <v>738</v>
       </c>
       <c r="G33" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x4f</v>
-      </c>
-      <c r="I33" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_79() throws Exception { verify( (char) 79, "O"); }</v>
+        <f>CONCATENATE("\x",LEFT(D33,2),"\x",MID(D33,4,2))</f>
+        <v>\xc3\xa0</v>
+      </c>
+      <c r="I33" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A33,"() throws Exception { verify( (char) ",A33, ", """,C33,"""); }")</f>
+        <v>@Test public void testConvert_224() throws Exception { verify( (char) 224, "à"); }</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34">
-        <f t="shared" si="1"/>
-        <v>80</v>
+        <f>HEX2DEC(MID(B34,3,4))</f>
+        <v>223</v>
       </c>
       <c r="B34" t="s">
-        <v>277</v>
+        <v>733</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="D34">
-        <v>50</v>
+        <v>161</v>
+      </c>
+      <c r="D34" t="s">
+        <v>734</v>
       </c>
       <c r="E34" t="s">
-        <v>279</v>
+        <v>735</v>
       </c>
       <c r="G34" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x50</v>
-      </c>
-      <c r="I34" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_80() throws Exception { verify( (char) 80, "P"); }</v>
+        <f>CONCATENATE("\x",LEFT(D34,2),"\x",MID(D34,4,2))</f>
+        <v>\xc3\x9f</v>
+      </c>
+      <c r="I34" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A34,"() throws Exception { verify( (char) ",A34, ", """,C34,"""); }")</f>
+        <v>@Test public void testConvert_223() throws Exception { verify( (char) 223, "ß"); }</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35">
-        <f t="shared" si="1"/>
-        <v>81</v>
+        <f>HEX2DEC(MID(B35,3,4))</f>
+        <v>222</v>
       </c>
       <c r="B35" t="s">
-        <v>280</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="D35">
-        <v>51</v>
+        <v>730</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="D35" t="s">
+        <v>731</v>
       </c>
       <c r="E35" t="s">
-        <v>282</v>
+        <v>732</v>
+      </c>
+      <c r="F35" t="s">
+        <v>887</v>
       </c>
       <c r="G35" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x51</v>
-      </c>
-      <c r="I35" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_81() throws Exception { verify( (char) 81, "Q"); }</v>
+        <f>CONCATENATE("\x",LEFT(D35,2),"\x",MID(D35,4,2))</f>
+        <v>\xc3\x9e</v>
+      </c>
+      <c r="I35" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A35,"() throws Exception { verify( (char) ",A35, ", """,C35,"""); }")</f>
+        <v>@Test public void testConvert_222() throws Exception { verify( (char) 222, "Þ"); }</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36">
-        <f t="shared" si="1"/>
-        <v>82</v>
+        <f>HEX2DEC(MID(B36,3,4))</f>
+        <v>221</v>
       </c>
       <c r="B36" t="s">
-        <v>283</v>
-      </c>
-      <c r="C36" s="28" t="s">
-        <v>284</v>
-      </c>
-      <c r="D36">
-        <v>52</v>
+        <v>726</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>727</v>
+      </c>
+      <c r="D36" t="s">
+        <v>728</v>
       </c>
       <c r="E36" t="s">
-        <v>285</v>
-      </c>
-      <c r="F36" t="s">
-        <v>897</v>
+        <v>729</v>
       </c>
       <c r="G36" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x52</v>
+        <f>CONCATENATE("\x",LEFT(D36,2),"\x",MID(D36,4,2))</f>
+        <v>\xc3\x9d</v>
       </c>
       <c r="I36" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_82() throws Exception { verify( (char) 82, "R"); }</v>
+        <f>CONCATENATE("@Test public void testConvert_",A36,"() throws Exception { verify( (char) ",A36, ", """,C36,"""); }")</f>
+        <v>@Test public void testConvert_221() throws Exception { verify( (char) 221, "Ý"); }</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37">
-        <f t="shared" si="1"/>
-        <v>83</v>
+        <f>HEX2DEC(MID(B37,3,4))</f>
+        <v>220</v>
       </c>
       <c r="B37" t="s">
-        <v>286</v>
+        <v>723</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="D37">
-        <v>53</v>
+        <v>155</v>
+      </c>
+      <c r="D37" t="s">
+        <v>724</v>
       </c>
       <c r="E37" t="s">
-        <v>288</v>
+        <v>725</v>
       </c>
       <c r="G37" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x53</v>
-      </c>
-      <c r="I37" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_83() throws Exception { verify( (char) 83, "S"); }</v>
+        <f>CONCATENATE("\x",LEFT(D37,2),"\x",MID(D37,4,2))</f>
+        <v>\xc3\x9c</v>
+      </c>
+      <c r="I37" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A37,"() throws Exception { verify( (char) ",A37, ", """,C37,"""); }")</f>
+        <v>@Test public void testConvert_220() throws Exception { verify( (char) 220, "Ü"); }</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38">
-        <f t="shared" si="1"/>
-        <v>84</v>
+        <f>HEX2DEC(MID(B38,3,4))</f>
+        <v>219</v>
       </c>
       <c r="B38" t="s">
-        <v>289</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D38">
-        <v>54</v>
+        <v>719</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>720</v>
+      </c>
+      <c r="D38" t="s">
+        <v>721</v>
       </c>
       <c r="E38" t="s">
-        <v>291</v>
+        <v>722</v>
+      </c>
+      <c r="F38" t="s">
+        <v>888</v>
       </c>
       <c r="G38" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x54</v>
-      </c>
-      <c r="I38" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_84() throws Exception { verify( (char) 84, "T"); }</v>
+        <f>CONCATENATE("\x",LEFT(D38,2),"\x",MID(D38,4,2))</f>
+        <v>\xc3\x9b</v>
+      </c>
+      <c r="I38" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A38,"() throws Exception { verify( (char) ",A38, ", """,C38,"""); }")</f>
+        <v>@Test public void testConvert_219() throws Exception { verify( (char) 219, "Û"); }</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39">
-        <f t="shared" si="1"/>
-        <v>85</v>
+        <f>HEX2DEC(MID(B39,3,4))</f>
+        <v>218</v>
       </c>
       <c r="B39" t="s">
-        <v>292</v>
+        <v>715</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="D39">
-        <v>55</v>
+        <v>716</v>
+      </c>
+      <c r="D39" t="s">
+        <v>717</v>
       </c>
       <c r="E39" t="s">
-        <v>294</v>
+        <v>718</v>
       </c>
       <c r="G39" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x55</v>
-      </c>
-      <c r="I39" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_85() throws Exception { verify( (char) 85, "U"); }</v>
+        <f>CONCATENATE("\x",LEFT(D39,2),"\x",MID(D39,4,2))</f>
+        <v>\xc3\x9a</v>
+      </c>
+      <c r="I39" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A39,"() throws Exception { verify( (char) ",A39, ", """,C39,"""); }")</f>
+        <v>@Test public void testConvert_218() throws Exception { verify( (char) 218, "Ú"); }</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40">
-        <f t="shared" si="1"/>
-        <v>86</v>
+        <f>HEX2DEC(MID(B40,3,4))</f>
+        <v>217</v>
       </c>
       <c r="B40" t="s">
-        <v>295</v>
+        <v>712</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="D40">
-        <v>56</v>
+        <v>159</v>
+      </c>
+      <c r="D40" t="s">
+        <v>713</v>
       </c>
       <c r="E40" t="s">
-        <v>297</v>
+        <v>714</v>
       </c>
       <c r="G40" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x56</v>
-      </c>
-      <c r="I40" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_86() throws Exception { verify( (char) 86, "V"); }</v>
+        <f>CONCATENATE("\x",LEFT(D40,2),"\x",MID(D40,4,2))</f>
+        <v>\xc3\x99</v>
+      </c>
+      <c r="I40" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A40,"() throws Exception { verify( (char) ",A40, ", """,C40,"""); }")</f>
+        <v>@Test public void testConvert_217() throws Exception { verify( (char) 217, "Ù"); }</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41">
-        <f t="shared" si="1"/>
-        <v>87</v>
+        <f>HEX2DEC(MID(B41,3,4))</f>
+        <v>216</v>
       </c>
       <c r="B41" t="s">
-        <v>298</v>
+        <v>708</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="D41">
-        <v>57</v>
+        <v>709</v>
+      </c>
+      <c r="D41" t="s">
+        <v>710</v>
       </c>
       <c r="E41" t="s">
-        <v>300</v>
+        <v>711</v>
       </c>
       <c r="G41" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x57</v>
-      </c>
-      <c r="I41" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_87() throws Exception { verify( (char) 87, "W"); }</v>
+        <f>CONCATENATE("\x",LEFT(D41,2),"\x",MID(D41,4,2))</f>
+        <v>\xc3\x98</v>
+      </c>
+      <c r="I41" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A41,"() throws Exception { verify( (char) ",A41, ", """,C41,"""); }")</f>
+        <v>@Test public void testConvert_216() throws Exception { verify( (char) 216, "Ø"); }</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42">
-        <f t="shared" si="1"/>
-        <v>88</v>
+        <f>HEX2DEC(MID(B42,3,4))</f>
+        <v>215</v>
       </c>
       <c r="B42" t="s">
-        <v>301</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D42">
-        <v>58</v>
+        <v>705</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="D42" t="s">
+        <v>706</v>
       </c>
       <c r="E42" t="s">
-        <v>303</v>
+        <v>707</v>
+      </c>
+      <c r="F42" t="s">
+        <v>889</v>
       </c>
       <c r="G42" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x58</v>
-      </c>
-      <c r="I42" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_88() throws Exception { verify( (char) 88, "X"); }</v>
+        <f>CONCATENATE("\x",LEFT(D42,2),"\x",MID(D42,4,2))</f>
+        <v>\xc3\x97</v>
+      </c>
+      <c r="I42" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A42,"() throws Exception { verify( (char) ",A42, ", """,C42,"""); }")</f>
+        <v>@Test public void testConvert_215() throws Exception { verify( (char) 215, "×"); }</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43">
-        <f t="shared" si="1"/>
-        <v>89</v>
+        <f>HEX2DEC(MID(B43,3,4))</f>
+        <v>214</v>
       </c>
       <c r="B43" t="s">
-        <v>304</v>
+        <v>702</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="D43">
-        <v>59</v>
+        <v>173</v>
+      </c>
+      <c r="D43" t="s">
+        <v>703</v>
       </c>
       <c r="E43" t="s">
-        <v>306</v>
+        <v>704</v>
       </c>
       <c r="G43" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x59</v>
-      </c>
-      <c r="I43" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_89() throws Exception { verify( (char) 89, "Y"); }</v>
+        <f>CONCATENATE("\x",LEFT(D43,2),"\x",MID(D43,4,2))</f>
+        <v>\xc3\x96</v>
+      </c>
+      <c r="I43" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A43,"() throws Exception { verify( (char) ",A43, ", """,C43,"""); }")</f>
+        <v>@Test public void testConvert_214() throws Exception { verify( (char) 214, "Ö"); }</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44">
-        <f t="shared" si="1"/>
-        <v>90</v>
+        <f>HEX2DEC(MID(B44,3,4))</f>
+        <v>213</v>
       </c>
       <c r="B44" t="s">
-        <v>307</v>
+        <v>698</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>308</v>
+        <v>699</v>
       </c>
       <c r="D44" t="s">
-        <v>309</v>
+        <v>700</v>
       </c>
       <c r="E44" t="s">
-        <v>310</v>
+        <v>701</v>
       </c>
       <c r="G44" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x5a</v>
-      </c>
-      <c r="I44" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_90() throws Exception { verify( (char) 90, "Z"); }</v>
+        <f>CONCATENATE("\x",LEFT(D44,2),"\x",MID(D44,4,2))</f>
+        <v>\xc3\x95</v>
+      </c>
+      <c r="I44" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A44,"() throws Exception { verify( (char) ",A44, ", """,C44,"""); }")</f>
+        <v>@Test public void testConvert_213() throws Exception { verify( (char) 213, "Õ"); }</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45">
-        <f t="shared" si="1"/>
-        <v>91</v>
+        <f>HEX2DEC(MID(B45,3,4))</f>
+        <v>212</v>
       </c>
       <c r="B45" t="s">
-        <v>311</v>
+        <v>695</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>312</v>
+        <v>135</v>
       </c>
       <c r="D45" t="s">
-        <v>313</v>
+        <v>696</v>
       </c>
       <c r="E45" t="s">
-        <v>314</v>
+        <v>697</v>
       </c>
       <c r="G45" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x5b</v>
-      </c>
-      <c r="I45" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_91() throws Exception { verify( (char) 91, "["); }</v>
+        <f>CONCATENATE("\x",LEFT(D45,2),"\x",MID(D45,4,2))</f>
+        <v>\xc3\x94</v>
+      </c>
+      <c r="I45" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A45,"() throws Exception { verify( (char) ",A45, ", """,C45,"""); }")</f>
+        <v>@Test public void testConvert_212() throws Exception { verify( (char) 212, "Ô"); }</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46">
-        <f t="shared" si="1"/>
-        <v>92</v>
+        <f>HEX2DEC(MID(B46,3,4))</f>
+        <v>211</v>
       </c>
       <c r="B46" t="s">
-        <v>315</v>
+        <v>691</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>316</v>
+        <v>692</v>
       </c>
       <c r="D46" t="s">
-        <v>317</v>
+        <v>693</v>
       </c>
       <c r="E46" t="s">
-        <v>318</v>
+        <v>694</v>
       </c>
       <c r="G46" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x5c</v>
-      </c>
-      <c r="I46" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_92() throws Exception { verify( (char) 92, "\"); }</v>
+        <f>CONCATENATE("\x",LEFT(D46,2),"\x",MID(D46,4,2))</f>
+        <v>\xc3\x93</v>
+      </c>
+      <c r="I46" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A46,"() throws Exception { verify( (char) ",A46, ", """,C46,"""); }")</f>
+        <v>@Test public void testConvert_211() throws Exception { verify( (char) 211, "Ó"); }</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47">
-        <f t="shared" si="1"/>
-        <v>93</v>
+        <f>HEX2DEC(MID(B47,3,4))</f>
+        <v>210</v>
       </c>
       <c r="B47" t="s">
-        <v>319</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>320</v>
+        <v>688</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>157</v>
       </c>
       <c r="D47" t="s">
-        <v>321</v>
+        <v>689</v>
       </c>
       <c r="E47" t="s">
-        <v>322</v>
+        <v>690</v>
+      </c>
+      <c r="F47" t="s">
+        <v>890</v>
       </c>
       <c r="G47" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x5d</v>
-      </c>
-      <c r="I47" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_93() throws Exception { verify( (char) 93, "]"); }</v>
+        <f>CONCATENATE("\x",LEFT(D47,2),"\x",MID(D47,4,2))</f>
+        <v>\xc3\x92</v>
+      </c>
+      <c r="I47" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A47,"() throws Exception { verify( (char) ",A47, ", """,C47,"""); }")</f>
+        <v>@Test public void testConvert_210() throws Exception { verify( (char) 210, "Ò"); }</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48">
-        <f t="shared" si="1"/>
-        <v>94</v>
+        <f>HEX2DEC(MID(B48,3,4))</f>
+        <v>209</v>
       </c>
       <c r="B48" t="s">
-        <v>323</v>
+        <v>685</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>324</v>
+        <v>106</v>
       </c>
       <c r="D48" t="s">
-        <v>325</v>
+        <v>686</v>
       </c>
       <c r="E48" t="s">
-        <v>326</v>
+        <v>687</v>
       </c>
       <c r="G48" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x5e</v>
-      </c>
-      <c r="I48" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_94() throws Exception { verify( (char) 94, "^"); }</v>
+        <f>CONCATENATE("\x",LEFT(D48,2),"\x",MID(D48,4,2))</f>
+        <v>\xc3\x91</v>
+      </c>
+      <c r="I48" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A48,"() throws Exception { verify( (char) ",A48, ", """,C48,"""); }")</f>
+        <v>@Test public void testConvert_209() throws Exception { verify( (char) 209, "Ñ"); }</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49">
-        <f t="shared" si="1"/>
-        <v>95</v>
+        <f>HEX2DEC(MID(B49,3,4))</f>
+        <v>208</v>
       </c>
       <c r="B49" t="s">
-        <v>327</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>328</v>
+        <v>682</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="D49" t="s">
-        <v>329</v>
+        <v>683</v>
       </c>
       <c r="E49" t="s">
-        <v>330</v>
+        <v>684</v>
+      </c>
+      <c r="F49" t="s">
+        <v>891</v>
       </c>
       <c r="G49" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x5f</v>
-      </c>
-      <c r="I49" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_95() throws Exception { verify( (char) 95, "_"); }</v>
+        <f>CONCATENATE("\x",LEFT(D49,2),"\x",MID(D49,4,2))</f>
+        <v>\xc3\x90</v>
+      </c>
+      <c r="I49" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A49,"() throws Exception { verify( (char) ",A49, ", """,C49,"""); }")</f>
+        <v>@Test public void testConvert_208() throws Exception { verify( (char) 208, "Ð"); }</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50">
-        <f t="shared" si="1"/>
-        <v>96</v>
+        <f>HEX2DEC(MID(B50,3,4))</f>
+        <v>207</v>
       </c>
       <c r="B50" t="s">
-        <v>331</v>
+        <v>679</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="D50">
-        <v>60</v>
+        <v>147</v>
+      </c>
+      <c r="D50" t="s">
+        <v>680</v>
       </c>
       <c r="E50" t="s">
-        <v>333</v>
+        <v>681</v>
       </c>
       <c r="G50" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x60</v>
-      </c>
-      <c r="I50" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_96() throws Exception { verify( (char) 96, "`"); }</v>
+        <f>CONCATENATE("\x",LEFT(D50,2),"\x",MID(D50,4,2))</f>
+        <v>\xc3\x8f</v>
+      </c>
+      <c r="I50" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A50,"() throws Exception { verify( (char) ",A50, ", """,C50,"""); }")</f>
+        <v>@Test public void testConvert_207() throws Exception { verify( (char) 207, "Ï"); }</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51">
-        <f t="shared" si="1"/>
-        <v>97</v>
+        <f>HEX2DEC(MID(B51,3,4))</f>
+        <v>206</v>
       </c>
       <c r="B51" t="s">
-        <v>334</v>
-      </c>
-      <c r="C51" s="23" t="s">
-        <v>335</v>
-      </c>
-      <c r="D51">
-        <v>61</v>
+        <v>675</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="D51" t="s">
+        <v>677</v>
       </c>
       <c r="E51" t="s">
-        <v>336</v>
+        <v>678</v>
       </c>
       <c r="G51" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x61</v>
-      </c>
-      <c r="I51" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_97() throws Exception { verify( (char) 97, "a"); }</v>
+        <f>CONCATENATE("\x",LEFT(D51,2),"\x",MID(D51,4,2))</f>
+        <v>\xc3\x8e</v>
+      </c>
+      <c r="I51" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A51,"() throws Exception { verify( (char) ",A51, ", """,C51,"""); }")</f>
+        <v>@Test public void testConvert_206() throws Exception { verify( (char) 206, "Î"); }</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52">
-        <f t="shared" si="1"/>
-        <v>98</v>
+        <f>HEX2DEC(MID(B52,3,4))</f>
+        <v>205</v>
       </c>
       <c r="B52" t="s">
-        <v>337</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D52">
-        <v>62</v>
+        <v>671</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>672</v>
+      </c>
+      <c r="D52" t="s">
+        <v>673</v>
       </c>
       <c r="E52" t="s">
-        <v>339</v>
+        <v>674</v>
+      </c>
+      <c r="F52" t="s">
+        <v>892</v>
       </c>
       <c r="G52" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x62</v>
-      </c>
-      <c r="I52" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_98() throws Exception { verify( (char) 98, "b"); }</v>
+        <f>CONCATENATE("\x",LEFT(D52,2),"\x",MID(D52,4,2))</f>
+        <v>\xc3\x8d</v>
+      </c>
+      <c r="I52" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A52,"() throws Exception { verify( (char) ",A52, ", """,C52,"""); }")</f>
+        <v>@Test public void testConvert_205() throws Exception { verify( (char) 205, "Í"); }</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53">
-        <f t="shared" si="1"/>
-        <v>99</v>
+        <f>HEX2DEC(MID(B53,3,4))</f>
+        <v>204</v>
       </c>
       <c r="B53" t="s">
-        <v>340</v>
+        <v>668</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D53">
-        <v>63</v>
+        <v>165</v>
+      </c>
+      <c r="D53" t="s">
+        <v>669</v>
       </c>
       <c r="E53" t="s">
-        <v>342</v>
+        <v>670</v>
       </c>
       <c r="G53" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x63</v>
-      </c>
-      <c r="I53" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_99() throws Exception { verify( (char) 99, "c"); }</v>
+        <f>CONCATENATE("\x",LEFT(D53,2),"\x",MID(D53,4,2))</f>
+        <v>\xc3\x8c</v>
+      </c>
+      <c r="I53" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A53,"() throws Exception { verify( (char) ",A53, ", """,C53,"""); }")</f>
+        <v>@Test public void testConvert_204() throws Exception { verify( (char) 204, "Ì"); }</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <f>HEX2DEC(MID(B54,3,4))</f>
+        <v>203</v>
       </c>
       <c r="B54" t="s">
-        <v>343</v>
+        <v>665</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="D54">
-        <v>64</v>
+        <v>167</v>
+      </c>
+      <c r="D54" t="s">
+        <v>666</v>
       </c>
       <c r="E54" t="s">
-        <v>345</v>
+        <v>667</v>
       </c>
       <c r="G54" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x64</v>
-      </c>
-      <c r="I54" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_100() throws Exception { verify( (char) 100, "d"); }</v>
+        <f>CONCATENATE("\x",LEFT(D54,2),"\x",MID(D54,4,2))</f>
+        <v>\xc3\x8b</v>
+      </c>
+      <c r="I54" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A54,"() throws Exception { verify( (char) ",A54, ", """,C54,"""); }")</f>
+        <v>@Test public void testConvert_203() throws Exception { verify( (char) 203, "Ë"); }</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55">
-        <f t="shared" si="1"/>
-        <v>101</v>
+        <f>HEX2DEC(MID(B55,3,4))</f>
+        <v>202</v>
       </c>
       <c r="B55" t="s">
-        <v>346</v>
-      </c>
-      <c r="C55" s="23" t="s">
-        <v>347</v>
-      </c>
-      <c r="D55">
-        <v>65</v>
+        <v>661</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="D55" t="s">
+        <v>663</v>
       </c>
       <c r="E55" t="s">
-        <v>348</v>
+        <v>664</v>
       </c>
       <c r="G55" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x65</v>
-      </c>
-      <c r="I55" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_101() throws Exception { verify( (char) 101, "e"); }</v>
+        <f>CONCATENATE("\x",LEFT(D55,2),"\x",MID(D55,4,2))</f>
+        <v>\xc3\x8a</v>
+      </c>
+      <c r="I55" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A55,"() throws Exception { verify( (char) ",A55, ", """,C55,"""); }")</f>
+        <v>@Test public void testConvert_202() throws Exception { verify( (char) 202, "Ê"); }</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56">
-        <f t="shared" si="1"/>
-        <v>102</v>
+        <f>HEX2DEC(MID(B56,3,4))</f>
+        <v>201</v>
       </c>
       <c r="B56" t="s">
-        <v>349</v>
+        <v>658</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="D56">
-        <v>66</v>
+        <v>151</v>
+      </c>
+      <c r="D56" t="s">
+        <v>659</v>
       </c>
       <c r="E56" t="s">
-        <v>351</v>
+        <v>660</v>
       </c>
       <c r="G56" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x66</v>
-      </c>
-      <c r="I56" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_102() throws Exception { verify( (char) 102, "f"); }</v>
+        <f>CONCATENATE("\x",LEFT(D56,2),"\x",MID(D56,4,2))</f>
+        <v>\xc3\x89</v>
+      </c>
+      <c r="I56" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A56,"() throws Exception { verify( (char) ",A56, ", """,C56,"""); }")</f>
+        <v>@Test public void testConvert_201() throws Exception { verify( (char) 201, "É"); }</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57">
-        <f t="shared" si="1"/>
-        <v>103</v>
+        <f>HEX2DEC(MID(B57,3,4))</f>
+        <v>200</v>
       </c>
       <c r="B57" t="s">
-        <v>352</v>
+        <v>655</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>353</v>
-      </c>
-      <c r="D57">
-        <v>67</v>
+        <v>171</v>
+      </c>
+      <c r="D57" t="s">
+        <v>656</v>
       </c>
       <c r="E57" t="s">
-        <v>354</v>
+        <v>657</v>
       </c>
       <c r="G57" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x67</v>
-      </c>
-      <c r="I57" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_103() throws Exception { verify( (char) 103, "g"); }</v>
+        <f>CONCATENATE("\x",LEFT(D57,2),"\x",MID(D57,4,2))</f>
+        <v>\xc3\x88</v>
+      </c>
+      <c r="I57" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A57,"() throws Exception { verify( (char) ",A57, ", """,C57,"""); }")</f>
+        <v>@Test public void testConvert_200() throws Exception { verify( (char) 200, "È"); }</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58">
-        <f t="shared" si="1"/>
-        <v>104</v>
+        <f>HEX2DEC(MID(B58,3,4))</f>
+        <v>199</v>
       </c>
       <c r="B58" t="s">
-        <v>355</v>
+        <v>652</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="D58">
-        <v>68</v>
+        <v>153</v>
+      </c>
+      <c r="D58" t="s">
+        <v>653</v>
       </c>
       <c r="E58" t="s">
-        <v>357</v>
+        <v>654</v>
       </c>
       <c r="G58" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x68</v>
-      </c>
-      <c r="I58" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_104() throws Exception { verify( (char) 104, "h"); }</v>
+        <f>CONCATENATE("\x",LEFT(D58,2),"\x",MID(D58,4,2))</f>
+        <v>\xc3\x87</v>
+      </c>
+      <c r="I58" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A58,"() throws Exception { verify( (char) ",A58, ", """,C58,"""); }")</f>
+        <v>@Test public void testConvert_199() throws Exception { verify( (char) 199, "Ç"); }</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59">
-        <f t="shared" si="1"/>
-        <v>105</v>
+        <f>HEX2DEC(MID(B59,3,4))</f>
+        <v>198</v>
       </c>
       <c r="B59" t="s">
-        <v>358</v>
-      </c>
-      <c r="C59" s="28" t="s">
-        <v>359</v>
-      </c>
-      <c r="D59">
-        <v>69</v>
+        <v>648</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="D59" t="s">
+        <v>650</v>
       </c>
       <c r="E59" t="s">
-        <v>360</v>
-      </c>
-      <c r="F59" t="s">
-        <v>896</v>
+        <v>651</v>
       </c>
       <c r="G59" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x69</v>
+        <f>CONCATENATE("\x",LEFT(D59,2),"\x",MID(D59,4,2))</f>
+        <v>\xc3\x86</v>
       </c>
       <c r="I59" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_105() throws Exception { verify( (char) 105, "i"); }</v>
+        <f>CONCATENATE("@Test public void testConvert_",A59,"() throws Exception { verify( (char) ",A59, ", """,C59,"""); }")</f>
+        <v>@Test public void testConvert_198() throws Exception { verify( (char) 198, "Æ"); }</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60">
-        <f t="shared" si="1"/>
-        <v>106</v>
+        <f>HEX2DEC(MID(B60,3,4))</f>
+        <v>197</v>
       </c>
       <c r="B60" t="s">
-        <v>361</v>
-      </c>
-      <c r="C60" s="23" t="s">
-        <v>362</v>
+        <v>645</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="D60" t="s">
-        <v>363</v>
+        <v>646</v>
       </c>
       <c r="E60" t="s">
-        <v>364</v>
+        <v>647</v>
       </c>
       <c r="G60" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x6a</v>
-      </c>
-      <c r="I60" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_106() throws Exception { verify( (char) 106, "j"); }</v>
+        <f>CONCATENATE("\x",LEFT(D60,2),"\x",MID(D60,4,2))</f>
+        <v>\xc3\x85</v>
+      </c>
+      <c r="I60" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A60,"() throws Exception { verify( (char) ",A60, ", """,C60,"""); }")</f>
+        <v>@Test public void testConvert_197() throws Exception { verify( (char) 197, "Å"); }</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61">
-        <f t="shared" si="1"/>
-        <v>107</v>
+        <f>HEX2DEC(MID(B61,3,4))</f>
+        <v>196</v>
       </c>
       <c r="B61" t="s">
-        <v>365</v>
-      </c>
-      <c r="C61" s="23" t="s">
-        <v>366</v>
+        <v>642</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="D61" t="s">
-        <v>367</v>
+        <v>643</v>
       </c>
       <c r="E61" t="s">
-        <v>368</v>
+        <v>644</v>
       </c>
       <c r="G61" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x6b</v>
-      </c>
-      <c r="I61" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_107() throws Exception { verify( (char) 107, "k"); }</v>
+        <f>CONCATENATE("\x",LEFT(D61,2),"\x",MID(D61,4,2))</f>
+        <v>\xc3\x84</v>
+      </c>
+      <c r="I61" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A61,"() throws Exception { verify( (char) ",A61, ", """,C61,"""); }")</f>
+        <v>@Test public void testConvert_196() throws Exception { verify( (char) 196, "Ä"); }</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62">
-        <f t="shared" si="1"/>
-        <v>108</v>
+        <f>HEX2DEC(MID(B62,3,4))</f>
+        <v>195</v>
       </c>
       <c r="B62" t="s">
-        <v>369</v>
+        <v>638</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>370</v>
+        <v>639</v>
       </c>
       <c r="D62" t="s">
-        <v>371</v>
+        <v>640</v>
       </c>
       <c r="E62" t="s">
-        <v>372</v>
+        <v>641</v>
       </c>
       <c r="G62" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x6c</v>
-      </c>
-      <c r="I62" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_108() throws Exception { verify( (char) 108, "l"); }</v>
+        <f>CONCATENATE("\x",LEFT(D62,2),"\x",MID(D62,4,2))</f>
+        <v>\xc3\x83</v>
+      </c>
+      <c r="I62" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A62,"() throws Exception { verify( (char) ",A62, ", """,C62,"""); }")</f>
+        <v>@Test public void testConvert_195() throws Exception { verify( (char) 195, "Ã"); }</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63">
-        <f t="shared" si="1"/>
-        <v>109</v>
+        <f>HEX2DEC(MID(B63,3,4))</f>
+        <v>194</v>
       </c>
       <c r="B63" t="s">
-        <v>373</v>
-      </c>
-      <c r="C63" s="24" t="s">
-        <v>374</v>
+        <v>634</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>635</v>
       </c>
       <c r="D63" t="s">
-        <v>375</v>
+        <v>636</v>
       </c>
       <c r="E63" t="s">
-        <v>376</v>
+        <v>637</v>
       </c>
       <c r="G63" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x6d</v>
-      </c>
-      <c r="I63" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_109() throws Exception { verify( (char) 109, "m"); }</v>
+        <f>CONCATENATE("\x",LEFT(D63,2),"\x",MID(D63,4,2))</f>
+        <v>\xc3\x82</v>
+      </c>
+      <c r="I63" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A63,"() throws Exception { verify( (char) ",A63, ", """,C63,"""); }")</f>
+        <v>@Test public void testConvert_194() throws Exception { verify( (char) 194, "Â"); }</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64">
-        <f t="shared" si="1"/>
-        <v>110</v>
+        <f>HEX2DEC(MID(B64,3,4))</f>
+        <v>193</v>
       </c>
       <c r="B64" t="s">
-        <v>377</v>
+        <v>630</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>378</v>
+        <v>631</v>
       </c>
       <c r="D64" t="s">
-        <v>379</v>
+        <v>632</v>
       </c>
       <c r="E64" t="s">
-        <v>380</v>
+        <v>633</v>
       </c>
       <c r="G64" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x6e</v>
-      </c>
-      <c r="I64" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_110() throws Exception { verify( (char) 110, "n"); }</v>
+        <f>CONCATENATE("\x",LEFT(D64,2),"\x",MID(D64,4,2))</f>
+        <v>\xc3\x81</v>
+      </c>
+      <c r="I64" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A64,"() throws Exception { verify( (char) ",A64, ", """,C64,"""); }")</f>
+        <v>@Test public void testConvert_193() throws Exception { verify( (char) 193, "Á"); }</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65">
-        <f t="shared" si="1"/>
-        <v>111</v>
+        <f>HEX2DEC(MID(B65,3,4))</f>
+        <v>192</v>
       </c>
       <c r="B65" t="s">
-        <v>381</v>
-      </c>
-      <c r="C65" s="23" t="s">
-        <v>382</v>
+        <v>627</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="D65" t="s">
-        <v>383</v>
+        <v>628</v>
       </c>
       <c r="E65" t="s">
-        <v>384</v>
+        <v>629</v>
       </c>
       <c r="G65" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x6f</v>
-      </c>
-      <c r="I65" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_111() throws Exception { verify( (char) 111, "o"); }</v>
+        <f>CONCATENATE("\x",LEFT(D65,2),"\x",MID(D65,4,2))</f>
+        <v>\xc3\x80</v>
+      </c>
+      <c r="I65" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A65,"() throws Exception { verify( (char) ",A65, ", """,C65,"""); }")</f>
+        <v>@Test public void testConvert_192() throws Exception { verify( (char) 192, "À"); }</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66">
-        <f t="shared" si="1"/>
-        <v>112</v>
+        <f>HEX2DEC(MID(B66,3,4))</f>
+        <v>191</v>
       </c>
       <c r="B66" t="s">
-        <v>385</v>
+        <v>623</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="D66">
-        <v>70</v>
+        <v>624</v>
+      </c>
+      <c r="D66" t="s">
+        <v>625</v>
       </c>
       <c r="E66" t="s">
-        <v>387</v>
+        <v>626</v>
       </c>
       <c r="G66" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x70</v>
-      </c>
-      <c r="I66" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>@Test public void testConvert_112() throws Exception { verify( (char) 112, "p"); }</v>
+        <f>CONCATENATE("\x",LEFT(D66,2),"\x",MID(D66,4,2))</f>
+        <v>\xc2\xbf</v>
+      </c>
+      <c r="I66" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A66,"() throws Exception { verify( (char) ",A66, ", """,C66,"""); }")</f>
+        <v>@Test public void testConvert_191() throws Exception { verify( (char) 191, "¿"); }</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67">
-        <f t="shared" si="1"/>
-        <v>113</v>
+        <f>HEX2DEC(MID(B67,3,4))</f>
+        <v>190</v>
       </c>
       <c r="B67" t="s">
-        <v>388</v>
-      </c>
-      <c r="C67" s="23" t="s">
-        <v>389</v>
-      </c>
-      <c r="D67">
-        <v>71</v>
+        <v>619</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="D67" t="s">
+        <v>621</v>
       </c>
       <c r="E67" t="s">
-        <v>390</v>
+        <v>622</v>
       </c>
       <c r="G67" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x71</v>
-      </c>
-      <c r="I67" s="14" t="str">
-        <f t="shared" ref="I67:I80" si="3">CONCATENATE("@Test public void testConvert_",A67,"() throws Exception { verify( (char) ",A67, ", """,C67,"""); }")</f>
-        <v>@Test public void testConvert_113() throws Exception { verify( (char) 113, "q"); }</v>
+        <f>CONCATENATE("\x",LEFT(D67,2),"\x",MID(D67,4,2))</f>
+        <v>\xc2\xbe</v>
+      </c>
+      <c r="I67" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A67,"() throws Exception { verify( (char) ",A67, ", """,C67,"""); }")</f>
+        <v>@Test public void testConvert_190() throws Exception { verify( (char) 190, "¾"); }</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68">
-        <f t="shared" si="1"/>
-        <v>114</v>
+        <f>HEX2DEC(MID(B68,3,4))</f>
+        <v>189</v>
       </c>
       <c r="B68" t="s">
-        <v>391</v>
+        <v>615</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="D68">
-        <v>72</v>
+        <v>616</v>
+      </c>
+      <c r="D68" t="s">
+        <v>617</v>
       </c>
       <c r="E68" t="s">
-        <v>393</v>
+        <v>618</v>
       </c>
       <c r="G68" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>\x72</v>
-      </c>
-      <c r="I68" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>@Test public void testConvert_114() throws Exception { verify( (char) 114, "r"); }</v>
+        <f>CONCATENATE("\x",LEFT(D68,2),"\x",MID(D68,4,2))</f>
+        <v>\xc2\xbd</v>
+      </c>
+      <c r="I68" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A68,"() throws Exception { verify( (char) ",A68, ", """,C68,"""); }")</f>
+        <v>@Test public void testConvert_189() throws Exception { verify( (char) 189, "½"); }</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69">
-        <f t="shared" ref="A69:A80" si="4">HEX2DEC(MID(B69,3,4))</f>
-        <v>115</v>
+        <f>HEX2DEC(MID(B69,3,4))</f>
+        <v>188</v>
       </c>
       <c r="B69" t="s">
-        <v>394</v>
+        <v>611</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="D69">
-        <v>73</v>
+        <v>612</v>
+      </c>
+      <c r="D69" t="s">
+        <v>613</v>
       </c>
       <c r="E69" t="s">
-        <v>396</v>
+        <v>614</v>
       </c>
       <c r="G69" s="20" t="str">
-        <f t="shared" ref="G69:G80" si="5">CONCATENATE("\x",TRIM(D69))</f>
-        <v>\x73</v>
-      </c>
-      <c r="I69" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>@Test public void testConvert_115() throws Exception { verify( (char) 115, "s"); }</v>
+        <f>CONCATENATE("\x",LEFT(D69,2),"\x",MID(D69,4,2))</f>
+        <v>\xc2\xbc</v>
+      </c>
+      <c r="I69" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A69,"() throws Exception { verify( (char) ",A69, ", """,C69,"""); }")</f>
+        <v>@Test public void testConvert_188() throws Exception { verify( (char) 188, "¼"); }</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70">
-        <f t="shared" si="4"/>
-        <v>116</v>
+        <f>HEX2DEC(MID(B70,3,4))</f>
+        <v>187</v>
       </c>
       <c r="B70" t="s">
-        <v>397</v>
+        <v>607</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="D70">
-        <v>74</v>
+        <v>608</v>
+      </c>
+      <c r="D70" t="s">
+        <v>609</v>
       </c>
       <c r="E70" t="s">
-        <v>399</v>
+        <v>610</v>
       </c>
       <c r="G70" s="20" t="str">
-        <f t="shared" si="5"/>
-        <v>\x74</v>
-      </c>
-      <c r="I70" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>@Test public void testConvert_116() throws Exception { verify( (char) 116, "t"); }</v>
+        <f>CONCATENATE("\x",LEFT(D70,2),"\x",MID(D70,4,2))</f>
+        <v>\xc2\xbb</v>
+      </c>
+      <c r="I70" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A70,"() throws Exception { verify( (char) ",A70, ", """,C70,"""); }")</f>
+        <v>@Test public void testConvert_187() throws Exception { verify( (char) 187, "»"); }</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71">
-        <f t="shared" si="4"/>
-        <v>117</v>
+        <f>HEX2DEC(MID(B71,3,4))</f>
+        <v>186</v>
       </c>
       <c r="B71" t="s">
-        <v>400</v>
+        <v>603</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="D71">
-        <v>75</v>
+        <v>604</v>
+      </c>
+      <c r="D71" t="s">
+        <v>605</v>
       </c>
       <c r="E71" t="s">
-        <v>402</v>
+        <v>606</v>
       </c>
       <c r="G71" s="20" t="str">
-        <f t="shared" si="5"/>
-        <v>\x75</v>
-      </c>
-      <c r="I71" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>@Test public void testConvert_117() throws Exception { verify( (char) 117, "u"); }</v>
+        <f>CONCATENATE("\x",LEFT(D71,2),"\x",MID(D71,4,2))</f>
+        <v>\xc2\xba</v>
+      </c>
+      <c r="I71" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A71,"() throws Exception { verify( (char) ",A71, ", """,C71,"""); }")</f>
+        <v>@Test public void testConvert_186() throws Exception { verify( (char) 186, "º"); }</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72">
-        <f t="shared" si="4"/>
-        <v>118</v>
+        <f>HEX2DEC(MID(B72,3,4))</f>
+        <v>185</v>
       </c>
       <c r="B72" t="s">
-        <v>403</v>
+        <v>599</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="D72">
-        <v>76</v>
+        <v>600</v>
+      </c>
+      <c r="D72" t="s">
+        <v>601</v>
       </c>
       <c r="E72" t="s">
-        <v>405</v>
+        <v>602</v>
       </c>
       <c r="G72" s="20" t="str">
-        <f t="shared" si="5"/>
-        <v>\x76</v>
-      </c>
-      <c r="I72" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>@Test public void testConvert_118() throws Exception { verify( (char) 118, "v"); }</v>
+        <f>CONCATENATE("\x",LEFT(D72,2),"\x",MID(D72,4,2))</f>
+        <v>\xc2\xb9</v>
+      </c>
+      <c r="I72" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A72,"() throws Exception { verify( (char) ",A72, ", """,C72,"""); }")</f>
+        <v>@Test public void testConvert_185() throws Exception { verify( (char) 185, "¹"); }</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73">
-        <f t="shared" si="4"/>
-        <v>119</v>
+        <f>HEX2DEC(MID(B73,3,4))</f>
+        <v>184</v>
       </c>
       <c r="B73" t="s">
-        <v>406</v>
+        <v>595</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="D73">
-        <v>77</v>
+        <v>596</v>
+      </c>
+      <c r="D73" t="s">
+        <v>597</v>
       </c>
       <c r="E73" t="s">
-        <v>408</v>
+        <v>598</v>
       </c>
       <c r="G73" s="20" t="str">
-        <f t="shared" si="5"/>
-        <v>\x77</v>
-      </c>
-      <c r="I73" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>@Test public void testConvert_119() throws Exception { verify( (char) 119, "w"); }</v>
+        <f>CONCATENATE("\x",LEFT(D73,2),"\x",MID(D73,4,2))</f>
+        <v>\xc2\xb8</v>
+      </c>
+      <c r="I73" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A73,"() throws Exception { verify( (char) ",A73, ", """,C73,"""); }")</f>
+        <v>@Test public void testConvert_184() throws Exception { verify( (char) 184, "¸"); }</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74">
-        <f t="shared" si="4"/>
-        <v>120</v>
+        <f>HEX2DEC(MID(B74,3,4))</f>
+        <v>183</v>
       </c>
       <c r="B74" t="s">
-        <v>409</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="D74">
-        <v>78</v>
+        <v>591</v>
+      </c>
+      <c r="C74" s="29" t="s">
+        <v>592</v>
+      </c>
+      <c r="D74" t="s">
+        <v>593</v>
       </c>
       <c r="E74" t="s">
-        <v>411</v>
+        <v>594</v>
+      </c>
+      <c r="F74" t="s">
+        <v>878</v>
       </c>
       <c r="G74" s="20" t="str">
-        <f t="shared" si="5"/>
-        <v>\x78</v>
-      </c>
-      <c r="I74" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>@Test public void testConvert_120() throws Exception { verify( (char) 120, "x"); }</v>
+        <f>CONCATENATE("\x",LEFT(D74,2),"\x",MID(D74,4,2))</f>
+        <v>\xc2\xb7</v>
+      </c>
+      <c r="H74" t="s">
+        <v>851</v>
+      </c>
+      <c r="I74" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A74,"() throws Exception { verify( (char) ",A74, ", """,C74,"""); }")</f>
+        <v>@Test public void testConvert_183() throws Exception { verify( (char) 183, "·"); }</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75">
-        <f t="shared" si="4"/>
-        <v>121</v>
+        <f>HEX2DEC(MID(B75,3,4))</f>
+        <v>182</v>
       </c>
       <c r="B75" t="s">
-        <v>412</v>
-      </c>
-      <c r="C75" s="23" t="s">
-        <v>413</v>
-      </c>
-      <c r="D75">
-        <v>79</v>
+        <v>587</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="D75" t="s">
+        <v>589</v>
       </c>
       <c r="E75" t="s">
-        <v>414</v>
+        <v>590</v>
       </c>
       <c r="G75" s="20" t="str">
-        <f t="shared" si="5"/>
-        <v>\x79</v>
-      </c>
-      <c r="I75" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>@Test public void testConvert_121() throws Exception { verify( (char) 121, "y"); }</v>
+        <f>CONCATENATE("\x",LEFT(D75,2),"\x",MID(D75,4,2))</f>
+        <v>\xc2\xb6</v>
+      </c>
+      <c r="I75" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A75,"() throws Exception { verify( (char) ",A75, ", """,C75,"""); }")</f>
+        <v>@Test public void testConvert_182() throws Exception { verify( (char) 182, "¶"); }</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76">
-        <f t="shared" si="4"/>
-        <v>122</v>
+        <f>HEX2DEC(MID(B76,3,4))</f>
+        <v>181</v>
       </c>
       <c r="B76" t="s">
-        <v>415</v>
+        <v>583</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>416</v>
+        <v>584</v>
       </c>
       <c r="D76" t="s">
-        <v>417</v>
+        <v>585</v>
       </c>
       <c r="E76" t="s">
-        <v>418</v>
+        <v>586</v>
       </c>
       <c r="G76" s="20" t="str">
-        <f t="shared" si="5"/>
-        <v>\x7a</v>
-      </c>
-      <c r="I76" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>@Test public void testConvert_122() throws Exception { verify( (char) 122, "z"); }</v>
+        <f>CONCATENATE("\x",LEFT(D76,2),"\x",MID(D76,4,2))</f>
+        <v>\xc2\xb5</v>
+      </c>
+      <c r="I76" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A76,"() throws Exception { verify( (char) ",A76, ", """,C76,"""); }")</f>
+        <v>@Test public void testConvert_181() throws Exception { verify( (char) 181, "µ"); }</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77">
-        <f t="shared" si="4"/>
-        <v>123</v>
+        <f>HEX2DEC(MID(B77,3,4))</f>
+        <v>180</v>
       </c>
       <c r="B77" t="s">
-        <v>419</v>
-      </c>
-      <c r="C77" s="23" t="s">
-        <v>420</v>
+        <v>579</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>580</v>
       </c>
       <c r="D77" t="s">
-        <v>421</v>
+        <v>581</v>
       </c>
       <c r="E77" t="s">
-        <v>422</v>
+        <v>582</v>
       </c>
       <c r="G77" s="20" t="str">
-        <f t="shared" si="5"/>
-        <v>\x7b</v>
-      </c>
-      <c r="I77" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>@Test public void testConvert_123() throws Exception { verify( (char) 123, "{"); }</v>
+        <f>CONCATENATE("\x",LEFT(D77,2),"\x",MID(D77,4,2))</f>
+        <v>\xc2\xb4</v>
+      </c>
+      <c r="I77" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A77,"() throws Exception { verify( (char) ",A77, ", """,C77,"""); }")</f>
+        <v>@Test public void testConvert_180() throws Exception { verify( (char) 180, "´"); }</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78">
-        <f t="shared" si="4"/>
-        <v>124</v>
+        <f>HEX2DEC(MID(B78,3,4))</f>
+        <v>179</v>
       </c>
       <c r="B78" t="s">
-        <v>423</v>
+        <v>575</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>424</v>
+        <v>576</v>
       </c>
       <c r="D78" t="s">
-        <v>425</v>
+        <v>577</v>
       </c>
       <c r="E78" t="s">
-        <v>426</v>
+        <v>578</v>
       </c>
       <c r="G78" s="20" t="str">
-        <f t="shared" si="5"/>
-        <v>\x7c</v>
-      </c>
-      <c r="I78" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>@Test public void testConvert_124() throws Exception { verify( (char) 124, "|"); }</v>
+        <f>CONCATENATE("\x",LEFT(D78,2),"\x",MID(D78,4,2))</f>
+        <v>\xc2\xb3</v>
+      </c>
+      <c r="I78" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A78,"() throws Exception { verify( (char) ",A78, ", """,C78,"""); }")</f>
+        <v>@Test public void testConvert_179() throws Exception { verify( (char) 179, "³"); }</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79">
-        <f t="shared" si="4"/>
-        <v>125</v>
+        <f>HEX2DEC(MID(B79,3,4))</f>
+        <v>178</v>
       </c>
       <c r="B79" t="s">
-        <v>427</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>428</v>
+        <v>571</v>
+      </c>
+      <c r="C79" s="26" t="s">
+        <v>572</v>
       </c>
       <c r="D79" t="s">
-        <v>429</v>
+        <v>573</v>
       </c>
       <c r="E79" t="s">
-        <v>430</v>
+        <v>574</v>
+      </c>
+      <c r="F79" t="s">
+        <v>893</v>
       </c>
       <c r="G79" s="20" t="str">
-        <f t="shared" si="5"/>
-        <v>\x7d</v>
-      </c>
-      <c r="I79" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>@Test public void testConvert_125() throws Exception { verify( (char) 125, "}"); }</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <f>CONCATENATE("\x",LEFT(D79,2),"\x",MID(D79,4,2))</f>
+        <v>\xc2\xb2</v>
+      </c>
+      <c r="I79" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A79,"() throws Exception { verify( (char) ",A79, ", """,C79,"""); }")</f>
+        <v>@Test public void testConvert_178() throws Exception { verify( (char) 178, "²"); }</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" s="18" customFormat="1">
       <c r="A80">
-        <f t="shared" si="4"/>
-        <v>126</v>
+        <f>HEX2DEC(MID(B80,3,4))</f>
+        <v>177</v>
       </c>
       <c r="B80" t="s">
-        <v>431</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>432</v>
+        <v>567</v>
+      </c>
+      <c r="C80" s="27" t="s">
+        <v>568</v>
       </c>
       <c r="D80" t="s">
-        <v>433</v>
+        <v>569</v>
       </c>
       <c r="E80" t="s">
-        <v>434</v>
+        <v>570</v>
+      </c>
+      <c r="F80" t="s">
+        <v>894</v>
       </c>
       <c r="G80" s="20" t="str">
-        <f t="shared" si="5"/>
-        <v>\x7e</v>
-      </c>
-      <c r="I80" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>@Test public void testConvert_126() throws Exception { verify( (char) 126, "~"); }</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" s="18" customFormat="1" hidden="1">
-      <c r="B81" s="18" t="s">
-        <v>435</v>
-      </c>
-      <c r="D81" s="18" t="s">
-        <v>436</v>
-      </c>
-      <c r="E81" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="G81" t="str">
-        <f>CONCATENATE("\x",TRIM(D81))</f>
-        <v>\x7f</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" s="18" customFormat="1" hidden="1">
-      <c r="B82" s="18" t="s">
-        <v>437</v>
-      </c>
-      <c r="D82" s="18" t="s">
-        <v>438</v>
-      </c>
-      <c r="E82" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="G82" s="18" t="str">
+        <f>CONCATENATE("\x",LEFT(D80,2),"\x",MID(D80,4,2))</f>
+        <v>\xc2\xb1</v>
+      </c>
+      <c r="H80"/>
+      <c r="I80" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A80,"() throws Exception { verify( (char) ",A80, ", """,C80,"""); }")</f>
+        <v>@Test public void testConvert_177() throws Exception { verify( (char) 177, "±"); }</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" s="18" customFormat="1">
+      <c r="A81">
+        <f>HEX2DEC(MID(B81,3,4))</f>
+        <v>176</v>
+      </c>
+      <c r="B81" t="s">
+        <v>563</v>
+      </c>
+      <c r="C81" s="26" t="s">
+        <v>564</v>
+      </c>
+      <c r="D81" t="s">
+        <v>565</v>
+      </c>
+      <c r="E81" t="s">
+        <v>566</v>
+      </c>
+      <c r="F81" t="s">
+        <v>895</v>
+      </c>
+      <c r="G81" s="20" t="str">
+        <f>CONCATENATE("\x",LEFT(D81,2),"\x",MID(D81,4,2))</f>
+        <v>\xc2\xb0</v>
+      </c>
+      <c r="H81"/>
+      <c r="I81" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A81,"() throws Exception { verify( (char) ",A81, ", """,C81,"""); }")</f>
+        <v>@Test public void testConvert_176() throws Exception { verify( (char) 176, "°"); }</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" s="18" customFormat="1">
+      <c r="A82">
+        <f>HEX2DEC(MID(B82,3,4))</f>
+        <v>175</v>
+      </c>
+      <c r="B82" t="s">
+        <v>559</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="D82" t="s">
+        <v>561</v>
+      </c>
+      <c r="E82" t="s">
+        <v>562</v>
+      </c>
+      <c r="F82"/>
+      <c r="G82" s="20" t="str">
         <f>CONCATENATE("\x",LEFT(D82,2),"\x",MID(D82,4,2))</f>
-        <v>\xc2\x80</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" s="18" customFormat="1" hidden="1">
-      <c r="B83" s="18" t="s">
-        <v>439</v>
-      </c>
-      <c r="D83" s="18" t="s">
-        <v>440</v>
-      </c>
-      <c r="E83" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="G83" s="18" t="str">
-        <f t="shared" ref="G83:G146" si="6">CONCATENATE("\x",LEFT(D83,2),"\x",MID(D83,4,2))</f>
-        <v>\xc2\x81</v>
+        <v>\xc2\xaf</v>
+      </c>
+      <c r="H82"/>
+      <c r="I82" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A82,"() throws Exception { verify( (char) ",A82, ", """,C82,"""); }")</f>
+        <v>@Test public void testConvert_175() throws Exception { verify( (char) 175, "¯"); }</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83">
+        <f>HEX2DEC(MID(B83,3,4))</f>
+        <v>174</v>
+      </c>
+      <c r="B83" t="s">
+        <v>555</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="D83" t="s">
+        <v>557</v>
+      </c>
+      <c r="E83" t="s">
+        <v>558</v>
+      </c>
+      <c r="G83" s="20" t="str">
+        <f>CONCATENATE("\x",LEFT(D83,2),"\x",MID(D83,4,2))</f>
+        <v>\xc2\xae</v>
+      </c>
+      <c r="I83" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A83,"() throws Exception { verify( (char) ",A83, ", """,C83,"""); }")</f>
+        <v>@Test public void testConvert_174() throws Exception { verify( (char) 174, "®"); }</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84">
-        <f t="shared" ref="A84:A94" si="7">HEX2DEC(MID(B84,3,4))</f>
-        <v>130</v>
-      </c>
-      <c r="B84" t="s">
-        <v>441</v>
-      </c>
+        <f>HEX2DEC(MID(B84,3,4))</f>
+        <v>173</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>552</v>
+      </c>
+      <c r="C84" s="29"/>
       <c r="D84" t="s">
-        <v>442</v>
+        <v>553</v>
       </c>
       <c r="E84" t="s">
-        <v>181</v>
+        <v>554</v>
+      </c>
+      <c r="F84" t="s">
+        <v>879</v>
       </c>
       <c r="G84" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\x82</v>
-      </c>
-      <c r="I84" s="14" t="str">
-        <f t="shared" ref="I84:I94" si="8">CONCATENATE("@Test public void testConvert_",A84,"() throws Exception { verify( (char) ",A84, ", """,C84,"""); }")</f>
-        <v>@Test public void testConvert_130() throws Exception { verify( (char) 130, ""); }</v>
+        <f>CONCATENATE("\x",LEFT(D84,2),"\x",MID(D84,4,2))</f>
+        <v>\xc2\xad</v>
+      </c>
+      <c r="H84" t="s">
+        <v>851</v>
+      </c>
+      <c r="I84" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A84,"() throws Exception { verify( (char) ",A84, ", """,C84,"""); }")</f>
+        <v>@Test public void testConvert_173() throws Exception { verify( (char) 173, ""); }</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85">
-        <f t="shared" si="7"/>
-        <v>131</v>
+        <f>HEX2DEC(MID(B85,3,4))</f>
+        <v>172</v>
       </c>
       <c r="B85" t="s">
-        <v>443</v>
+        <v>548</v>
+      </c>
+      <c r="C85" s="22" t="s">
+        <v>549</v>
       </c>
       <c r="D85" t="s">
-        <v>444</v>
+        <v>550</v>
       </c>
       <c r="E85" t="s">
-        <v>181</v>
+        <v>551</v>
       </c>
       <c r="G85" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\x83</v>
-      </c>
-      <c r="I85" s="14" t="str">
-        <f t="shared" si="8"/>
-        <v>@Test public void testConvert_131() throws Exception { verify( (char) 131, ""); }</v>
+        <f>CONCATENATE("\x",LEFT(D85,2),"\x",MID(D85,4,2))</f>
+        <v>\xc2\xac</v>
+      </c>
+      <c r="I85" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A85,"() throws Exception { verify( (char) ",A85, ", """,C85,"""); }")</f>
+        <v>@Test public void testConvert_172() throws Exception { verify( (char) 172, "¬"); }</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86">
-        <f t="shared" si="7"/>
-        <v>132</v>
+        <f>HEX2DEC(MID(B86,3,4))</f>
+        <v>171</v>
       </c>
       <c r="B86" t="s">
-        <v>445</v>
+        <v>544</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>545</v>
       </c>
       <c r="D86" t="s">
-        <v>446</v>
+        <v>546</v>
       </c>
       <c r="E86" t="s">
-        <v>181</v>
+        <v>547</v>
       </c>
       <c r="G86" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\x84</v>
-      </c>
-      <c r="I86" s="14" t="str">
-        <f t="shared" si="8"/>
-        <v>@Test public void testConvert_132() throws Exception { verify( (char) 132, ""); }</v>
+        <f>CONCATENATE("\x",LEFT(D86,2),"\x",MID(D86,4,2))</f>
+        <v>\xc2\xab</v>
+      </c>
+      <c r="I86" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A86,"() throws Exception { verify( (char) ",A86, ", """,C86,"""); }")</f>
+        <v>@Test public void testConvert_171() throws Exception { verify( (char) 171, "«"); }</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87">
-        <f t="shared" si="7"/>
-        <v>133</v>
+        <f>HEX2DEC(MID(B87,3,4))</f>
+        <v>170</v>
       </c>
       <c r="B87" t="s">
-        <v>447</v>
+        <v>540</v>
+      </c>
+      <c r="C87" s="23" t="s">
+        <v>541</v>
       </c>
       <c r="D87" t="s">
-        <v>448</v>
+        <v>542</v>
       </c>
       <c r="E87" t="s">
-        <v>181</v>
+        <v>543</v>
       </c>
       <c r="G87" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\x85</v>
-      </c>
-      <c r="I87" s="14" t="str">
-        <f t="shared" si="8"/>
-        <v>@Test public void testConvert_133() throws Exception { verify( (char) 133, ""); }</v>
+        <f>CONCATENATE("\x",LEFT(D87,2),"\x",MID(D87,4,2))</f>
+        <v>\xc2\xaa</v>
+      </c>
+      <c r="I87" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A87,"() throws Exception { verify( (char) ",A87, ", """,C87,"""); }")</f>
+        <v>@Test public void testConvert_170() throws Exception { verify( (char) 170, "ª"); }</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88">
-        <f t="shared" si="7"/>
-        <v>134</v>
+        <f>HEX2DEC(MID(B88,3,4))</f>
+        <v>169</v>
       </c>
       <c r="B88" t="s">
-        <v>449</v>
+        <v>536</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>537</v>
       </c>
       <c r="D88" t="s">
-        <v>450</v>
+        <v>538</v>
       </c>
       <c r="E88" t="s">
-        <v>181</v>
+        <v>539</v>
+      </c>
+      <c r="F88" t="s">
+        <v>880</v>
       </c>
       <c r="G88" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\x86</v>
-      </c>
-      <c r="I88" s="14" t="str">
-        <f t="shared" si="8"/>
-        <v>@Test public void testConvert_134() throws Exception { verify( (char) 134, ""); }</v>
+        <f>CONCATENATE("\x",LEFT(D88,2),"\x",MID(D88,4,2))</f>
+        <v>\xc2\xa9</v>
+      </c>
+      <c r="I88" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A88,"() throws Exception { verify( (char) ",A88, ", """,C88,"""); }")</f>
+        <v>@Test public void testConvert_169() throws Exception { verify( (char) 169, "©"); }</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89">
-        <f t="shared" si="7"/>
-        <v>135</v>
+        <f>HEX2DEC(MID(B89,3,4))</f>
+        <v>168</v>
       </c>
       <c r="B89" t="s">
-        <v>451</v>
+        <v>532</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>533</v>
       </c>
       <c r="D89" t="s">
-        <v>452</v>
+        <v>534</v>
       </c>
       <c r="E89" t="s">
-        <v>181</v>
+        <v>535</v>
+      </c>
+      <c r="F89" t="s">
+        <v>881</v>
       </c>
       <c r="G89" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\x87</v>
-      </c>
-      <c r="I89" s="14" t="str">
-        <f t="shared" si="8"/>
-        <v>@Test public void testConvert_135() throws Exception { verify( (char) 135, ""); }</v>
+        <f>CONCATENATE("\x",LEFT(D89,2),"\x",MID(D89,4,2))</f>
+        <v>\xc2\xa8</v>
+      </c>
+      <c r="I89" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A89,"() throws Exception { verify( (char) ",A89, ", """,C89,"""); }")</f>
+        <v>@Test public void testConvert_168() throws Exception { verify( (char) 168, "¨"); }</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90">
-        <f t="shared" si="7"/>
-        <v>136</v>
+        <f>HEX2DEC(MID(B90,3,4))</f>
+        <v>167</v>
       </c>
       <c r="B90" t="s">
-        <v>453</v>
+        <v>528</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="D90" t="s">
-        <v>454</v>
+        <v>530</v>
       </c>
       <c r="E90" t="s">
-        <v>181</v>
+        <v>531</v>
       </c>
       <c r="G90" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\x88</v>
-      </c>
-      <c r="I90" s="14" t="str">
-        <f t="shared" si="8"/>
-        <v>@Test public void testConvert_136() throws Exception { verify( (char) 136, ""); }</v>
+        <f>CONCATENATE("\x",LEFT(D90,2),"\x",MID(D90,4,2))</f>
+        <v>\xc2\xa7</v>
+      </c>
+      <c r="I90" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A90,"() throws Exception { verify( (char) ",A90, ", """,C90,"""); }")</f>
+        <v>@Test public void testConvert_167() throws Exception { verify( (char) 167, "§"); }</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91">
-        <f t="shared" si="7"/>
-        <v>137</v>
+        <f>HEX2DEC(MID(B91,3,4))</f>
+        <v>166</v>
       </c>
       <c r="B91" t="s">
-        <v>455</v>
+        <v>524</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>525</v>
       </c>
       <c r="D91" t="s">
-        <v>456</v>
+        <v>526</v>
       </c>
       <c r="E91" t="s">
-        <v>181</v>
+        <v>527</v>
       </c>
       <c r="G91" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\x89</v>
-      </c>
-      <c r="I91" s="14" t="str">
-        <f t="shared" si="8"/>
-        <v>@Test public void testConvert_137() throws Exception { verify( (char) 137, ""); }</v>
+        <f>CONCATENATE("\x",LEFT(D91,2),"\x",MID(D91,4,2))</f>
+        <v>\xc2\xa6</v>
+      </c>
+      <c r="I91" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A91,"() throws Exception { verify( (char) ",A91, ", """,C91,"""); }")</f>
+        <v>@Test public void testConvert_166() throws Exception { verify( (char) 166, "¦"); }</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92">
-        <f t="shared" si="7"/>
-        <v>138</v>
+        <f>HEX2DEC(MID(B92,3,4))</f>
+        <v>165</v>
       </c>
       <c r="B92" t="s">
-        <v>457</v>
+        <v>520</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>521</v>
       </c>
       <c r="D92" t="s">
-        <v>458</v>
+        <v>522</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>523</v>
       </c>
       <c r="G92" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\x8a</v>
-      </c>
-      <c r="I92" s="14" t="str">
-        <f t="shared" si="8"/>
-        <v>@Test public void testConvert_138() throws Exception { verify( (char) 138, ""); }</v>
+        <f>CONCATENATE("\x",LEFT(D92,2),"\x",MID(D92,4,2))</f>
+        <v>\xc2\xa5</v>
+      </c>
+      <c r="I92" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A92,"() throws Exception { verify( (char) ",A92, ", """,C92,"""); }")</f>
+        <v>@Test public void testConvert_165() throws Exception { verify( (char) 165, "¥"); }</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93">
-        <f t="shared" si="7"/>
-        <v>139</v>
+        <f>HEX2DEC(MID(B93,3,4))</f>
+        <v>164</v>
       </c>
       <c r="B93" t="s">
-        <v>459</v>
+        <v>516</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>517</v>
       </c>
       <c r="D93" t="s">
-        <v>460</v>
+        <v>518</v>
       </c>
       <c r="E93" t="s">
+        <v>519</v>
+      </c>
+      <c r="G93" s="20" t="str">
+        <f>CONCATENATE("\x",LEFT(D93,2),"\x",MID(D93,4,2))</f>
+        <v>\xc2\xa4</v>
+      </c>
+      <c r="I93" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A93,"() throws Exception { verify( (char) ",A93, ", """,C93,"""); }")</f>
+        <v>@Test public void testConvert_164() throws Exception { verify( (char) 164, "¤"); }</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" s="18" customFormat="1">
+      <c r="A94">
+        <f>HEX2DEC(MID(B94,3,4))</f>
+        <v>163</v>
+      </c>
+      <c r="B94" t="s">
+        <v>512</v>
+      </c>
+      <c r="C94" s="23" t="s">
+        <v>513</v>
+      </c>
+      <c r="D94" t="s">
+        <v>514</v>
+      </c>
+      <c r="E94" t="s">
+        <v>515</v>
+      </c>
+      <c r="F94"/>
+      <c r="G94" s="20" t="str">
+        <f>CONCATENATE("\x",LEFT(D94,2),"\x",MID(D94,4,2))</f>
+        <v>\xc2\xa3</v>
+      </c>
+      <c r="H94"/>
+      <c r="I94" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A94,"() throws Exception { verify( (char) ",A94, ", """,C94,"""); }")</f>
+        <v>@Test public void testConvert_163() throws Exception { verify( (char) 163, "£"); }</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" s="18" customFormat="1">
+      <c r="A95">
+        <f>HEX2DEC(MID(B95,3,4))</f>
+        <v>162</v>
+      </c>
+      <c r="B95" t="s">
+        <v>508</v>
+      </c>
+      <c r="C95" t="s">
+        <v>509</v>
+      </c>
+      <c r="D95" t="s">
+        <v>510</v>
+      </c>
+      <c r="E95" t="s">
+        <v>511</v>
+      </c>
+      <c r="F95"/>
+      <c r="G95" s="20" t="str">
+        <f>CONCATENATE("\x",LEFT(D95,2),"\x",MID(D95,4,2))</f>
+        <v>\xc2\xa2</v>
+      </c>
+      <c r="H95"/>
+      <c r="I95" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A95,"() throws Exception { verify( (char) ",A95, ", """,C95,"""); }")</f>
+        <v>@Test public void testConvert_162() throws Exception { verify( (char) 162, "¢"); }</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" s="18" customFormat="1">
+      <c r="A96">
+        <f>HEX2DEC(MID(B96,3,4))</f>
+        <v>161</v>
+      </c>
+      <c r="B96" t="s">
+        <v>504</v>
+      </c>
+      <c r="C96" s="28" t="s">
+        <v>505</v>
+      </c>
+      <c r="D96" t="s">
+        <v>506</v>
+      </c>
+      <c r="E96" t="s">
+        <v>507</v>
+      </c>
+      <c r="F96" t="s">
+        <v>882</v>
+      </c>
+      <c r="G96" s="20" t="str">
+        <f>CONCATENATE("\x",LEFT(D96,2),"\x",MID(D96,4,2))</f>
+        <v>\xc2\xa1</v>
+      </c>
+      <c r="H96"/>
+      <c r="I96" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A96,"() throws Exception { verify( (char) ",A96, ", """,C96,"""); }")</f>
+        <v>@Test public void testConvert_161() throws Exception { verify( (char) 161, "¡"); }</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" s="18" customFormat="1">
+      <c r="A97">
+        <f>HEX2DEC(MID(B97,3,4))</f>
+        <v>160</v>
+      </c>
+      <c r="B97" t="s">
+        <v>501</v>
+      </c>
+      <c r="C97"/>
+      <c r="D97" t="s">
+        <v>502</v>
+      </c>
+      <c r="E97" t="s">
+        <v>503</v>
+      </c>
+      <c r="F97"/>
+      <c r="G97" s="20" t="str">
+        <f>CONCATENATE("\x",LEFT(D97,2),"\x",MID(D97,4,2))</f>
+        <v>\xc2\xa0</v>
+      </c>
+      <c r="H97"/>
+      <c r="I97" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A97,"() throws Exception { verify( (char) ",A97, ", """,C97,"""); }")</f>
+        <v>@Test public void testConvert_160() throws Exception { verify( (char) 160, ""); }</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98">
+        <f>HEX2DEC(MID(B98,3,4))</f>
+        <v>159</v>
+      </c>
+      <c r="B98" t="s">
+        <v>499</v>
+      </c>
+      <c r="D98" t="s">
+        <v>500</v>
+      </c>
+      <c r="E98" t="s">
         <v>181</v>
       </c>
-      <c r="G93" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\x8b</v>
-      </c>
-      <c r="I93" s="14" t="str">
-        <f t="shared" si="8"/>
-        <v>@Test public void testConvert_139() throws Exception { verify( (char) 139, ""); }</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
-      <c r="A94">
-        <f t="shared" si="7"/>
-        <v>140</v>
-      </c>
-      <c r="B94" t="s">
-        <v>461</v>
-      </c>
-      <c r="D94" t="s">
-        <v>462</v>
-      </c>
-      <c r="E94" t="s">
-        <v>181</v>
-      </c>
-      <c r="G94" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\x8c</v>
-      </c>
-      <c r="I94" s="14" t="str">
-        <f t="shared" si="8"/>
-        <v>@Test public void testConvert_140() throws Exception { verify( (char) 140, ""); }</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" s="18" customFormat="1" hidden="1">
-      <c r="B95" s="18" t="s">
-        <v>463</v>
-      </c>
-      <c r="D95" s="18" t="s">
-        <v>464</v>
-      </c>
-      <c r="E95" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="G95" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\x8d</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" s="18" customFormat="1" hidden="1">
-      <c r="B96" s="18" t="s">
-        <v>465</v>
-      </c>
-      <c r="D96" s="18" t="s">
-        <v>466</v>
-      </c>
-      <c r="E96" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="G96" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\x8e</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" s="18" customFormat="1" hidden="1">
-      <c r="B97" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="D97" s="18" t="s">
-        <v>468</v>
-      </c>
-      <c r="E97" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="G97" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\x8f</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" s="18" customFormat="1" hidden="1">
-      <c r="B98" s="18" t="s">
-        <v>469</v>
-      </c>
-      <c r="D98" s="18" t="s">
-        <v>470</v>
-      </c>
-      <c r="E98" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="G98" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\x90</v>
+      <c r="G98" s="20" t="str">
+        <f>CONCATENATE("\x",LEFT(D98,2),"\x",MID(D98,4,2))</f>
+        <v>\xc2\x9f</v>
+      </c>
+      <c r="I98" s="14" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A98,"() throws Exception { verify( (char) ",A98, ", """,C98,"""); }")</f>
+        <v>@Test public void testConvert_159() throws Exception { verify( (char) 159, ""); }</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99">
-        <f t="shared" ref="A99:A110" si="9">HEX2DEC(MID(B99,3,4))</f>
-        <v>145</v>
+        <f>HEX2DEC(MID(B99,3,4))</f>
+        <v>156</v>
       </c>
       <c r="B99" t="s">
-        <v>471</v>
+        <v>493</v>
       </c>
       <c r="D99" t="s">
-        <v>472</v>
+        <v>494</v>
       </c>
       <c r="E99" t="s">
         <v>181</v>
       </c>
       <c r="G99" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\x91</v>
+        <f>CONCATENATE("\x",LEFT(D99,2),"\x",MID(D99,4,2))</f>
+        <v>\xc2\x9c</v>
       </c>
       <c r="I99" s="14" t="str">
-        <f t="shared" ref="I99:I110" si="10">CONCATENATE("@Test public void testConvert_",A99,"() throws Exception { verify( (char) ",A99, ", """,C99,"""); }")</f>
-        <v>@Test public void testConvert_145() throws Exception { verify( (char) 145, ""); }</v>
+        <f>CONCATENATE("@Test public void testConvert_",A99,"() throws Exception { verify( (char) ",A99, ", """,C99,"""); }")</f>
+        <v>@Test public void testConvert_156() throws Exception { verify( (char) 156, ""); }</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100">
-        <f t="shared" si="9"/>
-        <v>146</v>
+        <f>HEX2DEC(MID(B100,3,4))</f>
+        <v>155</v>
       </c>
       <c r="B100" t="s">
-        <v>473</v>
+        <v>491</v>
       </c>
       <c r="D100" t="s">
-        <v>474</v>
+        <v>492</v>
       </c>
       <c r="E100" t="s">
         <v>181</v>
       </c>
       <c r="G100" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\x92</v>
+        <f>CONCATENATE("\x",LEFT(D100,2),"\x",MID(D100,4,2))</f>
+        <v>\xc2\x9b</v>
       </c>
       <c r="I100" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>@Test public void testConvert_146() throws Exception { verify( (char) 146, ""); }</v>
+        <f>CONCATENATE("@Test public void testConvert_",A100,"() throws Exception { verify( (char) ",A100, ", """,C100,"""); }")</f>
+        <v>@Test public void testConvert_155() throws Exception { verify( (char) 155, ""); }</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101">
-        <f t="shared" si="9"/>
-        <v>147</v>
+        <f>HEX2DEC(MID(B101,3,4))</f>
+        <v>154</v>
       </c>
       <c r="B101" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="D101" t="s">
-        <v>476</v>
+        <v>490</v>
       </c>
       <c r="E101" t="s">
         <v>181</v>
       </c>
       <c r="G101" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\x93</v>
+        <f>CONCATENATE("\x",LEFT(D101,2),"\x",MID(D101,4,2))</f>
+        <v>\xc2\x9a</v>
       </c>
       <c r="I101" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>@Test public void testConvert_147() throws Exception { verify( (char) 147, ""); }</v>
+        <f>CONCATENATE("@Test public void testConvert_",A101,"() throws Exception { verify( (char) ",A101, ", """,C101,"""); }")</f>
+        <v>@Test public void testConvert_154() throws Exception { verify( (char) 154, ""); }</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102">
-        <f t="shared" si="9"/>
-        <v>148</v>
+        <f>HEX2DEC(MID(B102,3,4))</f>
+        <v>153</v>
       </c>
       <c r="B102" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="D102" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="E102" t="s">
         <v>181</v>
       </c>
       <c r="G102" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\x94</v>
+        <f>CONCATENATE("\x",LEFT(D102,2),"\x",MID(D102,4,2))</f>
+        <v>\xc2\x99</v>
       </c>
       <c r="I102" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>@Test public void testConvert_148() throws Exception { verify( (char) 148, ""); }</v>
+        <f>CONCATENATE("@Test public void testConvert_",A102,"() throws Exception { verify( (char) ",A102, ", """,C102,"""); }")</f>
+        <v>@Test public void testConvert_153() throws Exception { verify( (char) 153, ""); }</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103">
-        <f t="shared" si="9"/>
-        <v>149</v>
+        <f>HEX2DEC(MID(B103,3,4))</f>
+        <v>152</v>
       </c>
       <c r="B103" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="D103" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="E103" t="s">
         <v>181</v>
       </c>
       <c r="G103" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\x95</v>
+        <f>CONCATENATE("\x",LEFT(D103,2),"\x",MID(D103,4,2))</f>
+        <v>\xc2\x98</v>
       </c>
       <c r="I103" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>@Test public void testConvert_149() throws Exception { verify( (char) 149, ""); }</v>
+        <f>CONCATENATE("@Test public void testConvert_",A103,"() throws Exception { verify( (char) ",A103, ", """,C103,"""); }")</f>
+        <v>@Test public void testConvert_152() throws Exception { verify( (char) 152, ""); }</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104">
-        <f t="shared" si="9"/>
-        <v>150</v>
+        <f>HEX2DEC(MID(B104,3,4))</f>
+        <v>151</v>
       </c>
       <c r="B104" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D104" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="E104" t="s">
         <v>181</v>
       </c>
       <c r="G104" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\x96</v>
+        <f>CONCATENATE("\x",LEFT(D104,2),"\x",MID(D104,4,2))</f>
+        <v>\xc2\x97</v>
       </c>
       <c r="I104" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>@Test public void testConvert_150() throws Exception { verify( (char) 150, ""); }</v>
+        <f>CONCATENATE("@Test public void testConvert_",A104,"() throws Exception { verify( (char) ",A104, ", """,C104,"""); }")</f>
+        <v>@Test public void testConvert_151() throws Exception { verify( (char) 151, ""); }</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105">
-        <f t="shared" si="9"/>
-        <v>151</v>
+        <f>HEX2DEC(MID(B105,3,4))</f>
+        <v>150</v>
       </c>
       <c r="B105" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D105" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E105" t="s">
         <v>181</v>
       </c>
       <c r="G105" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\x97</v>
+        <f>CONCATENATE("\x",LEFT(D105,2),"\x",MID(D105,4,2))</f>
+        <v>\xc2\x96</v>
       </c>
       <c r="I105" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>@Test public void testConvert_151() throws Exception { verify( (char) 151, ""); }</v>
+        <f>CONCATENATE("@Test public void testConvert_",A105,"() throws Exception { verify( (char) ",A105, ", """,C105,"""); }")</f>
+        <v>@Test public void testConvert_150() throws Exception { verify( (char) 150, ""); }</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106">
-        <f t="shared" si="9"/>
-        <v>152</v>
+        <f>HEX2DEC(MID(B106,3,4))</f>
+        <v>149</v>
       </c>
       <c r="B106" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="D106" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="E106" t="s">
         <v>181</v>
       </c>
       <c r="G106" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\x98</v>
+        <f>CONCATENATE("\x",LEFT(D106,2),"\x",MID(D106,4,2))</f>
+        <v>\xc2\x95</v>
       </c>
       <c r="I106" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>@Test public void testConvert_152() throws Exception { verify( (char) 152, ""); }</v>
+        <f>CONCATENATE("@Test public void testConvert_",A106,"() throws Exception { verify( (char) ",A106, ", """,C106,"""); }")</f>
+        <v>@Test public void testConvert_149() throws Exception { verify( (char) 149, ""); }</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107">
-        <f t="shared" si="9"/>
-        <v>153</v>
+        <f>HEX2DEC(MID(B107,3,4))</f>
+        <v>148</v>
       </c>
       <c r="B107" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="D107" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="E107" t="s">
         <v>181</v>
       </c>
       <c r="G107" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\x99</v>
+        <f>CONCATENATE("\x",LEFT(D107,2),"\x",MID(D107,4,2))</f>
+        <v>\xc2\x94</v>
       </c>
       <c r="I107" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>@Test public void testConvert_153() throws Exception { verify( (char) 153, ""); }</v>
+        <f>CONCATENATE("@Test public void testConvert_",A107,"() throws Exception { verify( (char) ",A107, ", """,C107,"""); }")</f>
+        <v>@Test public void testConvert_148() throws Exception { verify( (char) 148, ""); }</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108">
-        <f t="shared" si="9"/>
-        <v>154</v>
+        <f>HEX2DEC(MID(B108,3,4))</f>
+        <v>147</v>
       </c>
       <c r="B108" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="D108" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="E108" t="s">
         <v>181</v>
       </c>
       <c r="G108" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\x9a</v>
+        <f>CONCATENATE("\x",LEFT(D108,2),"\x",MID(D108,4,2))</f>
+        <v>\xc2\x93</v>
       </c>
       <c r="I108" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>@Test public void testConvert_154() throws Exception { verify( (char) 154, ""); }</v>
+        <f>CONCATENATE("@Test public void testConvert_",A108,"() throws Exception { verify( (char) ",A108, ", """,C108,"""); }")</f>
+        <v>@Test public void testConvert_147() throws Exception { verify( (char) 147, ""); }</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109">
-        <f t="shared" si="9"/>
-        <v>155</v>
+        <f>HEX2DEC(MID(B109,3,4))</f>
+        <v>146</v>
       </c>
       <c r="B109" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="D109" t="s">
-        <v>492</v>
+        <v>474</v>
       </c>
       <c r="E109" t="s">
         <v>181</v>
       </c>
       <c r="G109" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\x9b</v>
+        <f>CONCATENATE("\x",LEFT(D109,2),"\x",MID(D109,4,2))</f>
+        <v>\xc2\x92</v>
       </c>
       <c r="I109" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>@Test public void testConvert_155() throws Exception { verify( (char) 155, ""); }</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <f>CONCATENATE("@Test public void testConvert_",A109,"() throws Exception { verify( (char) ",A109, ", """,C109,"""); }")</f>
+        <v>@Test public void testConvert_146() throws Exception { verify( (char) 146, ""); }</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" s="18" customFormat="1">
       <c r="A110">
-        <f t="shared" si="9"/>
-        <v>156</v>
+        <f>HEX2DEC(MID(B110,3,4))</f>
+        <v>145</v>
       </c>
       <c r="B110" t="s">
-        <v>493</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="C110"/>
       <c r="D110" t="s">
-        <v>494</v>
+        <v>472</v>
       </c>
       <c r="E110" t="s">
         <v>181</v>
       </c>
+      <c r="F110"/>
       <c r="G110" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\x9c</v>
-      </c>
+        <f>CONCATENATE("\x",LEFT(D110,2),"\x",MID(D110,4,2))</f>
+        <v>\xc2\x91</v>
+      </c>
+      <c r="H110"/>
       <c r="I110" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>@Test public void testConvert_156() throws Exception { verify( (char) 156, ""); }</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" s="18" customFormat="1" hidden="1">
-      <c r="B111" s="18" t="s">
-        <v>495</v>
-      </c>
-      <c r="D111" s="18" t="s">
-        <v>496</v>
-      </c>
-      <c r="E111" s="18" t="s">
+        <f>CONCATENATE("@Test public void testConvert_",A110,"() throws Exception { verify( (char) ",A110, ", """,C110,"""); }")</f>
+        <v>@Test public void testConvert_145() throws Exception { verify( (char) 145, ""); }</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" s="18" customFormat="1">
+      <c r="A111">
+        <f>HEX2DEC(MID(B111,3,4))</f>
+        <v>140</v>
+      </c>
+      <c r="B111" t="s">
+        <v>461</v>
+      </c>
+      <c r="C111"/>
+      <c r="D111" t="s">
+        <v>462</v>
+      </c>
+      <c r="E111" t="s">
         <v>181</v>
       </c>
-      <c r="G111" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\x9d</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" s="18" customFormat="1" hidden="1">
-      <c r="B112" s="18" t="s">
-        <v>497</v>
-      </c>
-      <c r="D112" s="18" t="s">
-        <v>498</v>
-      </c>
-      <c r="E112" s="18" t="s">
+      <c r="F111"/>
+      <c r="G111" s="20" t="str">
+        <f>CONCATENATE("\x",LEFT(D111,2),"\x",MID(D111,4,2))</f>
+        <v>\xc2\x8c</v>
+      </c>
+      <c r="H111"/>
+      <c r="I111" s="14" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A111,"() throws Exception { verify( (char) ",A111, ", """,C111,"""); }")</f>
+        <v>@Test public void testConvert_140() throws Exception { verify( (char) 140, ""); }</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112">
+        <f>HEX2DEC(MID(B112,3,4))</f>
+        <v>139</v>
+      </c>
+      <c r="B112" t="s">
+        <v>459</v>
+      </c>
+      <c r="D112" t="s">
+        <v>460</v>
+      </c>
+      <c r="E112" t="s">
         <v>181</v>
       </c>
-      <c r="G112" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\x9e</v>
+      <c r="G112" s="20" t="str">
+        <f>CONCATENATE("\x",LEFT(D112,2),"\x",MID(D112,4,2))</f>
+        <v>\xc2\x8b</v>
+      </c>
+      <c r="I112" s="14" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A112,"() throws Exception { verify( (char) ",A112, ", """,C112,"""); }")</f>
+        <v>@Test public void testConvert_139() throws Exception { verify( (char) 139, ""); }</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113">
-        <f t="shared" ref="A113:A176" si="11">HEX2DEC(MID(B113,3,4))</f>
-        <v>159</v>
+        <f>HEX2DEC(MID(B113,3,4))</f>
+        <v>138</v>
       </c>
       <c r="B113" t="s">
-        <v>499</v>
+        <v>457</v>
       </c>
       <c r="D113" t="s">
-        <v>500</v>
+        <v>458</v>
       </c>
       <c r="E113" t="s">
         <v>181</v>
       </c>
       <c r="G113" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\x9f</v>
+        <f>CONCATENATE("\x",LEFT(D113,2),"\x",MID(D113,4,2))</f>
+        <v>\xc2\x8a</v>
       </c>
       <c r="I113" s="14" t="str">
-        <f t="shared" ref="I113:I176" si="12">CONCATENATE("@Test public void testConvert_",A113,"() throws Exception { verify( (char) ",A113, ", """,C113,"""); }")</f>
-        <v>@Test public void testConvert_159() throws Exception { verify( (char) 159, ""); }</v>
+        <f>CONCATENATE("@Test public void testConvert_",A113,"() throws Exception { verify( (char) ",A113, ", """,C113,"""); }")</f>
+        <v>@Test public void testConvert_138() throws Exception { verify( (char) 138, ""); }</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114">
-        <f t="shared" si="11"/>
-        <v>160</v>
+        <f>HEX2DEC(MID(B114,3,4))</f>
+        <v>137</v>
       </c>
       <c r="B114" t="s">
-        <v>501</v>
+        <v>455</v>
       </c>
       <c r="D114" t="s">
-        <v>502</v>
+        <v>456</v>
       </c>
       <c r="E114" t="s">
-        <v>503</v>
+        <v>181</v>
       </c>
       <c r="G114" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\xa0</v>
+        <f>CONCATENATE("\x",LEFT(D114,2),"\x",MID(D114,4,2))</f>
+        <v>\xc2\x89</v>
       </c>
       <c r="I114" s="14" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_160() throws Exception { verify( (char) 160, ""); }</v>
+        <f>CONCATENATE("@Test public void testConvert_",A114,"() throws Exception { verify( (char) ",A114, ", """,C114,"""); }")</f>
+        <v>@Test public void testConvert_137() throws Exception { verify( (char) 137, ""); }</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115">
-        <f t="shared" si="11"/>
-        <v>161</v>
+        <f>HEX2DEC(MID(B115,3,4))</f>
+        <v>136</v>
       </c>
       <c r="B115" t="s">
-        <v>504</v>
-      </c>
-      <c r="C115" s="28" t="s">
-        <v>505</v>
+        <v>453</v>
       </c>
       <c r="D115" t="s">
-        <v>506</v>
+        <v>454</v>
       </c>
       <c r="E115" t="s">
-        <v>507</v>
-      </c>
-      <c r="F115" t="s">
-        <v>882</v>
+        <v>181</v>
       </c>
       <c r="G115" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\xa1</v>
-      </c>
-      <c r="I115" s="25" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_161() throws Exception { verify( (char) 161, "¡"); }</v>
+        <f>CONCATENATE("\x",LEFT(D115,2),"\x",MID(D115,4,2))</f>
+        <v>\xc2\x88</v>
+      </c>
+      <c r="I115" s="14" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A115,"() throws Exception { verify( (char) ",A115, ", """,C115,"""); }")</f>
+        <v>@Test public void testConvert_136() throws Exception { verify( (char) 136, ""); }</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116">
-        <f t="shared" si="11"/>
-        <v>162</v>
+        <f>HEX2DEC(MID(B116,3,4))</f>
+        <v>135</v>
       </c>
       <c r="B116" t="s">
-        <v>508</v>
-      </c>
-      <c r="C116" t="s">
-        <v>509</v>
+        <v>451</v>
       </c>
       <c r="D116" t="s">
-        <v>510</v>
+        <v>452</v>
       </c>
       <c r="E116" t="s">
-        <v>511</v>
+        <v>181</v>
       </c>
       <c r="G116" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\xa2</v>
+        <f>CONCATENATE("\x",LEFT(D116,2),"\x",MID(D116,4,2))</f>
+        <v>\xc2\x87</v>
       </c>
       <c r="I116" s="14" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_162() throws Exception { verify( (char) 162, "¢"); }</v>
+        <f>CONCATENATE("@Test public void testConvert_",A116,"() throws Exception { verify( (char) ",A116, ", """,C116,"""); }")</f>
+        <v>@Test public void testConvert_135() throws Exception { verify( (char) 135, ""); }</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117">
-        <f t="shared" si="11"/>
-        <v>163</v>
+        <f>HEX2DEC(MID(B117,3,4))</f>
+        <v>134</v>
       </c>
       <c r="B117" t="s">
-        <v>512</v>
-      </c>
-      <c r="C117" s="23" t="s">
-        <v>513</v>
+        <v>449</v>
       </c>
       <c r="D117" t="s">
-        <v>514</v>
+        <v>450</v>
       </c>
       <c r="E117" t="s">
-        <v>515</v>
+        <v>181</v>
       </c>
       <c r="G117" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\xa3</v>
+        <f>CONCATENATE("\x",LEFT(D117,2),"\x",MID(D117,4,2))</f>
+        <v>\xc2\x86</v>
       </c>
       <c r="I117" s="14" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_163() throws Exception { verify( (char) 163, "£"); }</v>
+        <f>CONCATENATE("@Test public void testConvert_",A117,"() throws Exception { verify( (char) ",A117, ", """,C117,"""); }")</f>
+        <v>@Test public void testConvert_134() throws Exception { verify( (char) 134, ""); }</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118">
-        <f t="shared" si="11"/>
-        <v>164</v>
+        <f>HEX2DEC(MID(B118,3,4))</f>
+        <v>133</v>
       </c>
       <c r="B118" t="s">
-        <v>516</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>517</v>
+        <v>447</v>
       </c>
       <c r="D118" t="s">
-        <v>518</v>
+        <v>448</v>
       </c>
       <c r="E118" t="s">
-        <v>519</v>
+        <v>181</v>
       </c>
       <c r="G118" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\xa4</v>
+        <f>CONCATENATE("\x",LEFT(D118,2),"\x",MID(D118,4,2))</f>
+        <v>\xc2\x85</v>
       </c>
       <c r="I118" s="14" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_164() throws Exception { verify( (char) 164, "¤"); }</v>
+        <f>CONCATENATE("@Test public void testConvert_",A118,"() throws Exception { verify( (char) ",A118, ", """,C118,"""); }")</f>
+        <v>@Test public void testConvert_133() throws Exception { verify( (char) 133, ""); }</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119">
-        <f t="shared" si="11"/>
-        <v>165</v>
+        <f>HEX2DEC(MID(B119,3,4))</f>
+        <v>132</v>
       </c>
       <c r="B119" t="s">
-        <v>520</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>521</v>
+        <v>445</v>
       </c>
       <c r="D119" t="s">
-        <v>522</v>
+        <v>446</v>
       </c>
       <c r="E119" t="s">
-        <v>523</v>
+        <v>181</v>
       </c>
       <c r="G119" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\xa5</v>
+        <f>CONCATENATE("\x",LEFT(D119,2),"\x",MID(D119,4,2))</f>
+        <v>\xc2\x84</v>
       </c>
       <c r="I119" s="14" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_165() throws Exception { verify( (char) 165, "¥"); }</v>
+        <f>CONCATENATE("@Test public void testConvert_",A119,"() throws Exception { verify( (char) ",A119, ", """,C119,"""); }")</f>
+        <v>@Test public void testConvert_132() throws Exception { verify( (char) 132, ""); }</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120">
-        <f t="shared" si="11"/>
-        <v>166</v>
+        <f>HEX2DEC(MID(B120,3,4))</f>
+        <v>131</v>
       </c>
       <c r="B120" t="s">
-        <v>524</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>525</v>
+        <v>443</v>
       </c>
       <c r="D120" t="s">
-        <v>526</v>
+        <v>444</v>
       </c>
       <c r="E120" t="s">
-        <v>527</v>
+        <v>181</v>
       </c>
       <c r="G120" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\xa6</v>
-      </c>
-      <c r="I120" s="14" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_166() throws Exception { verify( (char) 166, "¦"); }</v>
+        <f>CONCATENATE("\x",LEFT(D120,2),"\x",MID(D120,4,2))</f>
+        <v>\xc2\x83</v>
+      </c>
+      <c r="I120" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A120,"() throws Exception { verify( (char) ",A120, ", """,C120,"""); }")</f>
+        <v>@Test public void testConvert_131() throws Exception { verify( (char) 131, ""); }</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121">
-        <f t="shared" si="11"/>
-        <v>167</v>
+        <f>HEX2DEC(MID(B121,3,4))</f>
+        <v>130</v>
       </c>
       <c r="B121" t="s">
-        <v>528</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>529</v>
+        <v>441</v>
       </c>
       <c r="D121" t="s">
-        <v>530</v>
+        <v>442</v>
       </c>
       <c r="E121" t="s">
-        <v>531</v>
+        <v>181</v>
       </c>
       <c r="G121" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\xa7</v>
-      </c>
-      <c r="I121" s="14" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_167() throws Exception { verify( (char) 167, "§"); }</v>
+        <f>CONCATENATE("\x",LEFT(D121,2),"\x",MID(D121,4,2))</f>
+        <v>\xc2\x82</v>
+      </c>
+      <c r="I121" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A121,"() throws Exception { verify( (char) ",A121, ", """,C121,"""); }")</f>
+        <v>@Test public void testConvert_130() throws Exception { verify( (char) 130, ""); }</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122">
-        <f t="shared" si="11"/>
-        <v>168</v>
-      </c>
-      <c r="B122" t="s">
-        <v>532</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="D122" t="s">
-        <v>534</v>
-      </c>
-      <c r="E122" t="s">
-        <v>535</v>
-      </c>
-      <c r="F122" t="s">
-        <v>881</v>
-      </c>
-      <c r="G122" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\xa8</v>
-      </c>
-      <c r="I122" s="25" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_168() throws Exception { verify( (char) 168, "¨"); }</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="I122" s="25"/>
     </row>
     <row r="123" spans="1:9">
       <c r="A123">
-        <f t="shared" si="11"/>
-        <v>169</v>
-      </c>
-      <c r="B123" t="s">
-        <v>536</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="D123" t="s">
-        <v>538</v>
-      </c>
-      <c r="E123" t="s">
-        <v>539</v>
-      </c>
-      <c r="F123" t="s">
-        <v>880</v>
-      </c>
-      <c r="G123" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\xa9</v>
-      </c>
-      <c r="I123" s="25" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_169() throws Exception { verify( (char) 169, "©"); }</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="I123" s="25"/>
     </row>
     <row r="124" spans="1:9">
       <c r="A124">
-        <f t="shared" si="11"/>
-        <v>170</v>
-      </c>
-      <c r="B124" t="s">
-        <v>540</v>
-      </c>
-      <c r="C124" s="23" t="s">
-        <v>541</v>
-      </c>
-      <c r="D124" t="s">
-        <v>542</v>
-      </c>
-      <c r="E124" t="s">
-        <v>543</v>
-      </c>
-      <c r="G124" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\xaa</v>
-      </c>
-      <c r="I124" s="14" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_170() throws Exception { verify( (char) 170, "ª"); }</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="I124" s="25"/>
     </row>
     <row r="125" spans="1:9">
       <c r="A125">
-        <f t="shared" si="11"/>
-        <v>171</v>
+        <f>HEX2DEC(MID(B125,3,4))</f>
+        <v>126</v>
       </c>
       <c r="B125" t="s">
-        <v>544</v>
+        <v>431</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>545</v>
+        <v>432</v>
       </c>
       <c r="D125" t="s">
-        <v>546</v>
+        <v>433</v>
       </c>
       <c r="E125" t="s">
-        <v>547</v>
+        <v>434</v>
       </c>
       <c r="G125" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\xab</v>
-      </c>
-      <c r="I125" s="14" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_171() throws Exception { verify( (char) 171, "«"); }</v>
+        <f>CONCATENATE("\x",TRIM(D125))</f>
+        <v>\x7e</v>
+      </c>
+      <c r="I125" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A125,"() throws Exception { verify( (char) ",A125, ", """,C125,"""); }")</f>
+        <v>@Test public void testConvert_126() throws Exception { verify( (char) 126, "~"); }</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126">
-        <f t="shared" si="11"/>
-        <v>172</v>
+        <f>HEX2DEC(MID(B126,3,4))</f>
+        <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>548</v>
-      </c>
-      <c r="C126" s="22" t="s">
-        <v>549</v>
+        <v>427</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>428</v>
       </c>
       <c r="D126" t="s">
-        <v>550</v>
+        <v>429</v>
       </c>
       <c r="E126" t="s">
-        <v>551</v>
+        <v>430</v>
       </c>
       <c r="G126" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\xac</v>
-      </c>
-      <c r="I126" s="14" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_172() throws Exception { verify( (char) 172, "¬"); }</v>
+        <f>CONCATENATE("\x",TRIM(D126))</f>
+        <v>\x7d</v>
+      </c>
+      <c r="I126" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A126,"() throws Exception { verify( (char) ",A126, ", """,C126,"""); }")</f>
+        <v>@Test public void testConvert_125() throws Exception { verify( (char) 125, "}"); }</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127">
-        <f t="shared" si="11"/>
-        <v>173</v>
-      </c>
-      <c r="B127" s="20" t="s">
-        <v>552</v>
-      </c>
-      <c r="C127" s="29"/>
+        <f>HEX2DEC(MID(B127,3,4))</f>
+        <v>124</v>
+      </c>
+      <c r="B127" t="s">
+        <v>423</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>424</v>
+      </c>
       <c r="D127" t="s">
-        <v>553</v>
+        <v>425</v>
       </c>
       <c r="E127" t="s">
-        <v>554</v>
-      </c>
-      <c r="F127" t="s">
-        <v>879</v>
+        <v>426</v>
       </c>
       <c r="G127" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\xad</v>
-      </c>
-      <c r="H127" t="s">
-        <v>851</v>
+        <f>CONCATENATE("\x",TRIM(D127))</f>
+        <v>\x7c</v>
       </c>
       <c r="I127" s="25" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_173() throws Exception { verify( (char) 173, ""); }</v>
+        <f>CONCATENATE("@Test public void testConvert_",A127,"() throws Exception { verify( (char) ",A127, ", """,C127,"""); }")</f>
+        <v>@Test public void testConvert_124() throws Exception { verify( (char) 124, "|"); }</v>
       </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128">
-        <f t="shared" si="11"/>
-        <v>174</v>
+        <f>HEX2DEC(MID(B128,3,4))</f>
+        <v>123</v>
       </c>
       <c r="B128" t="s">
-        <v>555</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>556</v>
+        <v>419</v>
+      </c>
+      <c r="C128" s="23" t="s">
+        <v>420</v>
       </c>
       <c r="D128" t="s">
-        <v>557</v>
+        <v>421</v>
       </c>
       <c r="E128" t="s">
-        <v>558</v>
+        <v>422</v>
       </c>
       <c r="G128" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\xae</v>
-      </c>
-      <c r="I128" s="14" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_174() throws Exception { verify( (char) 174, "®"); }</v>
+        <f>CONCATENATE("\x",TRIM(D128))</f>
+        <v>\x7b</v>
+      </c>
+      <c r="I128" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A128,"() throws Exception { verify( (char) ",A128, ", """,C128,"""); }")</f>
+        <v>@Test public void testConvert_123() throws Exception { verify( (char) 123, "{"); }</v>
       </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129">
-        <f t="shared" si="11"/>
-        <v>175</v>
+        <f>HEX2DEC(MID(B129,3,4))</f>
+        <v>122</v>
       </c>
       <c r="B129" t="s">
-        <v>559</v>
+        <v>415</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>560</v>
+        <v>416</v>
       </c>
       <c r="D129" t="s">
-        <v>561</v>
+        <v>417</v>
       </c>
       <c r="E129" t="s">
-        <v>562</v>
+        <v>418</v>
       </c>
       <c r="G129" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\xaf</v>
-      </c>
-      <c r="I129" s="14" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_175() throws Exception { verify( (char) 175, "¯"); }</v>
+        <f>CONCATENATE("\x",TRIM(D129))</f>
+        <v>\x7a</v>
+      </c>
+      <c r="I129" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A129,"() throws Exception { verify( (char) ",A129, ", """,C129,"""); }")</f>
+        <v>@Test public void testConvert_122() throws Exception { verify( (char) 122, "z"); }</v>
       </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130">
-        <f t="shared" si="11"/>
-        <v>176</v>
+        <f>HEX2DEC(MID(B130,3,4))</f>
+        <v>121</v>
       </c>
       <c r="B130" t="s">
-        <v>563</v>
-      </c>
-      <c r="C130" s="26" t="s">
-        <v>564</v>
-      </c>
-      <c r="D130" t="s">
-        <v>565</v>
+        <v>412</v>
+      </c>
+      <c r="C130" s="23" t="s">
+        <v>413</v>
+      </c>
+      <c r="D130">
+        <v>79</v>
       </c>
       <c r="E130" t="s">
-        <v>566</v>
-      </c>
-      <c r="F130" t="s">
-        <v>895</v>
+        <v>414</v>
       </c>
       <c r="G130" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\xb0</v>
+        <f>CONCATENATE("\x",TRIM(D130))</f>
+        <v>\x79</v>
       </c>
       <c r="I130" s="25" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_176() throws Exception { verify( (char) 176, "°"); }</v>
+        <f>CONCATENATE("@Test public void testConvert_",A130,"() throws Exception { verify( (char) ",A130, ", """,C130,"""); }")</f>
+        <v>@Test public void testConvert_121() throws Exception { verify( (char) 121, "y"); }</v>
       </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131">
-        <f t="shared" si="11"/>
-        <v>177</v>
+        <f>HEX2DEC(MID(B131,3,4))</f>
+        <v>120</v>
       </c>
       <c r="B131" t="s">
-        <v>567</v>
-      </c>
-      <c r="C131" s="27" t="s">
-        <v>568</v>
-      </c>
-      <c r="D131" t="s">
-        <v>569</v>
+        <v>409</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D131">
+        <v>78</v>
       </c>
       <c r="E131" t="s">
-        <v>570</v>
-      </c>
-      <c r="F131" t="s">
-        <v>894</v>
+        <v>411</v>
       </c>
       <c r="G131" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\xb1</v>
-      </c>
-      <c r="I131" s="14" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_177() throws Exception { verify( (char) 177, "±"); }</v>
+        <f>CONCATENATE("\x",TRIM(D131))</f>
+        <v>\x78</v>
+      </c>
+      <c r="I131" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A131,"() throws Exception { verify( (char) ",A131, ", """,C131,"""); }")</f>
+        <v>@Test public void testConvert_120() throws Exception { verify( (char) 120, "x"); }</v>
       </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132">
-        <f t="shared" si="11"/>
-        <v>178</v>
+        <f>HEX2DEC(MID(B132,3,4))</f>
+        <v>119</v>
       </c>
       <c r="B132" t="s">
-        <v>571</v>
-      </c>
-      <c r="C132" s="26" t="s">
-        <v>572</v>
-      </c>
-      <c r="D132" t="s">
-        <v>573</v>
+        <v>406</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D132">
+        <v>77</v>
       </c>
       <c r="E132" t="s">
-        <v>574</v>
-      </c>
-      <c r="F132" t="s">
-        <v>893</v>
+        <v>408</v>
       </c>
       <c r="G132" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\xb2</v>
+        <f>CONCATENATE("\x",TRIM(D132))</f>
+        <v>\x77</v>
       </c>
       <c r="I132" s="25" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_178() throws Exception { verify( (char) 178, "²"); }</v>
+        <f>CONCATENATE("@Test public void testConvert_",A132,"() throws Exception { verify( (char) ",A132, ", """,C132,"""); }")</f>
+        <v>@Test public void testConvert_119() throws Exception { verify( (char) 119, "w"); }</v>
       </c>
     </row>
     <row r="133" spans="1:9">
       <c r="A133">
-        <f t="shared" si="11"/>
-        <v>179</v>
+        <f>HEX2DEC(MID(B133,3,4))</f>
+        <v>118</v>
       </c>
       <c r="B133" t="s">
-        <v>575</v>
+        <v>403</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="D133" t="s">
-        <v>577</v>
+        <v>404</v>
+      </c>
+      <c r="D133">
+        <v>76</v>
       </c>
       <c r="E133" t="s">
-        <v>578</v>
+        <v>405</v>
       </c>
       <c r="G133" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\xb3</v>
-      </c>
-      <c r="I133" s="14" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_179() throws Exception { verify( (char) 179, "³"); }</v>
+        <f>CONCATENATE("\x",TRIM(D133))</f>
+        <v>\x76</v>
+      </c>
+      <c r="I133" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A133,"() throws Exception { verify( (char) ",A133, ", """,C133,"""); }")</f>
+        <v>@Test public void testConvert_118() throws Exception { verify( (char) 118, "v"); }</v>
       </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134">
-        <f t="shared" si="11"/>
-        <v>180</v>
+        <f>HEX2DEC(MID(B134,3,4))</f>
+        <v>117</v>
       </c>
       <c r="B134" t="s">
-        <v>579</v>
+        <v>400</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="D134" t="s">
-        <v>581</v>
+        <v>401</v>
+      </c>
+      <c r="D134">
+        <v>75</v>
       </c>
       <c r="E134" t="s">
-        <v>582</v>
+        <v>402</v>
       </c>
       <c r="G134" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\xb4</v>
-      </c>
-      <c r="I134" s="14" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_180() throws Exception { verify( (char) 180, "´"); }</v>
+        <f>CONCATENATE("\x",TRIM(D134))</f>
+        <v>\x75</v>
+      </c>
+      <c r="I134" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A134,"() throws Exception { verify( (char) ",A134, ", """,C134,"""); }")</f>
+        <v>@Test public void testConvert_117() throws Exception { verify( (char) 117, "u"); }</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135">
-        <f t="shared" si="11"/>
-        <v>181</v>
+        <f>HEX2DEC(MID(B135,3,4))</f>
+        <v>116</v>
       </c>
       <c r="B135" t="s">
-        <v>583</v>
+        <v>397</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="D135" t="s">
-        <v>585</v>
+        <v>398</v>
+      </c>
+      <c r="D135">
+        <v>74</v>
       </c>
       <c r="E135" t="s">
-        <v>586</v>
+        <v>399</v>
       </c>
       <c r="G135" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\xb5</v>
-      </c>
-      <c r="I135" s="14" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_181() throws Exception { verify( (char) 181, "µ"); }</v>
+        <f>CONCATENATE("\x",TRIM(D135))</f>
+        <v>\x74</v>
+      </c>
+      <c r="I135" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A135,"() throws Exception { verify( (char) ",A135, ", """,C135,"""); }")</f>
+        <v>@Test public void testConvert_116() throws Exception { verify( (char) 116, "t"); }</v>
       </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136">
-        <f t="shared" si="11"/>
-        <v>182</v>
+        <f>HEX2DEC(MID(B136,3,4))</f>
+        <v>115</v>
       </c>
       <c r="B136" t="s">
-        <v>587</v>
+        <v>394</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="D136" t="s">
-        <v>589</v>
+        <v>395</v>
+      </c>
+      <c r="D136">
+        <v>73</v>
       </c>
       <c r="E136" t="s">
-        <v>590</v>
+        <v>396</v>
       </c>
       <c r="G136" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\xb6</v>
-      </c>
-      <c r="I136" s="14" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_182() throws Exception { verify( (char) 182, "¶"); }</v>
+        <f>CONCATENATE("\x",TRIM(D136))</f>
+        <v>\x73</v>
+      </c>
+      <c r="I136" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A136,"() throws Exception { verify( (char) ",A136, ", """,C136,"""); }")</f>
+        <v>@Test public void testConvert_115() throws Exception { verify( (char) 115, "s"); }</v>
       </c>
     </row>
     <row r="137" spans="1:9">
       <c r="A137">
-        <f t="shared" si="11"/>
-        <v>183</v>
+        <f>HEX2DEC(MID(B137,3,4))</f>
+        <v>114</v>
       </c>
       <c r="B137" t="s">
-        <v>591</v>
-      </c>
-      <c r="C137" s="29" t="s">
-        <v>592</v>
-      </c>
-      <c r="D137" t="s">
-        <v>593</v>
+        <v>391</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="D137">
+        <v>72</v>
       </c>
       <c r="E137" t="s">
-        <v>594</v>
-      </c>
-      <c r="F137" t="s">
-        <v>878</v>
+        <v>393</v>
       </c>
       <c r="G137" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\xb7</v>
-      </c>
-      <c r="H137" t="s">
-        <v>851</v>
+        <f>CONCATENATE("\x",TRIM(D137))</f>
+        <v>\x72</v>
       </c>
       <c r="I137" s="25" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_183() throws Exception { verify( (char) 183, "·"); }</v>
+        <f>CONCATENATE("@Test public void testConvert_",A137,"() throws Exception { verify( (char) ",A137, ", """,C137,"""); }")</f>
+        <v>@Test public void testConvert_114() throws Exception { verify( (char) 114, "r"); }</v>
       </c>
     </row>
     <row r="138" spans="1:9">
       <c r="A138">
-        <f t="shared" si="11"/>
-        <v>184</v>
+        <f>HEX2DEC(MID(B138,3,4))</f>
+        <v>113</v>
       </c>
       <c r="B138" t="s">
-        <v>595</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="D138" t="s">
-        <v>597</v>
+        <v>388</v>
+      </c>
+      <c r="C138" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="D138">
+        <v>71</v>
       </c>
       <c r="E138" t="s">
-        <v>598</v>
+        <v>390</v>
       </c>
       <c r="G138" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\xb8</v>
-      </c>
-      <c r="I138" s="14" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_184() throws Exception { verify( (char) 184, "¸"); }</v>
+        <f>CONCATENATE("\x",TRIM(D138))</f>
+        <v>\x71</v>
+      </c>
+      <c r="I138" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A138,"() throws Exception { verify( (char) ",A138, ", """,C138,"""); }")</f>
+        <v>@Test public void testConvert_113() throws Exception { verify( (char) 113, "q"); }</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139">
-        <f t="shared" si="11"/>
-        <v>185</v>
+        <f>HEX2DEC(MID(B139,3,4))</f>
+        <v>112</v>
       </c>
       <c r="B139" t="s">
-        <v>599</v>
+        <v>385</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="D139" t="s">
-        <v>601</v>
+        <v>386</v>
+      </c>
+      <c r="D139">
+        <v>70</v>
       </c>
       <c r="E139" t="s">
-        <v>602</v>
+        <v>387</v>
       </c>
       <c r="G139" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\xb9</v>
-      </c>
-      <c r="I139" s="14" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_185() throws Exception { verify( (char) 185, "¹"); }</v>
+        <f>CONCATENATE("\x",TRIM(D139))</f>
+        <v>\x70</v>
+      </c>
+      <c r="I139" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A139,"() throws Exception { verify( (char) ",A139, ", """,C139,"""); }")</f>
+        <v>@Test public void testConvert_112() throws Exception { verify( (char) 112, "p"); }</v>
       </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140">
-        <f t="shared" si="11"/>
-        <v>186</v>
+        <f>HEX2DEC(MID(B140,3,4))</f>
+        <v>111</v>
       </c>
       <c r="B140" t="s">
-        <v>603</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>604</v>
+        <v>381</v>
+      </c>
+      <c r="C140" s="23" t="s">
+        <v>382</v>
       </c>
       <c r="D140" t="s">
-        <v>605</v>
+        <v>383</v>
       </c>
       <c r="E140" t="s">
-        <v>606</v>
+        <v>384</v>
       </c>
       <c r="G140" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\xba</v>
-      </c>
-      <c r="I140" s="14" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_186() throws Exception { verify( (char) 186, "º"); }</v>
+        <f>CONCATENATE("\x",TRIM(D140))</f>
+        <v>\x6f</v>
+      </c>
+      <c r="I140" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A140,"() throws Exception { verify( (char) ",A140, ", """,C140,"""); }")</f>
+        <v>@Test public void testConvert_111() throws Exception { verify( (char) 111, "o"); }</v>
       </c>
     </row>
     <row r="141" spans="1:9">
       <c r="A141">
-        <f t="shared" si="11"/>
-        <v>187</v>
+        <f>HEX2DEC(MID(B141,3,4))</f>
+        <v>110</v>
       </c>
       <c r="B141" t="s">
-        <v>607</v>
+        <v>377</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>608</v>
+        <v>378</v>
       </c>
       <c r="D141" t="s">
-        <v>609</v>
+        <v>379</v>
       </c>
       <c r="E141" t="s">
-        <v>610</v>
+        <v>380</v>
       </c>
       <c r="G141" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\xbb</v>
-      </c>
-      <c r="I141" s="14" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_187() throws Exception { verify( (char) 187, "»"); }</v>
+        <f>CONCATENATE("\x",TRIM(D141))</f>
+        <v>\x6e</v>
+      </c>
+      <c r="I141" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A141,"() throws Exception { verify( (char) ",A141, ", """,C141,"""); }")</f>
+        <v>@Test public void testConvert_110() throws Exception { verify( (char) 110, "n"); }</v>
       </c>
     </row>
     <row r="142" spans="1:9">
       <c r="A142">
-        <f t="shared" si="11"/>
-        <v>188</v>
+        <f>HEX2DEC(MID(B142,3,4))</f>
+        <v>109</v>
       </c>
       <c r="B142" t="s">
-        <v>611</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>612</v>
+        <v>373</v>
+      </c>
+      <c r="C142" s="24" t="s">
+        <v>374</v>
       </c>
       <c r="D142" t="s">
-        <v>613</v>
+        <v>375</v>
       </c>
       <c r="E142" t="s">
-        <v>614</v>
+        <v>376</v>
       </c>
       <c r="G142" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\xbc</v>
-      </c>
-      <c r="I142" s="14" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_188() throws Exception { verify( (char) 188, "¼"); }</v>
+        <f>CONCATENATE("\x",TRIM(D142))</f>
+        <v>\x6d</v>
+      </c>
+      <c r="I142" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A142,"() throws Exception { verify( (char) ",A142, ", """,C142,"""); }")</f>
+        <v>@Test public void testConvert_109() throws Exception { verify( (char) 109, "m"); }</v>
       </c>
     </row>
     <row r="143" spans="1:9">
       <c r="A143">
-        <f t="shared" si="11"/>
-        <v>189</v>
+        <f>HEX2DEC(MID(B143,3,4))</f>
+        <v>108</v>
       </c>
       <c r="B143" t="s">
-        <v>615</v>
+        <v>369</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>616</v>
+        <v>370</v>
       </c>
       <c r="D143" t="s">
-        <v>617</v>
+        <v>371</v>
       </c>
       <c r="E143" t="s">
-        <v>618</v>
+        <v>372</v>
       </c>
       <c r="G143" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\xbd</v>
-      </c>
-      <c r="I143" s="14" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_189() throws Exception { verify( (char) 189, "½"); }</v>
+        <f>CONCATENATE("\x",TRIM(D143))</f>
+        <v>\x6c</v>
+      </c>
+      <c r="I143" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A143,"() throws Exception { verify( (char) ",A143, ", """,C143,"""); }")</f>
+        <v>@Test public void testConvert_108() throws Exception { verify( (char) 108, "l"); }</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144">
-        <f t="shared" si="11"/>
-        <v>190</v>
+        <f>HEX2DEC(MID(B144,3,4))</f>
+        <v>107</v>
       </c>
       <c r="B144" t="s">
-        <v>619</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>620</v>
+        <v>365</v>
+      </c>
+      <c r="C144" s="23" t="s">
+        <v>366</v>
       </c>
       <c r="D144" t="s">
-        <v>621</v>
+        <v>367</v>
       </c>
       <c r="E144" t="s">
-        <v>622</v>
+        <v>368</v>
       </c>
       <c r="G144" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\xbe</v>
-      </c>
-      <c r="I144" s="14" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_190() throws Exception { verify( (char) 190, "¾"); }</v>
+        <f>CONCATENATE("\x",TRIM(D144))</f>
+        <v>\x6b</v>
+      </c>
+      <c r="I144" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A144,"() throws Exception { verify( (char) ",A144, ", """,C144,"""); }")</f>
+        <v>@Test public void testConvert_107() throws Exception { verify( (char) 107, "k"); }</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145">
-        <f t="shared" si="11"/>
-        <v>191</v>
+        <f>HEX2DEC(MID(B145,3,4))</f>
+        <v>106</v>
       </c>
       <c r="B145" t="s">
-        <v>623</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>624</v>
+        <v>361</v>
+      </c>
+      <c r="C145" s="23" t="s">
+        <v>362</v>
       </c>
       <c r="D145" t="s">
-        <v>625</v>
+        <v>363</v>
       </c>
       <c r="E145" t="s">
-        <v>626</v>
+        <v>364</v>
       </c>
       <c r="G145" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc2\xbf</v>
-      </c>
-      <c r="I145" s="14" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_191() throws Exception { verify( (char) 191, "¿"); }</v>
+        <f>CONCATENATE("\x",TRIM(D145))</f>
+        <v>\x6a</v>
+      </c>
+      <c r="I145" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A145,"() throws Exception { verify( (char) ",A145, ", """,C145,"""); }")</f>
+        <v>@Test public void testConvert_106() throws Exception { verify( (char) 106, "j"); }</v>
       </c>
     </row>
     <row r="146" spans="1:9">
       <c r="A146">
-        <f t="shared" si="11"/>
-        <v>192</v>
+        <f>HEX2DEC(MID(B146,3,4))</f>
+        <v>105</v>
       </c>
       <c r="B146" t="s">
-        <v>627</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D146" t="s">
-        <v>628</v>
+        <v>358</v>
+      </c>
+      <c r="C146" s="28" t="s">
+        <v>359</v>
+      </c>
+      <c r="D146">
+        <v>69</v>
       </c>
       <c r="E146" t="s">
-        <v>629</v>
+        <v>360</v>
+      </c>
+      <c r="F146" t="s">
+        <v>896</v>
       </c>
       <c r="G146" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v>\xc3\x80</v>
-      </c>
-      <c r="I146" s="14" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_192() throws Exception { verify( (char) 192, "À"); }</v>
+        <f>CONCATENATE("\x",TRIM(D146))</f>
+        <v>\x69</v>
+      </c>
+      <c r="I146" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A146,"() throws Exception { verify( (char) ",A146, ", """,C146,"""); }")</f>
+        <v>@Test public void testConvert_105() throws Exception { verify( (char) 105, "i"); }</v>
       </c>
     </row>
     <row r="147" spans="1:9">
       <c r="A147">
-        <f t="shared" si="11"/>
-        <v>193</v>
+        <f>HEX2DEC(MID(B147,3,4))</f>
+        <v>104</v>
       </c>
       <c r="B147" t="s">
-        <v>630</v>
+        <v>355</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="D147" t="s">
-        <v>632</v>
+        <v>356</v>
+      </c>
+      <c r="D147">
+        <v>68</v>
       </c>
       <c r="E147" t="s">
-        <v>633</v>
+        <v>357</v>
       </c>
       <c r="G147" s="20" t="str">
-        <f t="shared" ref="G147:G209" si="13">CONCATENATE("\x",LEFT(D147,2),"\x",MID(D147,4,2))</f>
-        <v>\xc3\x81</v>
-      </c>
-      <c r="I147" s="14" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_193() throws Exception { verify( (char) 193, "Á"); }</v>
+        <f>CONCATENATE("\x",TRIM(D147))</f>
+        <v>\x68</v>
+      </c>
+      <c r="I147" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A147,"() throws Exception { verify( (char) ",A147, ", """,C147,"""); }")</f>
+        <v>@Test public void testConvert_104() throws Exception { verify( (char) 104, "h"); }</v>
       </c>
     </row>
     <row r="148" spans="1:9">
       <c r="A148">
-        <f t="shared" si="11"/>
-        <v>194</v>
+        <f>HEX2DEC(MID(B148,3,4))</f>
+        <v>103</v>
       </c>
       <c r="B148" t="s">
-        <v>634</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="D148" t="s">
-        <v>636</v>
+        <v>352</v>
+      </c>
+      <c r="C148" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="D148">
+        <v>67</v>
       </c>
       <c r="E148" t="s">
-        <v>637</v>
+        <v>354</v>
       </c>
       <c r="G148" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\x82</v>
-      </c>
-      <c r="I148" s="14" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_194() throws Exception { verify( (char) 194, "Â"); }</v>
+        <f>CONCATENATE("\x",TRIM(D148))</f>
+        <v>\x67</v>
+      </c>
+      <c r="I148" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A148,"() throws Exception { verify( (char) ",A148, ", """,C148,"""); }")</f>
+        <v>@Test public void testConvert_103() throws Exception { verify( (char) 103, "g"); }</v>
       </c>
     </row>
     <row r="149" spans="1:9">
       <c r="A149">
-        <f t="shared" si="11"/>
-        <v>195</v>
+        <f>HEX2DEC(MID(B149,3,4))</f>
+        <v>102</v>
       </c>
       <c r="B149" t="s">
-        <v>638</v>
+        <v>349</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="D149" t="s">
-        <v>640</v>
+        <v>350</v>
+      </c>
+      <c r="D149">
+        <v>66</v>
       </c>
       <c r="E149" t="s">
-        <v>641</v>
+        <v>351</v>
       </c>
       <c r="G149" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\x83</v>
-      </c>
-      <c r="I149" s="14" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_195() throws Exception { verify( (char) 195, "Ã"); }</v>
+        <f>CONCATENATE("\x",TRIM(D149))</f>
+        <v>\x66</v>
+      </c>
+      <c r="I149" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A149,"() throws Exception { verify( (char) ",A149, ", """,C149,"""); }")</f>
+        <v>@Test public void testConvert_102() throws Exception { verify( (char) 102, "f"); }</v>
       </c>
     </row>
     <row r="150" spans="1:9">
       <c r="A150">
-        <f t="shared" si="11"/>
-        <v>196</v>
+        <f>HEX2DEC(MID(B150,3,4))</f>
+        <v>101</v>
       </c>
       <c r="B150" t="s">
-        <v>642</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D150" t="s">
-        <v>643</v>
+        <v>346</v>
+      </c>
+      <c r="C150" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="D150">
+        <v>65</v>
       </c>
       <c r="E150" t="s">
-        <v>644</v>
+        <v>348</v>
       </c>
       <c r="G150" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\x84</v>
-      </c>
-      <c r="I150" s="14" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_196() throws Exception { verify( (char) 196, "Ä"); }</v>
+        <f>CONCATENATE("\x",TRIM(D150))</f>
+        <v>\x65</v>
+      </c>
+      <c r="I150" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A150,"() throws Exception { verify( (char) ",A150, ", """,C150,"""); }")</f>
+        <v>@Test public void testConvert_101() throws Exception { verify( (char) 101, "e"); }</v>
       </c>
     </row>
     <row r="151" spans="1:9">
       <c r="A151">
-        <f t="shared" si="11"/>
-        <v>197</v>
+        <f>HEX2DEC(MID(B151,3,4))</f>
+        <v>100</v>
       </c>
       <c r="B151" t="s">
-        <v>645</v>
+        <v>343</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D151" t="s">
-        <v>646</v>
+        <v>344</v>
+      </c>
+      <c r="D151">
+        <v>64</v>
       </c>
       <c r="E151" t="s">
-        <v>647</v>
+        <v>345</v>
       </c>
       <c r="G151" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\x85</v>
-      </c>
-      <c r="I151" s="14" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_197() throws Exception { verify( (char) 197, "Å"); }</v>
+        <f>CONCATENATE("\x",TRIM(D151))</f>
+        <v>\x64</v>
+      </c>
+      <c r="I151" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A151,"() throws Exception { verify( (char) ",A151, ", """,C151,"""); }")</f>
+        <v>@Test public void testConvert_100() throws Exception { verify( (char) 100, "d"); }</v>
       </c>
     </row>
     <row r="152" spans="1:9">
       <c r="A152">
-        <f t="shared" si="11"/>
-        <v>198</v>
+        <f>HEX2DEC(MID(B152,3,4))</f>
+        <v>99</v>
       </c>
       <c r="B152" t="s">
-        <v>648</v>
+        <v>340</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="D152" t="s">
-        <v>650</v>
+        <v>341</v>
+      </c>
+      <c r="D152">
+        <v>63</v>
       </c>
       <c r="E152" t="s">
-        <v>651</v>
+        <v>342</v>
       </c>
       <c r="G152" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\x86</v>
-      </c>
-      <c r="I152" s="14" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_198() throws Exception { verify( (char) 198, "Æ"); }</v>
+        <f>CONCATENATE("\x",TRIM(D152))</f>
+        <v>\x63</v>
+      </c>
+      <c r="I152" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A152,"() throws Exception { verify( (char) ",A152, ", """,C152,"""); }")</f>
+        <v>@Test public void testConvert_99() throws Exception { verify( (char) 99, "c"); }</v>
       </c>
     </row>
     <row r="153" spans="1:9">
       <c r="A153">
-        <f t="shared" si="11"/>
-        <v>199</v>
+        <f>HEX2DEC(MID(B153,3,4))</f>
+        <v>98</v>
       </c>
       <c r="B153" t="s">
-        <v>652</v>
+        <v>337</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D153" t="s">
-        <v>653</v>
+        <v>338</v>
+      </c>
+      <c r="D153">
+        <v>62</v>
       </c>
       <c r="E153" t="s">
-        <v>654</v>
+        <v>339</v>
       </c>
       <c r="G153" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\x87</v>
-      </c>
-      <c r="I153" s="14" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_199() throws Exception { verify( (char) 199, "Ç"); }</v>
+        <f>CONCATENATE("\x",TRIM(D153))</f>
+        <v>\x62</v>
+      </c>
+      <c r="I153" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A153,"() throws Exception { verify( (char) ",A153, ", """,C153,"""); }")</f>
+        <v>@Test public void testConvert_98() throws Exception { verify( (char) 98, "b"); }</v>
       </c>
     </row>
     <row r="154" spans="1:9">
       <c r="A154">
-        <f t="shared" si="11"/>
-        <v>200</v>
+        <f>HEX2DEC(MID(B154,3,4))</f>
+        <v>97</v>
       </c>
       <c r="B154" t="s">
-        <v>655</v>
+        <v>334</v>
       </c>
       <c r="C154" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="D154" t="s">
-        <v>656</v>
+        <v>335</v>
+      </c>
+      <c r="D154">
+        <v>61</v>
       </c>
       <c r="E154" t="s">
-        <v>657</v>
+        <v>336</v>
       </c>
       <c r="G154" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\x88</v>
-      </c>
-      <c r="I154" s="14" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_200() throws Exception { verify( (char) 200, "È"); }</v>
+        <f>CONCATENATE("\x",TRIM(D154))</f>
+        <v>\x61</v>
+      </c>
+      <c r="I154" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A154,"() throws Exception { verify( (char) ",A154, ", """,C154,"""); }")</f>
+        <v>@Test public void testConvert_97() throws Exception { verify( (char) 97, "a"); }</v>
       </c>
     </row>
     <row r="155" spans="1:9">
       <c r="A155">
-        <f t="shared" si="11"/>
-        <v>201</v>
+        <f>HEX2DEC(MID(B155,3,4))</f>
+        <v>96</v>
       </c>
       <c r="B155" t="s">
-        <v>658</v>
+        <v>331</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D155" t="s">
-        <v>659</v>
+        <v>332</v>
+      </c>
+      <c r="D155">
+        <v>60</v>
       </c>
       <c r="E155" t="s">
-        <v>660</v>
+        <v>333</v>
       </c>
       <c r="G155" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\x89</v>
-      </c>
-      <c r="I155" s="14" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_201() throws Exception { verify( (char) 201, "É"); }</v>
+        <f>CONCATENATE("\x",TRIM(D155))</f>
+        <v>\x60</v>
+      </c>
+      <c r="I155" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A155,"() throws Exception { verify( (char) ",A155, ", """,C155,"""); }")</f>
+        <v>@Test public void testConvert_96() throws Exception { verify( (char) 96, "`"); }</v>
       </c>
     </row>
     <row r="156" spans="1:9">
       <c r="A156">
-        <f t="shared" si="11"/>
-        <v>202</v>
+        <f>HEX2DEC(MID(B156,3,4))</f>
+        <v>95</v>
       </c>
       <c r="B156" t="s">
-        <v>661</v>
+        <v>327</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>662</v>
+        <v>328</v>
       </c>
       <c r="D156" t="s">
-        <v>663</v>
+        <v>329</v>
       </c>
       <c r="E156" t="s">
-        <v>664</v>
+        <v>330</v>
       </c>
       <c r="G156" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\x8a</v>
-      </c>
-      <c r="I156" s="14" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_202() throws Exception { verify( (char) 202, "Ê"); }</v>
+        <f>CONCATENATE("\x",TRIM(D156))</f>
+        <v>\x5f</v>
+      </c>
+      <c r="I156" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A156,"() throws Exception { verify( (char) ",A156, ", """,C156,"""); }")</f>
+        <v>@Test public void testConvert_95() throws Exception { verify( (char) 95, "_"); }</v>
       </c>
     </row>
     <row r="157" spans="1:9">
       <c r="A157">
-        <f t="shared" si="11"/>
-        <v>203</v>
+        <f>HEX2DEC(MID(B157,3,4))</f>
+        <v>94</v>
       </c>
       <c r="B157" t="s">
-        <v>665</v>
+        <v>323</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>167</v>
+        <v>324</v>
       </c>
       <c r="D157" t="s">
-        <v>666</v>
+        <v>325</v>
       </c>
       <c r="E157" t="s">
-        <v>667</v>
+        <v>326</v>
       </c>
       <c r="G157" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\x8b</v>
-      </c>
-      <c r="I157" s="14" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_203() throws Exception { verify( (char) 203, "Ë"); }</v>
+        <f>CONCATENATE("\x",TRIM(D157))</f>
+        <v>\x5e</v>
+      </c>
+      <c r="I157" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A157,"() throws Exception { verify( (char) ",A157, ", """,C157,"""); }")</f>
+        <v>@Test public void testConvert_94() throws Exception { verify( (char) 94, "^"); }</v>
       </c>
     </row>
     <row r="158" spans="1:9">
       <c r="A158">
-        <f t="shared" si="11"/>
-        <v>204</v>
+        <f>HEX2DEC(MID(B158,3,4))</f>
+        <v>93</v>
       </c>
       <c r="B158" t="s">
-        <v>668</v>
+        <v>319</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>165</v>
+        <v>320</v>
       </c>
       <c r="D158" t="s">
-        <v>669</v>
+        <v>321</v>
       </c>
       <c r="E158" t="s">
-        <v>670</v>
+        <v>322</v>
       </c>
       <c r="G158" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\x8c</v>
-      </c>
-      <c r="I158" s="14" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_204() throws Exception { verify( (char) 204, "Ì"); }</v>
+        <f>CONCATENATE("\x",TRIM(D158))</f>
+        <v>\x5d</v>
+      </c>
+      <c r="I158" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A158,"() throws Exception { verify( (char) ",A158, ", """,C158,"""); }")</f>
+        <v>@Test public void testConvert_93() throws Exception { verify( (char) 93, "]"); }</v>
       </c>
     </row>
     <row r="159" spans="1:9">
       <c r="A159">
-        <f t="shared" si="11"/>
-        <v>205</v>
+        <f>HEX2DEC(MID(B159,3,4))</f>
+        <v>92</v>
       </c>
       <c r="B159" t="s">
-        <v>671</v>
-      </c>
-      <c r="C159" s="26" t="s">
-        <v>672</v>
+        <v>315</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>316</v>
       </c>
       <c r="D159" t="s">
-        <v>673</v>
+        <v>317</v>
       </c>
       <c r="E159" t="s">
-        <v>674</v>
-      </c>
-      <c r="F159" t="s">
-        <v>892</v>
+        <v>318</v>
       </c>
       <c r="G159" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\x8d</v>
+        <f>CONCATENATE("\x",TRIM(D159))</f>
+        <v>\x5c</v>
       </c>
       <c r="I159" s="25" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_205() throws Exception { verify( (char) 205, "Í"); }</v>
+        <f>CONCATENATE("@Test public void testConvert_",A159,"() throws Exception { verify( (char) ",A159, ", """,C159,"""); }")</f>
+        <v>@Test public void testConvert_92() throws Exception { verify( (char) 92, "\"); }</v>
       </c>
     </row>
     <row r="160" spans="1:9">
       <c r="A160">
-        <f t="shared" si="11"/>
-        <v>206</v>
+        <f>HEX2DEC(MID(B160,3,4))</f>
+        <v>91</v>
       </c>
       <c r="B160" t="s">
-        <v>675</v>
+        <v>311</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>676</v>
+        <v>312</v>
       </c>
       <c r="D160" t="s">
-        <v>677</v>
+        <v>313</v>
       </c>
       <c r="E160" t="s">
-        <v>678</v>
+        <v>314</v>
       </c>
       <c r="G160" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\x8e</v>
-      </c>
-      <c r="I160" s="14" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_206() throws Exception { verify( (char) 206, "Î"); }</v>
+        <f>CONCATENATE("\x",TRIM(D160))</f>
+        <v>\x5b</v>
+      </c>
+      <c r="I160" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A160,"() throws Exception { verify( (char) ",A160, ", """,C160,"""); }")</f>
+        <v>@Test public void testConvert_91() throws Exception { verify( (char) 91, "["); }</v>
       </c>
     </row>
     <row r="161" spans="1:9">
       <c r="A161">
-        <f t="shared" si="11"/>
-        <v>207</v>
+        <f>HEX2DEC(MID(B161,3,4))</f>
+        <v>90</v>
       </c>
       <c r="B161" t="s">
-        <v>679</v>
+        <v>307</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>147</v>
+        <v>308</v>
       </c>
       <c r="D161" t="s">
-        <v>680</v>
+        <v>309</v>
       </c>
       <c r="E161" t="s">
-        <v>681</v>
+        <v>310</v>
       </c>
       <c r="G161" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\x8f</v>
-      </c>
-      <c r="I161" s="14" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_207() throws Exception { verify( (char) 207, "Ï"); }</v>
+        <f>CONCATENATE("\x",TRIM(D161))</f>
+        <v>\x5a</v>
+      </c>
+      <c r="I161" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A161,"() throws Exception { verify( (char) ",A161, ", """,C161,"""); }")</f>
+        <v>@Test public void testConvert_90() throws Exception { verify( (char) 90, "Z"); }</v>
       </c>
     </row>
     <row r="162" spans="1:9">
       <c r="A162">
-        <f t="shared" si="11"/>
-        <v>208</v>
+        <f>HEX2DEC(MID(B162,3,4))</f>
+        <v>89</v>
       </c>
       <c r="B162" t="s">
-        <v>682</v>
-      </c>
-      <c r="C162" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="D162" t="s">
-        <v>683</v>
+        <v>304</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D162">
+        <v>59</v>
       </c>
       <c r="E162" t="s">
-        <v>684</v>
-      </c>
-      <c r="F162" t="s">
-        <v>891</v>
+        <v>306</v>
       </c>
       <c r="G162" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\x90</v>
+        <f>CONCATENATE("\x",TRIM(D162))</f>
+        <v>\x59</v>
       </c>
       <c r="I162" s="25" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_208() throws Exception { verify( (char) 208, "Ð"); }</v>
+        <f>CONCATENATE("@Test public void testConvert_",A162,"() throws Exception { verify( (char) ",A162, ", """,C162,"""); }")</f>
+        <v>@Test public void testConvert_89() throws Exception { verify( (char) 89, "Y"); }</v>
       </c>
     </row>
     <row r="163" spans="1:9">
       <c r="A163">
-        <f t="shared" si="11"/>
-        <v>209</v>
+        <f>HEX2DEC(MID(B163,3,4))</f>
+        <v>88</v>
       </c>
       <c r="B163" t="s">
-        <v>685</v>
+        <v>301</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D163" t="s">
-        <v>686</v>
+        <v>302</v>
+      </c>
+      <c r="D163">
+        <v>58</v>
       </c>
       <c r="E163" t="s">
-        <v>687</v>
+        <v>303</v>
       </c>
       <c r="G163" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\x91</v>
-      </c>
-      <c r="I163" s="14" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_209() throws Exception { verify( (char) 209, "Ñ"); }</v>
+        <f>CONCATENATE("\x",TRIM(D163))</f>
+        <v>\x58</v>
+      </c>
+      <c r="I163" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A163,"() throws Exception { verify( (char) ",A163, ", """,C163,"""); }")</f>
+        <v>@Test public void testConvert_88() throws Exception { verify( (char) 88, "X"); }</v>
       </c>
     </row>
     <row r="164" spans="1:9">
       <c r="A164">
-        <f t="shared" si="11"/>
-        <v>210</v>
+        <f>HEX2DEC(MID(B164,3,4))</f>
+        <v>87</v>
       </c>
       <c r="B164" t="s">
-        <v>688</v>
-      </c>
-      <c r="C164" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="D164" t="s">
-        <v>689</v>
+        <v>298</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D164">
+        <v>57</v>
       </c>
       <c r="E164" t="s">
-        <v>690</v>
-      </c>
-      <c r="F164" t="s">
-        <v>890</v>
+        <v>300</v>
       </c>
       <c r="G164" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\x92</v>
+        <f>CONCATENATE("\x",TRIM(D164))</f>
+        <v>\x57</v>
       </c>
       <c r="I164" s="25" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_210() throws Exception { verify( (char) 210, "Ò"); }</v>
+        <f>CONCATENATE("@Test public void testConvert_",A164,"() throws Exception { verify( (char) ",A164, ", """,C164,"""); }")</f>
+        <v>@Test public void testConvert_87() throws Exception { verify( (char) 87, "W"); }</v>
       </c>
     </row>
     <row r="165" spans="1:9">
       <c r="A165">
-        <f t="shared" si="11"/>
-        <v>211</v>
+        <f>HEX2DEC(MID(B165,3,4))</f>
+        <v>86</v>
       </c>
       <c r="B165" t="s">
-        <v>691</v>
+        <v>295</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="D165" t="s">
-        <v>693</v>
+        <v>296</v>
+      </c>
+      <c r="D165">
+        <v>56</v>
       </c>
       <c r="E165" t="s">
-        <v>694</v>
+        <v>297</v>
       </c>
       <c r="G165" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\x93</v>
-      </c>
-      <c r="I165" s="14" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_211() throws Exception { verify( (char) 211, "Ó"); }</v>
+        <f>CONCATENATE("\x",TRIM(D165))</f>
+        <v>\x56</v>
+      </c>
+      <c r="I165" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A165,"() throws Exception { verify( (char) ",A165, ", """,C165,"""); }")</f>
+        <v>@Test public void testConvert_86() throws Exception { verify( (char) 86, "V"); }</v>
       </c>
     </row>
     <row r="166" spans="1:9">
       <c r="A166">
-        <f t="shared" si="11"/>
-        <v>212</v>
+        <f>HEX2DEC(MID(B166,3,4))</f>
+        <v>85</v>
       </c>
       <c r="B166" t="s">
-        <v>695</v>
+        <v>292</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D166" t="s">
-        <v>696</v>
+        <v>293</v>
+      </c>
+      <c r="D166">
+        <v>55</v>
       </c>
       <c r="E166" t="s">
-        <v>697</v>
+        <v>294</v>
       </c>
       <c r="G166" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\x94</v>
-      </c>
-      <c r="I166" s="14" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_212() throws Exception { verify( (char) 212, "Ô"); }</v>
+        <f>CONCATENATE("\x",TRIM(D166))</f>
+        <v>\x55</v>
+      </c>
+      <c r="I166" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A166,"() throws Exception { verify( (char) ",A166, ", """,C166,"""); }")</f>
+        <v>@Test public void testConvert_85() throws Exception { verify( (char) 85, "U"); }</v>
       </c>
     </row>
     <row r="167" spans="1:9">
       <c r="A167">
-        <f t="shared" si="11"/>
-        <v>213</v>
+        <f>HEX2DEC(MID(B167,3,4))</f>
+        <v>84</v>
       </c>
       <c r="B167" t="s">
-        <v>698</v>
+        <v>289</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="D167" t="s">
-        <v>700</v>
+        <v>290</v>
+      </c>
+      <c r="D167">
+        <v>54</v>
       </c>
       <c r="E167" t="s">
-        <v>701</v>
+        <v>291</v>
       </c>
       <c r="G167" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\x95</v>
-      </c>
-      <c r="I167" s="14" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_213() throws Exception { verify( (char) 213, "Õ"); }</v>
+        <f>CONCATENATE("\x",TRIM(D167))</f>
+        <v>\x54</v>
+      </c>
+      <c r="I167" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A167,"() throws Exception { verify( (char) ",A167, ", """,C167,"""); }")</f>
+        <v>@Test public void testConvert_84() throws Exception { verify( (char) 84, "T"); }</v>
       </c>
     </row>
     <row r="168" spans="1:9">
       <c r="A168">
-        <f t="shared" si="11"/>
-        <v>214</v>
+        <f>HEX2DEC(MID(B168,3,4))</f>
+        <v>83</v>
       </c>
       <c r="B168" t="s">
-        <v>702</v>
+        <v>286</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D168" t="s">
-        <v>703</v>
+        <v>287</v>
+      </c>
+      <c r="D168">
+        <v>53</v>
       </c>
       <c r="E168" t="s">
-        <v>704</v>
+        <v>288</v>
       </c>
       <c r="G168" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\x96</v>
-      </c>
-      <c r="I168" s="14" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_214() throws Exception { verify( (char) 214, "Ö"); }</v>
+        <f>CONCATENATE("\x",TRIM(D168))</f>
+        <v>\x53</v>
+      </c>
+      <c r="I168" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A168,"() throws Exception { verify( (char) ",A168, ", """,C168,"""); }")</f>
+        <v>@Test public void testConvert_83() throws Exception { verify( (char) 83, "S"); }</v>
       </c>
     </row>
     <row r="169" spans="1:9">
       <c r="A169">
-        <f t="shared" si="11"/>
-        <v>215</v>
+        <f>HEX2DEC(MID(B169,3,4))</f>
+        <v>82</v>
       </c>
       <c r="B169" t="s">
-        <v>705</v>
-      </c>
-      <c r="C169" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="D169" t="s">
-        <v>706</v>
+        <v>283</v>
+      </c>
+      <c r="C169" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="D169">
+        <v>52</v>
       </c>
       <c r="E169" t="s">
-        <v>707</v>
+        <v>285</v>
       </c>
       <c r="F169" t="s">
-        <v>889</v>
+        <v>897</v>
       </c>
       <c r="G169" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\x97</v>
+        <f>CONCATENATE("\x",TRIM(D169))</f>
+        <v>\x52</v>
       </c>
       <c r="I169" s="25" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_215() throws Exception { verify( (char) 215, "×"); }</v>
+        <f>CONCATENATE("@Test public void testConvert_",A169,"() throws Exception { verify( (char) ",A169, ", """,C169,"""); }")</f>
+        <v>@Test public void testConvert_82() throws Exception { verify( (char) 82, "R"); }</v>
       </c>
     </row>
     <row r="170" spans="1:9">
       <c r="A170">
-        <f t="shared" si="11"/>
-        <v>216</v>
+        <f>HEX2DEC(MID(B170,3,4))</f>
+        <v>81</v>
       </c>
       <c r="B170" t="s">
-        <v>708</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>709</v>
-      </c>
-      <c r="D170" t="s">
-        <v>710</v>
+        <v>280</v>
+      </c>
+      <c r="C170" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="D170">
+        <v>51</v>
       </c>
       <c r="E170" t="s">
-        <v>711</v>
+        <v>282</v>
       </c>
       <c r="G170" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\x98</v>
-      </c>
-      <c r="I170" s="14" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_216() throws Exception { verify( (char) 216, "Ø"); }</v>
+        <f>CONCATENATE("\x",TRIM(D170))</f>
+        <v>\x51</v>
+      </c>
+      <c r="I170" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A170,"() throws Exception { verify( (char) ",A170, ", """,C170,"""); }")</f>
+        <v>@Test public void testConvert_81() throws Exception { verify( (char) 81, "Q"); }</v>
       </c>
     </row>
     <row r="171" spans="1:9">
       <c r="A171">
-        <f t="shared" si="11"/>
-        <v>217</v>
+        <f>HEX2DEC(MID(B171,3,4))</f>
+        <v>80</v>
       </c>
       <c r="B171" t="s">
-        <v>712</v>
+        <v>277</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D171" t="s">
-        <v>713</v>
+        <v>278</v>
+      </c>
+      <c r="D171">
+        <v>50</v>
       </c>
       <c r="E171" t="s">
-        <v>714</v>
+        <v>279</v>
       </c>
       <c r="G171" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\x99</v>
-      </c>
-      <c r="I171" s="14" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_217() throws Exception { verify( (char) 217, "Ù"); }</v>
+        <f>CONCATENATE("\x",TRIM(D171))</f>
+        <v>\x50</v>
+      </c>
+      <c r="I171" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A171,"() throws Exception { verify( (char) ",A171, ", """,C171,"""); }")</f>
+        <v>@Test public void testConvert_80() throws Exception { verify( (char) 80, "P"); }</v>
       </c>
     </row>
     <row r="172" spans="1:9">
       <c r="A172">
-        <f t="shared" si="11"/>
-        <v>218</v>
+        <f>HEX2DEC(MID(B172,3,4))</f>
+        <v>79</v>
       </c>
       <c r="B172" t="s">
-        <v>715</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>716</v>
+        <v>273</v>
+      </c>
+      <c r="C172" s="23" t="s">
+        <v>274</v>
       </c>
       <c r="D172" t="s">
-        <v>717</v>
+        <v>275</v>
       </c>
       <c r="E172" t="s">
-        <v>718</v>
+        <v>276</v>
       </c>
       <c r="G172" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\x9a</v>
-      </c>
-      <c r="I172" s="14" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_218() throws Exception { verify( (char) 218, "Ú"); }</v>
+        <f>CONCATENATE("\x",TRIM(D172))</f>
+        <v>\x4f</v>
+      </c>
+      <c r="I172" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A172,"() throws Exception { verify( (char) ",A172, ", """,C172,"""); }")</f>
+        <v>@Test public void testConvert_79() throws Exception { verify( (char) 79, "O"); }</v>
       </c>
     </row>
     <row r="173" spans="1:9">
       <c r="A173">
-        <f t="shared" si="11"/>
-        <v>219</v>
+        <f>HEX2DEC(MID(B173,3,4))</f>
+        <v>78</v>
       </c>
       <c r="B173" t="s">
-        <v>719</v>
-      </c>
-      <c r="C173" s="26" t="s">
-        <v>720</v>
+        <v>269</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>270</v>
       </c>
       <c r="D173" t="s">
-        <v>721</v>
+        <v>271</v>
       </c>
       <c r="E173" t="s">
-        <v>722</v>
-      </c>
-      <c r="F173" t="s">
-        <v>888</v>
+        <v>272</v>
       </c>
       <c r="G173" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\x9b</v>
+        <f>CONCATENATE("\x",TRIM(D173))</f>
+        <v>\x4e</v>
       </c>
       <c r="I173" s="25" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_219() throws Exception { verify( (char) 219, "Û"); }</v>
+        <f>CONCATENATE("@Test public void testConvert_",A173,"() throws Exception { verify( (char) ",A173, ", """,C173,"""); }")</f>
+        <v>@Test public void testConvert_78() throws Exception { verify( (char) 78, "N"); }</v>
       </c>
     </row>
     <row r="174" spans="1:9">
       <c r="A174">
-        <f t="shared" si="11"/>
-        <v>220</v>
+        <f>HEX2DEC(MID(B174,3,4))</f>
+        <v>77</v>
       </c>
       <c r="B174" t="s">
-        <v>723</v>
+        <v>265</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>155</v>
+        <v>266</v>
       </c>
       <c r="D174" t="s">
-        <v>724</v>
+        <v>267</v>
       </c>
       <c r="E174" t="s">
-        <v>725</v>
+        <v>268</v>
       </c>
       <c r="G174" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\x9c</v>
-      </c>
-      <c r="I174" s="14" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_220() throws Exception { verify( (char) 220, "Ü"); }</v>
+        <f>CONCATENATE("\x",TRIM(D174))</f>
+        <v>\x4d</v>
+      </c>
+      <c r="I174" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A174,"() throws Exception { verify( (char) ",A174, ", """,C174,"""); }")</f>
+        <v>@Test public void testConvert_77() throws Exception { verify( (char) 77, "M"); }</v>
       </c>
     </row>
     <row r="175" spans="1:9">
       <c r="A175">
-        <f t="shared" si="11"/>
-        <v>221</v>
+        <f>HEX2DEC(MID(B175,3,4))</f>
+        <v>76</v>
       </c>
       <c r="B175" t="s">
-        <v>726</v>
-      </c>
-      <c r="C175" s="22" t="s">
-        <v>727</v>
+        <v>261</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="D175" t="s">
-        <v>728</v>
+        <v>263</v>
       </c>
       <c r="E175" t="s">
-        <v>729</v>
+        <v>264</v>
       </c>
       <c r="G175" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\x9d</v>
-      </c>
-      <c r="I175" s="14" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_221() throws Exception { verify( (char) 221, "Ý"); }</v>
+        <f>CONCATENATE("\x",TRIM(D175))</f>
+        <v>\x4c</v>
+      </c>
+      <c r="I175" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A175,"() throws Exception { verify( (char) ",A175, ", """,C175,"""); }")</f>
+        <v>@Test public void testConvert_76() throws Exception { verify( (char) 76, "L"); }</v>
       </c>
     </row>
     <row r="176" spans="1:9">
       <c r="A176">
-        <f t="shared" si="11"/>
-        <v>222</v>
+        <f>HEX2DEC(MID(B176,3,4))</f>
+        <v>75</v>
       </c>
       <c r="B176" t="s">
-        <v>730</v>
-      </c>
-      <c r="C176" s="26" t="s">
-        <v>176</v>
+        <v>257</v>
+      </c>
+      <c r="C176" s="23" t="s">
+        <v>258</v>
       </c>
       <c r="D176" t="s">
-        <v>731</v>
+        <v>259</v>
       </c>
       <c r="E176" t="s">
-        <v>732</v>
-      </c>
-      <c r="F176" t="s">
-        <v>887</v>
+        <v>260</v>
       </c>
       <c r="G176" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\x9e</v>
+        <f>CONCATENATE("\x",TRIM(D176))</f>
+        <v>\x4b</v>
       </c>
       <c r="I176" s="25" t="str">
-        <f t="shared" si="12"/>
-        <v>@Test public void testConvert_222() throws Exception { verify( (char) 222, "Þ"); }</v>
+        <f>CONCATENATE("@Test public void testConvert_",A176,"() throws Exception { verify( (char) ",A176, ", """,C176,"""); }")</f>
+        <v>@Test public void testConvert_75() throws Exception { verify( (char) 75, "K"); }</v>
       </c>
     </row>
     <row r="177" spans="1:9">
       <c r="A177">
-        <f t="shared" ref="A177:A209" si="14">HEX2DEC(MID(B177,3,4))</f>
-        <v>223</v>
+        <f>HEX2DEC(MID(B177,3,4))</f>
+        <v>74</v>
       </c>
       <c r="B177" t="s">
-        <v>733</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>161</v>
+        <v>253</v>
+      </c>
+      <c r="C177" s="23" t="s">
+        <v>254</v>
       </c>
       <c r="D177" t="s">
-        <v>734</v>
+        <v>255</v>
       </c>
       <c r="E177" t="s">
-        <v>735</v>
+        <v>256</v>
       </c>
       <c r="G177" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\x9f</v>
-      </c>
-      <c r="I177" s="14" t="str">
-        <f t="shared" ref="I177:I208" si="15">CONCATENATE("@Test public void testConvert_",A177,"() throws Exception { verify( (char) ",A177, ", """,C177,"""); }")</f>
-        <v>@Test public void testConvert_223() throws Exception { verify( (char) 223, "ß"); }</v>
+        <f>CONCATENATE("\x",TRIM(D177))</f>
+        <v>\x4a</v>
+      </c>
+      <c r="I177" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A177,"() throws Exception { verify( (char) ",A177, ", """,C177,"""); }")</f>
+        <v>@Test public void testConvert_74() throws Exception { verify( (char) 74, "J"); }</v>
       </c>
     </row>
     <row r="178" spans="1:9">
       <c r="A178">
-        <f t="shared" si="14"/>
-        <v>224</v>
+        <f>HEX2DEC(MID(B178,3,4))</f>
+        <v>73</v>
       </c>
       <c r="B178" t="s">
-        <v>736</v>
+        <v>250</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D178" t="s">
-        <v>737</v>
+        <v>251</v>
+      </c>
+      <c r="D178">
+        <v>49</v>
       </c>
       <c r="E178" t="s">
-        <v>738</v>
+        <v>252</v>
       </c>
       <c r="G178" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\xa0</v>
-      </c>
-      <c r="I178" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>@Test public void testConvert_224() throws Exception { verify( (char) 224, "à"); }</v>
+        <f>CONCATENATE("\x",TRIM(D178))</f>
+        <v>\x49</v>
+      </c>
+      <c r="I178" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A178,"() throws Exception { verify( (char) ",A178, ", """,C178,"""); }")</f>
+        <v>@Test public void testConvert_73() throws Exception { verify( (char) 73, "I"); }</v>
       </c>
     </row>
     <row r="179" spans="1:9">
       <c r="A179">
-        <f t="shared" si="14"/>
-        <v>225</v>
+        <f>HEX2DEC(MID(B179,3,4))</f>
+        <v>72</v>
       </c>
       <c r="B179" t="s">
-        <v>739</v>
-      </c>
-      <c r="C179" s="21" t="s">
-        <v>740</v>
-      </c>
-      <c r="D179" t="s">
-        <v>741</v>
+        <v>247</v>
+      </c>
+      <c r="C179" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="D179">
+        <v>48</v>
       </c>
       <c r="E179" t="s">
-        <v>742</v>
+        <v>249</v>
       </c>
       <c r="G179" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\xa1</v>
-      </c>
-      <c r="H179" t="s">
-        <v>849</v>
-      </c>
-      <c r="I179" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>@Test public void testConvert_225() throws Exception { verify( (char) 225, "á"); }</v>
+        <f>CONCATENATE("\x",TRIM(D179))</f>
+        <v>\x48</v>
+      </c>
+      <c r="I179" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A179,"() throws Exception { verify( (char) ",A179, ", """,C179,"""); }")</f>
+        <v>@Test public void testConvert_72() throws Exception { verify( (char) 72, "H"); }</v>
       </c>
     </row>
     <row r="180" spans="1:9">
       <c r="A180">
-        <f t="shared" si="14"/>
-        <v>226</v>
+        <f>HEX2DEC(MID(B180,3,4))</f>
+        <v>71</v>
       </c>
       <c r="B180" t="s">
-        <v>743</v>
-      </c>
-      <c r="C180" s="26" t="s">
-        <v>744</v>
-      </c>
-      <c r="D180" t="s">
-        <v>745</v>
+        <v>244</v>
+      </c>
+      <c r="C180" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="D180">
+        <v>47</v>
       </c>
       <c r="E180" t="s">
-        <v>746</v>
-      </c>
-      <c r="F180" t="s">
-        <v>886</v>
+        <v>246</v>
       </c>
       <c r="G180" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\xa2</v>
+        <f>CONCATENATE("\x",TRIM(D180))</f>
+        <v>\x47</v>
       </c>
       <c r="I180" s="25" t="str">
-        <f t="shared" si="15"/>
-        <v>@Test public void testConvert_226() throws Exception { verify( (char) 226, "â"); }</v>
+        <f>CONCATENATE("@Test public void testConvert_",A180,"() throws Exception { verify( (char) ",A180, ", """,C180,"""); }")</f>
+        <v>@Test public void testConvert_71() throws Exception { verify( (char) 71, "G"); }</v>
       </c>
     </row>
     <row r="181" spans="1:9">
       <c r="A181">
-        <f t="shared" si="14"/>
-        <v>227</v>
+        <f>HEX2DEC(MID(B181,3,4))</f>
+        <v>70</v>
       </c>
       <c r="B181" t="s">
-        <v>747</v>
-      </c>
-      <c r="C181" s="26" t="s">
-        <v>748</v>
-      </c>
-      <c r="D181" t="s">
-        <v>749</v>
+        <v>241</v>
+      </c>
+      <c r="C181" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="D181">
+        <v>46</v>
       </c>
       <c r="E181" t="s">
-        <v>750</v>
-      </c>
-      <c r="F181" t="s">
-        <v>885</v>
+        <v>243</v>
       </c>
       <c r="G181" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\xa3</v>
+        <f>CONCATENATE("\x",TRIM(D181))</f>
+        <v>\x46</v>
       </c>
       <c r="I181" s="25" t="str">
-        <f t="shared" si="15"/>
-        <v>@Test public void testConvert_227() throws Exception { verify( (char) 227, "ã"); }</v>
+        <f>CONCATENATE("@Test public void testConvert_",A181,"() throws Exception { verify( (char) ",A181, ", """,C181,"""); }")</f>
+        <v>@Test public void testConvert_70() throws Exception { verify( (char) 70, "F"); }</v>
       </c>
     </row>
     <row r="182" spans="1:9">
       <c r="A182">
-        <f t="shared" si="14"/>
-        <v>228</v>
+        <f>HEX2DEC(MID(B182,3,4))</f>
+        <v>69</v>
       </c>
       <c r="B182" t="s">
-        <v>751</v>
-      </c>
-      <c r="C182" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D182" t="s">
-        <v>752</v>
+        <v>238</v>
+      </c>
+      <c r="C182" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="D182">
+        <v>45</v>
       </c>
       <c r="E182" t="s">
-        <v>753</v>
+        <v>240</v>
       </c>
       <c r="G182" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\xa4</v>
-      </c>
-      <c r="I182" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>@Test public void testConvert_228() throws Exception { verify( (char) 228, "ä"); }</v>
+        <f>CONCATENATE("\x",TRIM(D182))</f>
+        <v>\x45</v>
+      </c>
+      <c r="I182" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A182,"() throws Exception { verify( (char) ",A182, ", """,C182,"""); }")</f>
+        <v>@Test public void testConvert_69() throws Exception { verify( (char) 69, "E"); }</v>
       </c>
     </row>
     <row r="183" spans="1:9">
       <c r="A183">
-        <f t="shared" si="14"/>
-        <v>229</v>
+        <f>HEX2DEC(MID(B183,3,4))</f>
+        <v>68</v>
       </c>
       <c r="B183" t="s">
-        <v>754</v>
-      </c>
-      <c r="C183" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="D183" t="s">
-        <v>755</v>
+        <v>235</v>
+      </c>
+      <c r="C183" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="D183">
+        <v>44</v>
       </c>
       <c r="E183" t="s">
-        <v>756</v>
-      </c>
-      <c r="F183" t="s">
-        <v>884</v>
+        <v>237</v>
       </c>
       <c r="G183" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\xa5</v>
+        <f>CONCATENATE("\x",TRIM(D183))</f>
+        <v>\x44</v>
       </c>
       <c r="I183" s="25" t="str">
-        <f t="shared" si="15"/>
-        <v>@Test public void testConvert_229() throws Exception { verify( (char) 229, "å"); }</v>
+        <f>CONCATENATE("@Test public void testConvert_",A183,"() throws Exception { verify( (char) ",A183, ", """,C183,"""); }")</f>
+        <v>@Test public void testConvert_68() throws Exception { verify( (char) 68, "D"); }</v>
       </c>
     </row>
     <row r="184" spans="1:9">
       <c r="A184">
-        <f t="shared" si="14"/>
-        <v>230</v>
+        <f>HEX2DEC(MID(B184,3,4))</f>
+        <v>67</v>
       </c>
       <c r="B184" t="s">
-        <v>757</v>
+        <v>232</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>758</v>
-      </c>
-      <c r="D184" t="s">
-        <v>759</v>
+        <v>233</v>
+      </c>
+      <c r="D184">
+        <v>43</v>
       </c>
       <c r="E184" t="s">
-        <v>760</v>
+        <v>234</v>
       </c>
       <c r="G184" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\xa6</v>
-      </c>
-      <c r="I184" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>@Test public void testConvert_230() throws Exception { verify( (char) 230, "æ"); }</v>
+        <f>CONCATENATE("\x",TRIM(D184))</f>
+        <v>\x43</v>
+      </c>
+      <c r="I184" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A184,"() throws Exception { verify( (char) ",A184, ", """,C184,"""); }")</f>
+        <v>@Test public void testConvert_67() throws Exception { verify( (char) 67, "C"); }</v>
       </c>
     </row>
     <row r="185" spans="1:9">
       <c r="A185">
-        <f t="shared" si="14"/>
+        <f>HEX2DEC(MID(B185,3,4))</f>
+        <v>66</v>
+      </c>
+      <c r="B185" t="s">
+        <v>229</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D185">
+        <v>42</v>
+      </c>
+      <c r="E185" t="s">
         <v>231</v>
       </c>
-      <c r="B185" t="s">
-        <v>761</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D185" t="s">
-        <v>762</v>
-      </c>
-      <c r="E185" t="s">
-        <v>763</v>
-      </c>
       <c r="G185" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\xa7</v>
-      </c>
-      <c r="I185" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>@Test public void testConvert_231() throws Exception { verify( (char) 231, "ç"); }</v>
+        <f>CONCATENATE("\x",TRIM(D185))</f>
+        <v>\x42</v>
+      </c>
+      <c r="I185" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A185,"() throws Exception { verify( (char) ",A185, ", """,C185,"""); }")</f>
+        <v>@Test public void testConvert_66() throws Exception { verify( (char) 66, "B"); }</v>
       </c>
     </row>
     <row r="186" spans="1:9">
       <c r="A186">
-        <f t="shared" si="14"/>
-        <v>232</v>
+        <f>HEX2DEC(MID(B186,3,4))</f>
+        <v>65</v>
       </c>
       <c r="B186" t="s">
-        <v>764</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D186" t="s">
-        <v>765</v>
+        <v>226</v>
+      </c>
+      <c r="C186" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="D186">
+        <v>41</v>
       </c>
       <c r="E186" t="s">
-        <v>766</v>
+        <v>228</v>
       </c>
       <c r="G186" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\xa8</v>
-      </c>
-      <c r="I186" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>@Test public void testConvert_232() throws Exception { verify( (char) 232, "è"); }</v>
+        <f>CONCATENATE("\x",TRIM(D186))</f>
+        <v>\x41</v>
+      </c>
+      <c r="I186" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A186,"() throws Exception { verify( (char) ",A186, ", """,C186,"""); }")</f>
+        <v>@Test public void testConvert_65() throws Exception { verify( (char) 65, "A"); }</v>
       </c>
     </row>
     <row r="187" spans="1:9">
       <c r="A187">
-        <f t="shared" si="14"/>
-        <v>233</v>
+        <f>HEX2DEC(MID(B187,3,4))</f>
+        <v>64</v>
       </c>
       <c r="B187" t="s">
-        <v>767</v>
-      </c>
-      <c r="C187" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D187" t="s">
-        <v>768</v>
+        <v>223</v>
+      </c>
+      <c r="C187" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="D187">
+        <v>40</v>
       </c>
       <c r="E187" t="s">
-        <v>769</v>
+        <v>225</v>
       </c>
       <c r="G187" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\xa9</v>
-      </c>
-      <c r="I187" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>@Test public void testConvert_233() throws Exception { verify( (char) 233, "é"); }</v>
+        <f>CONCATENATE("\x",TRIM(D187))</f>
+        <v>\x40</v>
+      </c>
+      <c r="I187" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A187,"() throws Exception { verify( (char) ",A187, ", """,C187,"""); }")</f>
+        <v>@Test public void testConvert_64() throws Exception { verify( (char) 64, "@"); }</v>
       </c>
     </row>
     <row r="188" spans="1:9">
       <c r="A188">
-        <f t="shared" si="14"/>
-        <v>234</v>
+        <f>HEX2DEC(MID(B188,3,4))</f>
+        <v>63</v>
       </c>
       <c r="B188" t="s">
-        <v>770</v>
+        <v>219</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>771</v>
+        <v>220</v>
       </c>
       <c r="D188" t="s">
-        <v>772</v>
+        <v>221</v>
       </c>
       <c r="E188" t="s">
-        <v>773</v>
+        <v>222</v>
       </c>
       <c r="G188" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\xaa</v>
-      </c>
-      <c r="I188" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>@Test public void testConvert_234() throws Exception { verify( (char) 234, "ê"); }</v>
+        <f>CONCATENATE("\x",TRIM(D188))</f>
+        <v>\x3f</v>
+      </c>
+      <c r="I188" s="18" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A188,"() throws Exception { verify( (char) ",A188, ", """,C188,"""); }")</f>
+        <v>@Test public void testConvert_63() throws Exception { verify( (char) 63, "?"); }</v>
       </c>
     </row>
     <row r="189" spans="1:9">
       <c r="A189">
-        <f t="shared" si="14"/>
-        <v>235</v>
+        <f>HEX2DEC(MID(B189,3,4))</f>
+        <v>62</v>
       </c>
       <c r="B189" t="s">
-        <v>774</v>
-      </c>
-      <c r="C189" s="26" t="s">
-        <v>168</v>
+        <v>215</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="D189" t="s">
-        <v>775</v>
+        <v>217</v>
       </c>
       <c r="E189" t="s">
-        <v>776</v>
-      </c>
-      <c r="F189" t="s">
-        <v>883</v>
+        <v>218</v>
       </c>
       <c r="G189" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\xab</v>
-      </c>
-      <c r="I189" s="25" t="str">
-        <f t="shared" si="15"/>
-        <v>@Test public void testConvert_235() throws Exception { verify( (char) 235, "ë"); }</v>
+        <f>CONCATENATE("\x",TRIM(D189))</f>
+        <v>\x3e</v>
+      </c>
+      <c r="I189" s="18" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A189,"() throws Exception { verify( (char) ",A189, ", """,C189,"""); }")</f>
+        <v>@Test public void testConvert_62() throws Exception { verify( (char) 62, "&gt;"); }</v>
       </c>
     </row>
     <row r="190" spans="1:9">
       <c r="A190">
-        <f t="shared" si="14"/>
-        <v>236</v>
+        <f>HEX2DEC(MID(B190,3,4))</f>
+        <v>61</v>
       </c>
       <c r="B190" t="s">
-        <v>777</v>
+        <v>211</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c r="D190" t="s">
-        <v>778</v>
+        <v>213</v>
       </c>
       <c r="E190" t="s">
-        <v>779</v>
+        <v>214</v>
       </c>
       <c r="G190" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\xac</v>
-      </c>
-      <c r="I190" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>@Test public void testConvert_236() throws Exception { verify( (char) 236, "ì"); }</v>
+        <f>CONCATENATE("\x",TRIM(D190))</f>
+        <v>\x3d</v>
+      </c>
+      <c r="I190" s="18" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A190,"() throws Exception { verify( (char) ",A190, ", """,C190,"""); }")</f>
+        <v>@Test public void testConvert_61() throws Exception { verify( (char) 61, "="); }</v>
       </c>
     </row>
     <row r="191" spans="1:9">
       <c r="A191">
-        <f t="shared" si="14"/>
-        <v>237</v>
+        <f>HEX2DEC(MID(B191,3,4))</f>
+        <v>60</v>
       </c>
       <c r="B191" t="s">
-        <v>780</v>
+        <v>207</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>781</v>
+        <v>208</v>
       </c>
       <c r="D191" t="s">
-        <v>782</v>
+        <v>209</v>
       </c>
       <c r="E191" t="s">
-        <v>783</v>
+        <v>210</v>
       </c>
       <c r="G191" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\xad</v>
-      </c>
-      <c r="I191" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>@Test public void testConvert_237() throws Exception { verify( (char) 237, "í"); }</v>
+        <f>CONCATENATE("\x",TRIM(D191))</f>
+        <v>\x3c</v>
+      </c>
+      <c r="I191" s="18" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A191,"() throws Exception { verify( (char) ",A191, ", """,C191,"""); }")</f>
+        <v>@Test public void testConvert_60() throws Exception { verify( (char) 60, "&lt;"); }</v>
       </c>
     </row>
     <row r="192" spans="1:9">
       <c r="A192">
-        <f t="shared" si="14"/>
-        <v>238</v>
+        <f>HEX2DEC(MID(B192,3,4))</f>
+        <v>59</v>
       </c>
       <c r="B192" t="s">
-        <v>784</v>
+        <v>203</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>785</v>
+        <v>204</v>
       </c>
       <c r="D192" t="s">
-        <v>786</v>
+        <v>205</v>
       </c>
       <c r="E192" t="s">
-        <v>787</v>
+        <v>206</v>
       </c>
       <c r="G192" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\xae</v>
-      </c>
-      <c r="I192" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>@Test public void testConvert_238() throws Exception { verify( (char) 238, "î"); }</v>
+        <f>CONCATENATE("\x",TRIM(D192))</f>
+        <v>\x3b</v>
+      </c>
+      <c r="I192" s="18" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A192,"() throws Exception { verify( (char) ",A192, ", """,C192,"""); }")</f>
+        <v>@Test public void testConvert_59() throws Exception { verify( (char) 59, ";"); }</v>
       </c>
     </row>
     <row r="193" spans="1:9">
       <c r="A193">
-        <f t="shared" si="14"/>
-        <v>239</v>
+        <f>HEX2DEC(MID(B193,3,4))</f>
+        <v>58</v>
       </c>
       <c r="B193" t="s">
-        <v>788</v>
+        <v>199</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>148</v>
+        <v>200</v>
       </c>
       <c r="D193" t="s">
-        <v>789</v>
+        <v>201</v>
       </c>
       <c r="E193" t="s">
-        <v>790</v>
-      </c>
-      <c r="F193" t="s">
-        <v>877</v>
+        <v>202</v>
       </c>
       <c r="G193" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\xaf</v>
-      </c>
-      <c r="I193" s="25" t="str">
-        <f t="shared" si="15"/>
-        <v>@Test public void testConvert_239() throws Exception { verify( (char) 239, "ï"); }</v>
+        <f>CONCATENATE("\x",TRIM(D193))</f>
+        <v>\x3a</v>
+      </c>
+      <c r="I193" s="18" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A193,"() throws Exception { verify( (char) ",A193, ", """,C193,"""); }")</f>
+        <v>@Test public void testConvert_58() throws Exception { verify( (char) 58, ":"); }</v>
       </c>
     </row>
     <row r="194" spans="1:9">
       <c r="A194">
-        <f t="shared" si="14"/>
-        <v>240</v>
+        <f>HEX2DEC(MID(B194,3,4))</f>
+        <v>57</v>
       </c>
       <c r="B194" t="s">
-        <v>791</v>
-      </c>
-      <c r="C194" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D194" t="s">
-        <v>792</v>
+        <v>197</v>
+      </c>
+      <c r="C194" s="30">
+        <v>9</v>
+      </c>
+      <c r="D194">
+        <v>39</v>
       </c>
       <c r="E194" t="s">
-        <v>793</v>
-      </c>
-      <c r="F194" t="s">
-        <v>876</v>
+        <v>198</v>
       </c>
       <c r="G194" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\xb0</v>
-      </c>
-      <c r="I194" s="25" t="str">
-        <f t="shared" si="15"/>
-        <v>@Test public void testConvert_240() throws Exception { verify( (char) 240, "ð"); }</v>
+        <f>CONCATENATE("\x",TRIM(D194))</f>
+        <v>\x39</v>
+      </c>
+      <c r="I194" s="18" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A194,"() throws Exception { verify( (char) ",A194, ", """,C194,"""); }")</f>
+        <v>@Test public void testConvert_57() throws Exception { verify( (char) 57, "9"); }</v>
       </c>
     </row>
     <row r="195" spans="1:9">
       <c r="A195">
-        <f t="shared" si="14"/>
-        <v>241</v>
+        <f>HEX2DEC(MID(B195,3,4))</f>
+        <v>56</v>
       </c>
       <c r="B195" t="s">
-        <v>794</v>
-      </c>
-      <c r="C195" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D195" t="s">
-        <v>795</v>
+        <v>195</v>
+      </c>
+      <c r="C195" s="30">
+        <v>8</v>
+      </c>
+      <c r="D195">
+        <v>38</v>
       </c>
       <c r="E195" t="s">
-        <v>796</v>
-      </c>
-      <c r="F195" t="s">
-        <v>875</v>
+        <v>196</v>
       </c>
       <c r="G195" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\xb1</v>
-      </c>
-      <c r="I195" s="25" t="str">
-        <f t="shared" si="15"/>
-        <v>@Test public void testConvert_241() throws Exception { verify( (char) 241, "ñ"); }</v>
+        <f>CONCATENATE("\x",TRIM(D195))</f>
+        <v>\x38</v>
+      </c>
+      <c r="I195" s="18" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A195,"() throws Exception { verify( (char) ",A195, ", """,C195,"""); }")</f>
+        <v>@Test public void testConvert_56() throws Exception { verify( (char) 56, "8"); }</v>
       </c>
     </row>
     <row r="196" spans="1:9">
       <c r="A196">
-        <f t="shared" si="14"/>
-        <v>242</v>
+        <f>HEX2DEC(MID(B196,3,4))</f>
+        <v>55</v>
       </c>
       <c r="B196" t="s">
-        <v>797</v>
-      </c>
-      <c r="C196" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D196" t="s">
-        <v>798</v>
+        <v>193</v>
+      </c>
+      <c r="C196" s="30">
+        <v>8</v>
+      </c>
+      <c r="D196">
+        <v>37</v>
       </c>
       <c r="E196" t="s">
-        <v>799</v>
-      </c>
-      <c r="F196" t="s">
-        <v>874</v>
+        <v>194</v>
       </c>
       <c r="G196" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\xb2</v>
-      </c>
-      <c r="I196" s="25" t="str">
-        <f t="shared" si="15"/>
-        <v>@Test public void testConvert_242() throws Exception { verify( (char) 242, "ò"); }</v>
+        <f>CONCATENATE("\x",TRIM(D196))</f>
+        <v>\x37</v>
+      </c>
+      <c r="I196" s="18" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A196,"() throws Exception { verify( (char) ",A196, ", """,C196,"""); }")</f>
+        <v>@Test public void testConvert_55() throws Exception { verify( (char) 55, "8"); }</v>
       </c>
     </row>
     <row r="197" spans="1:9">
       <c r="A197">
-        <f t="shared" si="14"/>
-        <v>243</v>
+        <f>HEX2DEC(MID(B197,3,4))</f>
+        <v>54</v>
       </c>
       <c r="B197" t="s">
-        <v>800</v>
-      </c>
-      <c r="C197" s="3" t="s">
-        <v>801</v>
-      </c>
-      <c r="D197" t="s">
-        <v>802</v>
+        <v>191</v>
+      </c>
+      <c r="C197" s="30">
+        <v>6</v>
+      </c>
+      <c r="D197">
+        <v>36</v>
       </c>
       <c r="E197" t="s">
-        <v>803</v>
-      </c>
-      <c r="F197" t="s">
-        <v>873</v>
+        <v>192</v>
       </c>
       <c r="G197" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\xb3</v>
-      </c>
-      <c r="I197" s="25" t="str">
-        <f t="shared" si="15"/>
-        <v>@Test public void testConvert_243() throws Exception { verify( (char) 243, "ó"); }</v>
+        <f>CONCATENATE("\x",TRIM(D197))</f>
+        <v>\x36</v>
+      </c>
+      <c r="I197" s="18" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A197,"() throws Exception { verify( (char) ",A197, ", """,C197,"""); }")</f>
+        <v>@Test public void testConvert_54() throws Exception { verify( (char) 54, "6"); }</v>
       </c>
     </row>
     <row r="198" spans="1:9">
       <c r="A198">
-        <f t="shared" si="14"/>
-        <v>244</v>
+        <f>HEX2DEC(MID(B198,3,4))</f>
+        <v>53</v>
       </c>
       <c r="B198" t="s">
-        <v>804</v>
-      </c>
-      <c r="C198" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D198" t="s">
-        <v>805</v>
+        <v>189</v>
+      </c>
+      <c r="C198" s="30">
+        <v>5</v>
+      </c>
+      <c r="D198">
+        <v>35</v>
       </c>
       <c r="E198" t="s">
-        <v>806</v>
-      </c>
-      <c r="F198" t="s">
-        <v>872</v>
+        <v>190</v>
       </c>
       <c r="G198" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\xb4</v>
-      </c>
-      <c r="I198" s="25" t="str">
-        <f t="shared" si="15"/>
-        <v>@Test public void testConvert_244() throws Exception { verify( (char) 244, "ô"); }</v>
+        <f>CONCATENATE("\x",TRIM(D198))</f>
+        <v>\x35</v>
+      </c>
+      <c r="I198" s="18" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A198,"() throws Exception { verify( (char) ",A198, ", """,C198,"""); }")</f>
+        <v>@Test public void testConvert_53() throws Exception { verify( (char) 53, "5"); }</v>
       </c>
     </row>
     <row r="199" spans="1:9">
       <c r="A199">
-        <f t="shared" si="14"/>
-        <v>245</v>
+        <f>HEX2DEC(MID(B199,3,4))</f>
+        <v>52</v>
       </c>
       <c r="B199" t="s">
-        <v>807</v>
-      </c>
-      <c r="C199" s="3" t="s">
-        <v>808</v>
-      </c>
-      <c r="D199" t="s">
-        <v>809</v>
+        <v>187</v>
+      </c>
+      <c r="C199" s="30">
+        <v>4</v>
+      </c>
+      <c r="D199">
+        <v>34</v>
       </c>
       <c r="E199" t="s">
-        <v>810</v>
-      </c>
-      <c r="F199" t="s">
-        <v>871</v>
+        <v>188</v>
       </c>
       <c r="G199" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\xb5</v>
-      </c>
-      <c r="I199" s="25" t="str">
-        <f t="shared" si="15"/>
-        <v>@Test public void testConvert_245() throws Exception { verify( (char) 245, "õ"); }</v>
+        <f>CONCATENATE("\x",TRIM(D199))</f>
+        <v>\x34</v>
+      </c>
+      <c r="I199" s="18" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A199,"() throws Exception { verify( (char) ",A199, ", """,C199,"""); }")</f>
+        <v>@Test public void testConvert_52() throws Exception { verify( (char) 52, "4"); }</v>
       </c>
     </row>
     <row r="200" spans="1:9">
       <c r="A200">
-        <f t="shared" si="14"/>
-        <v>246</v>
+        <f>HEX2DEC(MID(B200,3,4))</f>
+        <v>51</v>
       </c>
       <c r="B200" t="s">
-        <v>811</v>
-      </c>
-      <c r="C200" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D200" t="s">
-        <v>812</v>
+        <v>185</v>
+      </c>
+      <c r="C200" s="30">
+        <v>3</v>
+      </c>
+      <c r="D200">
+        <v>33</v>
       </c>
       <c r="E200" t="s">
-        <v>813</v>
-      </c>
-      <c r="F200" t="s">
-        <v>870</v>
+        <v>186</v>
       </c>
       <c r="G200" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\xb6</v>
-      </c>
-      <c r="I200" s="25" t="str">
-        <f t="shared" si="15"/>
-        <v>@Test public void testConvert_246() throws Exception { verify( (char) 246, "ö"); }</v>
+        <f>CONCATENATE("\x",TRIM(D200))</f>
+        <v>\x33</v>
+      </c>
+      <c r="I200" s="18" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A200,"() throws Exception { verify( (char) ",A200, ", """,C200,"""); }")</f>
+        <v>@Test public void testConvert_51() throws Exception { verify( (char) 51, "3"); }</v>
       </c>
     </row>
     <row r="201" spans="1:9">
       <c r="A201">
-        <f t="shared" si="14"/>
-        <v>247</v>
+        <f>HEX2DEC(MID(B201,3,4))</f>
+        <v>50</v>
       </c>
       <c r="B201" t="s">
-        <v>814</v>
-      </c>
-      <c r="C201" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D201" t="s">
-        <v>815</v>
+        <v>183</v>
+      </c>
+      <c r="C201" s="30">
+        <v>2</v>
+      </c>
+      <c r="D201">
+        <v>32</v>
       </c>
       <c r="E201" t="s">
-        <v>816</v>
-      </c>
-      <c r="F201" t="s">
-        <v>869</v>
+        <v>184</v>
       </c>
       <c r="G201" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\xb7</v>
-      </c>
-      <c r="I201" s="25" t="str">
-        <f t="shared" si="15"/>
-        <v>@Test public void testConvert_247() throws Exception { verify( (char) 247, "÷"); }</v>
+        <f>CONCATENATE("\x",TRIM(D201))</f>
+        <v>\x32</v>
+      </c>
+      <c r="I201" s="18" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A201,"() throws Exception { verify( (char) ",A201, ", """,C201,"""); }")</f>
+        <v>@Test public void testConvert_50() throws Exception { verify( (char) 50, "2"); }</v>
       </c>
     </row>
     <row r="202" spans="1:9">
       <c r="A202">
-        <f t="shared" si="14"/>
-        <v>248</v>
-      </c>
-      <c r="B202" t="s">
-        <v>817</v>
-      </c>
-      <c r="C202" s="3" t="s">
-        <v>818</v>
-      </c>
-      <c r="D202" t="s">
-        <v>819</v>
-      </c>
-      <c r="E202" t="s">
-        <v>820</v>
-      </c>
-      <c r="F202" t="s">
-        <v>868</v>
-      </c>
-      <c r="G202" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\xb8</v>
-      </c>
-      <c r="I202" s="25" t="str">
-        <f t="shared" si="15"/>
-        <v>@Test public void testConvert_248() throws Exception { verify( (char) 248, "ø"); }</v>
+        <f>HEX2DEC(MID(B202,3,4))</f>
+        <v>32</v>
+      </c>
+      <c r="B202" s="25" t="s">
+        <v>857</v>
+      </c>
+      <c r="C202" s="14"/>
+      <c r="D202" s="14"/>
+      <c r="E202" s="25" t="s">
+        <v>858</v>
+      </c>
+      <c r="F202" s="25" t="s">
+        <v>858</v>
+      </c>
+      <c r="G202" s="19"/>
+      <c r="H202" s="14"/>
+      <c r="I202" s="18" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A202,"() throws Exception { verify( (char) ",A202, ", """,C202,"""); }")</f>
+        <v>@Test public void testConvert_32() throws Exception { verify( (char) 32, ""); }</v>
       </c>
     </row>
     <row r="203" spans="1:9">
-      <c r="A203">
-        <f t="shared" si="14"/>
-        <v>249</v>
-      </c>
-      <c r="B203" t="s">
-        <v>821</v>
-      </c>
-      <c r="C203" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D203" t="s">
-        <v>822</v>
-      </c>
-      <c r="E203" t="s">
-        <v>823</v>
-      </c>
-      <c r="F203" t="s">
-        <v>867</v>
-      </c>
-      <c r="G203" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\xb9</v>
-      </c>
-      <c r="I203" s="25" t="str">
-        <f t="shared" si="15"/>
-        <v>@Test public void testConvert_249() throws Exception { verify( (char) 249, "ù"); }</v>
-      </c>
+      <c r="A203" s="18"/>
+      <c r="B203" s="18" t="s">
+        <v>435</v>
+      </c>
+      <c r="C203" s="18"/>
+      <c r="D203" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="E203" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="F203" s="18"/>
+      <c r="G203" t="str">
+        <f>CONCATENATE("\x",TRIM(D203))</f>
+        <v>\x7f</v>
+      </c>
+      <c r="H203" s="18"/>
+      <c r="I203" s="18"/>
     </row>
     <row r="204" spans="1:9">
-      <c r="A204">
-        <f t="shared" si="14"/>
-        <v>250</v>
-      </c>
-      <c r="B204" t="s">
-        <v>824</v>
-      </c>
-      <c r="C204" s="3" t="s">
-        <v>825</v>
-      </c>
-      <c r="D204" t="s">
-        <v>826</v>
-      </c>
-      <c r="E204" t="s">
-        <v>827</v>
-      </c>
-      <c r="F204" t="s">
-        <v>866</v>
-      </c>
-      <c r="G204" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\xba</v>
-      </c>
-      <c r="I204" s="25" t="str">
-        <f t="shared" si="15"/>
-        <v>@Test public void testConvert_250() throws Exception { verify( (char) 250, "ú"); }</v>
-      </c>
+      <c r="A204" s="18"/>
+      <c r="B204" s="18" t="s">
+        <v>437</v>
+      </c>
+      <c r="C204" s="18"/>
+      <c r="D204" s="18" t="s">
+        <v>438</v>
+      </c>
+      <c r="E204" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="F204" s="18"/>
+      <c r="G204" s="18" t="str">
+        <f>CONCATENATE("\x",LEFT(D204,2),"\x",MID(D204,4,2))</f>
+        <v>\xc2\x80</v>
+      </c>
+      <c r="H204" s="18"/>
+      <c r="I204" s="18"/>
     </row>
     <row r="205" spans="1:9">
-      <c r="A205">
-        <f t="shared" si="14"/>
-        <v>251</v>
-      </c>
-      <c r="B205" t="s">
-        <v>828</v>
-      </c>
-      <c r="C205" s="3" t="s">
-        <v>829</v>
-      </c>
-      <c r="D205" t="s">
-        <v>830</v>
-      </c>
-      <c r="E205" t="s">
-        <v>831</v>
-      </c>
-      <c r="F205" t="s">
-        <v>865</v>
-      </c>
-      <c r="G205" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\xbb</v>
-      </c>
-      <c r="I205" s="25" t="str">
-        <f t="shared" si="15"/>
-        <v>@Test public void testConvert_251() throws Exception { verify( (char) 251, "û"); }</v>
-      </c>
+      <c r="A205" s="18"/>
+      <c r="B205" s="18" t="s">
+        <v>439</v>
+      </c>
+      <c r="C205" s="18"/>
+      <c r="D205" s="18" t="s">
+        <v>440</v>
+      </c>
+      <c r="E205" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="F205" s="18"/>
+      <c r="G205" s="18" t="str">
+        <f>CONCATENATE("\x",LEFT(D205,2),"\x",MID(D205,4,2))</f>
+        <v>\xc2\x81</v>
+      </c>
+      <c r="H205" s="18"/>
+      <c r="I205" s="18"/>
     </row>
     <row r="206" spans="1:9">
-      <c r="A206">
-        <f t="shared" si="14"/>
-        <v>252</v>
-      </c>
-      <c r="B206" t="s">
-        <v>832</v>
-      </c>
-      <c r="C206" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D206" t="s">
-        <v>833</v>
-      </c>
-      <c r="E206" t="s">
-        <v>834</v>
-      </c>
-      <c r="F206" t="s">
-        <v>864</v>
-      </c>
-      <c r="G206" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\xbc</v>
-      </c>
-      <c r="I206" s="25" t="str">
-        <f t="shared" si="15"/>
-        <v>@Test public void testConvert_252() throws Exception { verify( (char) 252, "ü"); }</v>
-      </c>
+      <c r="A206" s="18"/>
+      <c r="B206" s="18" t="s">
+        <v>463</v>
+      </c>
+      <c r="C206" s="18"/>
+      <c r="D206" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="E206" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="F206" s="18"/>
+      <c r="G206" s="18" t="str">
+        <f>CONCATENATE("\x",LEFT(D206,2),"\x",MID(D206,4,2))</f>
+        <v>\xc2\x8d</v>
+      </c>
+      <c r="H206" s="18"/>
+      <c r="I206" s="18"/>
     </row>
     <row r="207" spans="1:9">
-      <c r="A207">
-        <f t="shared" si="14"/>
-        <v>253</v>
-      </c>
-      <c r="B207" t="s">
-        <v>835</v>
-      </c>
-      <c r="C207" s="3" t="s">
-        <v>836</v>
-      </c>
-      <c r="D207" t="s">
-        <v>837</v>
-      </c>
-      <c r="E207" t="s">
-        <v>838</v>
-      </c>
-      <c r="F207" t="s">
-        <v>863</v>
-      </c>
-      <c r="G207" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\xbd</v>
-      </c>
-      <c r="I207" s="25" t="str">
-        <f t="shared" si="15"/>
-        <v>@Test public void testConvert_253() throws Exception { verify( (char) 253, "ý"); }</v>
-      </c>
+      <c r="A207" s="18"/>
+      <c r="B207" s="18" t="s">
+        <v>465</v>
+      </c>
+      <c r="C207" s="18"/>
+      <c r="D207" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="E207" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="F207" s="18"/>
+      <c r="G207" s="18" t="str">
+        <f>CONCATENATE("\x",LEFT(D207,2),"\x",MID(D207,4,2))</f>
+        <v>\xc2\x8e</v>
+      </c>
+      <c r="H207" s="18"/>
+      <c r="I207" s="18"/>
     </row>
     <row r="208" spans="1:9">
-      <c r="A208">
-        <f t="shared" si="14"/>
-        <v>254</v>
-      </c>
-      <c r="B208" t="s">
-        <v>839</v>
-      </c>
-      <c r="C208" s="3" t="s">
-        <v>840</v>
-      </c>
-      <c r="D208" t="s">
-        <v>841</v>
-      </c>
-      <c r="E208" t="s">
-        <v>842</v>
-      </c>
-      <c r="F208" t="s">
-        <v>862</v>
-      </c>
-      <c r="G208" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\xbe</v>
-      </c>
-      <c r="I208" s="25" t="str">
-        <f t="shared" si="15"/>
-        <v>@Test public void testConvert_254() throws Exception { verify( (char) 254, "þ"); }</v>
-      </c>
+      <c r="A208" s="18"/>
+      <c r="B208" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="C208" s="18"/>
+      <c r="D208" s="18" t="s">
+        <v>468</v>
+      </c>
+      <c r="E208" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="F208" s="18"/>
+      <c r="G208" s="18" t="str">
+        <f>CONCATENATE("\x",LEFT(D208,2),"\x",MID(D208,4,2))</f>
+        <v>\xc2\x8f</v>
+      </c>
+      <c r="H208" s="18"/>
+      <c r="I208" s="18"/>
     </row>
     <row r="209" spans="1:9">
-      <c r="A209">
-        <f t="shared" si="14"/>
-        <v>255</v>
-      </c>
-      <c r="B209" t="s">
-        <v>843</v>
-      </c>
-      <c r="C209" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D209" t="s">
-        <v>844</v>
-      </c>
-      <c r="E209" t="s">
-        <v>845</v>
-      </c>
-      <c r="F209" t="s">
-        <v>861</v>
-      </c>
-      <c r="G209" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>\xc3\xbf</v>
-      </c>
-      <c r="I209" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A209,"() throws Exception { verify( (char) ",A209, ", """,C209,"""); }")</f>
-        <v>@Test public void testConvert_255() throws Exception { verify( (char) 255, "ÿ"); }</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9">
-      <c r="A213" s="26" t="s">
+      <c r="A209" s="18"/>
+      <c r="B209" s="18" t="s">
+        <v>469</v>
+      </c>
+      <c r="C209" s="18"/>
+      <c r="D209" s="18" t="s">
+        <v>470</v>
+      </c>
+      <c r="E209" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="F209" s="18"/>
+      <c r="G209" s="18" t="str">
+        <f>CONCATENATE("\x",LEFT(D209,2),"\x",MID(D209,4,2))</f>
+        <v>\xc2\x90</v>
+      </c>
+      <c r="H209" s="18"/>
+      <c r="I209" s="18"/>
+    </row>
+    <row r="210" spans="1:9">
+      <c r="A210" s="18"/>
+      <c r="B210" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C210" s="18"/>
+      <c r="D210" s="18" t="s">
+        <v>496</v>
+      </c>
+      <c r="E210" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="F210" s="18"/>
+      <c r="G210" s="18" t="str">
+        <f>CONCATENATE("\x",LEFT(D210,2),"\x",MID(D210,4,2))</f>
+        <v>\xc2\x9d</v>
+      </c>
+      <c r="H210" s="18"/>
+      <c r="I210" s="18"/>
+    </row>
+    <row r="211" spans="1:9">
+      <c r="A211" s="18"/>
+      <c r="B211" s="18" t="s">
+        <v>497</v>
+      </c>
+      <c r="C211" s="18"/>
+      <c r="D211" s="18" t="s">
+        <v>498</v>
+      </c>
+      <c r="E211" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="F211" s="18"/>
+      <c r="G211" s="18" t="str">
+        <f>CONCATENATE("\x",LEFT(D211,2),"\x",MID(D211,4,2))</f>
+        <v>\xc2\x9e</v>
+      </c>
+      <c r="H211" s="18"/>
+      <c r="I211" s="18"/>
+    </row>
+    <row r="215" spans="1:9">
+      <c r="A215" s="26" t="s">
         <v>853</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B215" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="214" spans="1:9">
-      <c r="A214" s="29" t="s">
+    <row r="216" spans="1:9">
+      <c r="A216" s="29" t="s">
         <v>853</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B216" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="215" spans="1:9">
-      <c r="A215" s="28" t="s">
+    <row r="217" spans="1:9">
+      <c r="A217" s="28" t="s">
         <v>853</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B217" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="216" spans="1:9">
-      <c r="A216" s="27" t="s">
+    <row r="218" spans="1:9">
+      <c r="A218" s="27" t="s">
         <v>853</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B218" t="s">
         <v>898</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:E209">
-    <filterColumn colId="3">
-      <colorFilter dxfId="0" cellColor="0"/>
-    </filterColumn>
+  <autoFilter ref="A1:I1">
+    <sortState ref="A2:I208">
+      <sortCondition descending="1" ref="A1:A208"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/notes/Sanskrit99_Conversion_Mapping.xlsx
+++ b/notes/Sanskrit99_Conversion_Mapping.xlsx
@@ -5612,16 +5612,7 @@
     <cellStyle name="Hyperlink" xfId="1353" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
@@ -7304,8 +7295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="I98" sqref="I98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7349,7 +7340,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <f>HEX2DEC(MID(B2,3,4))</f>
+        <f t="shared" ref="A2:A33" si="0">HEX2DEC(MID(B2,3,4))</f>
         <v>255</v>
       </c>
       <c r="B2" t="s">
@@ -7368,17 +7359,17 @@
         <v>861</v>
       </c>
       <c r="G2" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D2,2),"\x",MID(D2,4,2))</f>
+        <f t="shared" ref="G2:G33" si="1">CONCATENATE("\x",LEFT(D2,2),"\x",MID(D2,4,2))</f>
         <v>\xc3\xbf</v>
       </c>
       <c r="I2" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A2,"() throws Exception { verify( (char) ",A2, ", """,C2,"""); }")</f>
+        <f t="shared" ref="I2:I33" si="2">CONCATENATE("@Test public void testConvert_",A2,"() throws Exception { verify( (char) ",A2, ", """,C2,"""); }")</f>
         <v>@Test public void testConvert_255() throws Exception { verify( (char) 255, "ÿ"); }</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <f>HEX2DEC(MID(B3,3,4))</f>
+        <f t="shared" si="0"/>
         <v>254</v>
       </c>
       <c r="B3" t="s">
@@ -7397,17 +7388,17 @@
         <v>862</v>
       </c>
       <c r="G3" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D3,2),"\x",MID(D3,4,2))</f>
+        <f t="shared" si="1"/>
         <v>\xc3\xbe</v>
       </c>
       <c r="I3" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A3,"() throws Exception { verify( (char) ",A3, ", """,C3,"""); }")</f>
+        <f t="shared" si="2"/>
         <v>@Test public void testConvert_254() throws Exception { verify( (char) 254, "þ"); }</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <f>HEX2DEC(MID(B4,3,4))</f>
+        <f t="shared" si="0"/>
         <v>253</v>
       </c>
       <c r="B4" t="s">
@@ -7426,17 +7417,17 @@
         <v>863</v>
       </c>
       <c r="G4" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D4,2),"\x",MID(D4,4,2))</f>
+        <f t="shared" si="1"/>
         <v>\xc3\xbd</v>
       </c>
       <c r="I4" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A4,"() throws Exception { verify( (char) ",A4, ", """,C4,"""); }")</f>
+        <f t="shared" si="2"/>
         <v>@Test public void testConvert_253() throws Exception { verify( (char) 253, "ý"); }</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <f>HEX2DEC(MID(B5,3,4))</f>
+        <f t="shared" si="0"/>
         <v>252</v>
       </c>
       <c r="B5" t="s">
@@ -7455,17 +7446,17 @@
         <v>864</v>
       </c>
       <c r="G5" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D5,2),"\x",MID(D5,4,2))</f>
+        <f t="shared" si="1"/>
         <v>\xc3\xbc</v>
       </c>
       <c r="I5" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A5,"() throws Exception { verify( (char) ",A5, ", """,C5,"""); }")</f>
+        <f t="shared" si="2"/>
         <v>@Test public void testConvert_252() throws Exception { verify( (char) 252, "ü"); }</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <f>HEX2DEC(MID(B6,3,4))</f>
+        <f t="shared" si="0"/>
         <v>251</v>
       </c>
       <c r="B6" t="s">
@@ -7484,17 +7475,17 @@
         <v>865</v>
       </c>
       <c r="G6" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D6,2),"\x",MID(D6,4,2))</f>
+        <f t="shared" si="1"/>
         <v>\xc3\xbb</v>
       </c>
       <c r="I6" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A6,"() throws Exception { verify( (char) ",A6, ", """,C6,"""); }")</f>
+        <f t="shared" si="2"/>
         <v>@Test public void testConvert_251() throws Exception { verify( (char) 251, "û"); }</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <f>HEX2DEC(MID(B7,3,4))</f>
+        <f t="shared" si="0"/>
         <v>250</v>
       </c>
       <c r="B7" t="s">
@@ -7513,17 +7504,17 @@
         <v>866</v>
       </c>
       <c r="G7" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D7,2),"\x",MID(D7,4,2))</f>
+        <f t="shared" si="1"/>
         <v>\xc3\xba</v>
       </c>
       <c r="I7" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A7,"() throws Exception { verify( (char) ",A7, ", """,C7,"""); }")</f>
+        <f t="shared" si="2"/>
         <v>@Test public void testConvert_250() throws Exception { verify( (char) 250, "ú"); }</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <f>HEX2DEC(MID(B8,3,4))</f>
+        <f t="shared" si="0"/>
         <v>249</v>
       </c>
       <c r="B8" t="s">
@@ -7542,17 +7533,17 @@
         <v>867</v>
       </c>
       <c r="G8" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D8,2),"\x",MID(D8,4,2))</f>
+        <f t="shared" si="1"/>
         <v>\xc3\xb9</v>
       </c>
       <c r="I8" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A8,"() throws Exception { verify( (char) ",A8, ", """,C8,"""); }")</f>
+        <f t="shared" si="2"/>
         <v>@Test public void testConvert_249() throws Exception { verify( (char) 249, "ù"); }</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <f>HEX2DEC(MID(B9,3,4))</f>
+        <f t="shared" si="0"/>
         <v>248</v>
       </c>
       <c r="B9" t="s">
@@ -7571,17 +7562,17 @@
         <v>868</v>
       </c>
       <c r="G9" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D9,2),"\x",MID(D9,4,2))</f>
+        <f t="shared" si="1"/>
         <v>\xc3\xb8</v>
       </c>
       <c r="I9" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A9,"() throws Exception { verify( (char) ",A9, ", """,C9,"""); }")</f>
+        <f t="shared" si="2"/>
         <v>@Test public void testConvert_248() throws Exception { verify( (char) 248, "ø"); }</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <f>HEX2DEC(MID(B10,3,4))</f>
+        <f t="shared" si="0"/>
         <v>247</v>
       </c>
       <c r="B10" t="s">
@@ -7600,17 +7591,17 @@
         <v>869</v>
       </c>
       <c r="G10" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D10,2),"\x",MID(D10,4,2))</f>
+        <f t="shared" si="1"/>
         <v>\xc3\xb7</v>
       </c>
       <c r="I10" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A10,"() throws Exception { verify( (char) ",A10, ", """,C10,"""); }")</f>
+        <f t="shared" si="2"/>
         <v>@Test public void testConvert_247() throws Exception { verify( (char) 247, "÷"); }</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <f>HEX2DEC(MID(B11,3,4))</f>
+        <f t="shared" si="0"/>
         <v>246</v>
       </c>
       <c r="B11" t="s">
@@ -7629,17 +7620,17 @@
         <v>870</v>
       </c>
       <c r="G11" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D11,2),"\x",MID(D11,4,2))</f>
+        <f t="shared" si="1"/>
         <v>\xc3\xb6</v>
       </c>
       <c r="I11" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A11,"() throws Exception { verify( (char) ",A11, ", """,C11,"""); }")</f>
+        <f t="shared" si="2"/>
         <v>@Test public void testConvert_246() throws Exception { verify( (char) 246, "ö"); }</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <f>HEX2DEC(MID(B12,3,4))</f>
+        <f t="shared" si="0"/>
         <v>245</v>
       </c>
       <c r="B12" t="s">
@@ -7658,17 +7649,17 @@
         <v>871</v>
       </c>
       <c r="G12" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D12,2),"\x",MID(D12,4,2))</f>
+        <f t="shared" si="1"/>
         <v>\xc3\xb5</v>
       </c>
       <c r="I12" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A12,"() throws Exception { verify( (char) ",A12, ", """,C12,"""); }")</f>
+        <f t="shared" si="2"/>
         <v>@Test public void testConvert_245() throws Exception { verify( (char) 245, "õ"); }</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <f>HEX2DEC(MID(B13,3,4))</f>
+        <f t="shared" si="0"/>
         <v>244</v>
       </c>
       <c r="B13" t="s">
@@ -7687,17 +7678,17 @@
         <v>872</v>
       </c>
       <c r="G13" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D13,2),"\x",MID(D13,4,2))</f>
+        <f t="shared" si="1"/>
         <v>\xc3\xb4</v>
       </c>
       <c r="I13" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A13,"() throws Exception { verify( (char) ",A13, ", """,C13,"""); }")</f>
+        <f t="shared" si="2"/>
         <v>@Test public void testConvert_244() throws Exception { verify( (char) 244, "ô"); }</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <f>HEX2DEC(MID(B14,3,4))</f>
+        <f t="shared" si="0"/>
         <v>243</v>
       </c>
       <c r="B14" t="s">
@@ -7716,17 +7707,17 @@
         <v>873</v>
       </c>
       <c r="G14" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D14,2),"\x",MID(D14,4,2))</f>
+        <f t="shared" si="1"/>
         <v>\xc3\xb3</v>
       </c>
       <c r="I14" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A14,"() throws Exception { verify( (char) ",A14, ", """,C14,"""); }")</f>
+        <f t="shared" si="2"/>
         <v>@Test public void testConvert_243() throws Exception { verify( (char) 243, "ó"); }</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <f>HEX2DEC(MID(B15,3,4))</f>
+        <f t="shared" si="0"/>
         <v>242</v>
       </c>
       <c r="B15" t="s">
@@ -7745,17 +7736,17 @@
         <v>874</v>
       </c>
       <c r="G15" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D15,2),"\x",MID(D15,4,2))</f>
+        <f t="shared" si="1"/>
         <v>\xc3\xb2</v>
       </c>
       <c r="I15" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A15,"() throws Exception { verify( (char) ",A15, ", """,C15,"""); }")</f>
+        <f t="shared" si="2"/>
         <v>@Test public void testConvert_242() throws Exception { verify( (char) 242, "ò"); }</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <f>HEX2DEC(MID(B16,3,4))</f>
+        <f t="shared" si="0"/>
         <v>241</v>
       </c>
       <c r="B16" t="s">
@@ -7774,17 +7765,17 @@
         <v>875</v>
       </c>
       <c r="G16" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D16,2),"\x",MID(D16,4,2))</f>
+        <f t="shared" si="1"/>
         <v>\xc3\xb1</v>
       </c>
       <c r="I16" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A16,"() throws Exception { verify( (char) ",A16, ", """,C16,"""); }")</f>
+        <f t="shared" si="2"/>
         <v>@Test public void testConvert_241() throws Exception { verify( (char) 241, "ñ"); }</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <f>HEX2DEC(MID(B17,3,4))</f>
+        <f t="shared" si="0"/>
         <v>240</v>
       </c>
       <c r="B17" t="s">
@@ -7803,17 +7794,17 @@
         <v>876</v>
       </c>
       <c r="G17" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D17,2),"\x",MID(D17,4,2))</f>
+        <f t="shared" si="1"/>
         <v>\xc3\xb0</v>
       </c>
       <c r="I17" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A17,"() throws Exception { verify( (char) ",A17, ", """,C17,"""); }")</f>
+        <f t="shared" si="2"/>
         <v>@Test public void testConvert_240() throws Exception { verify( (char) 240, "ð"); }</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <f>HEX2DEC(MID(B18,3,4))</f>
+        <f t="shared" si="0"/>
         <v>239</v>
       </c>
       <c r="B18" t="s">
@@ -7832,17 +7823,17 @@
         <v>877</v>
       </c>
       <c r="G18" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D18,2),"\x",MID(D18,4,2))</f>
+        <f t="shared" si="1"/>
         <v>\xc3\xaf</v>
       </c>
       <c r="I18" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A18,"() throws Exception { verify( (char) ",A18, ", """,C18,"""); }")</f>
+        <f t="shared" si="2"/>
         <v>@Test public void testConvert_239() throws Exception { verify( (char) 239, "ï"); }</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <f>HEX2DEC(MID(B19,3,4))</f>
+        <f t="shared" si="0"/>
         <v>238</v>
       </c>
       <c r="B19" t="s">
@@ -7858,17 +7849,17 @@
         <v>787</v>
       </c>
       <c r="G19" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D19,2),"\x",MID(D19,4,2))</f>
+        <f t="shared" si="1"/>
         <v>\xc3\xae</v>
       </c>
       <c r="I19" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A19,"() throws Exception { verify( (char) ",A19, ", """,C19,"""); }")</f>
+        <f t="shared" si="2"/>
         <v>@Test public void testConvert_238() throws Exception { verify( (char) 238, "î"); }</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <f>HEX2DEC(MID(B20,3,4))</f>
+        <f t="shared" si="0"/>
         <v>237</v>
       </c>
       <c r="B20" t="s">
@@ -7884,17 +7875,17 @@
         <v>783</v>
       </c>
       <c r="G20" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D20,2),"\x",MID(D20,4,2))</f>
+        <f t="shared" si="1"/>
         <v>\xc3\xad</v>
       </c>
       <c r="I20" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A20,"() throws Exception { verify( (char) ",A20, ", """,C20,"""); }")</f>
+        <f t="shared" si="2"/>
         <v>@Test public void testConvert_237() throws Exception { verify( (char) 237, "í"); }</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <f>HEX2DEC(MID(B21,3,4))</f>
+        <f t="shared" si="0"/>
         <v>236</v>
       </c>
       <c r="B21" t="s">
@@ -7910,17 +7901,17 @@
         <v>779</v>
       </c>
       <c r="G21" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D21,2),"\x",MID(D21,4,2))</f>
+        <f t="shared" si="1"/>
         <v>\xc3\xac</v>
       </c>
       <c r="I21" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A21,"() throws Exception { verify( (char) ",A21, ", """,C21,"""); }")</f>
+        <f t="shared" si="2"/>
         <v>@Test public void testConvert_236() throws Exception { verify( (char) 236, "ì"); }</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <f>HEX2DEC(MID(B22,3,4))</f>
+        <f t="shared" si="0"/>
         <v>235</v>
       </c>
       <c r="B22" t="s">
@@ -7939,17 +7930,17 @@
         <v>883</v>
       </c>
       <c r="G22" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D22,2),"\x",MID(D22,4,2))</f>
+        <f t="shared" si="1"/>
         <v>\xc3\xab</v>
       </c>
       <c r="I22" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A22,"() throws Exception { verify( (char) ",A22, ", """,C22,"""); }")</f>
+        <f t="shared" si="2"/>
         <v>@Test public void testConvert_235() throws Exception { verify( (char) 235, "ë"); }</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <f>HEX2DEC(MID(B23,3,4))</f>
+        <f t="shared" si="0"/>
         <v>234</v>
       </c>
       <c r="B23" t="s">
@@ -7965,17 +7956,17 @@
         <v>773</v>
       </c>
       <c r="G23" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D23,2),"\x",MID(D23,4,2))</f>
+        <f t="shared" si="1"/>
         <v>\xc3\xaa</v>
       </c>
       <c r="I23" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A23,"() throws Exception { verify( (char) ",A23, ", """,C23,"""); }")</f>
+        <f t="shared" si="2"/>
         <v>@Test public void testConvert_234() throws Exception { verify( (char) 234, "ê"); }</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
-        <f>HEX2DEC(MID(B24,3,4))</f>
+        <f t="shared" si="0"/>
         <v>233</v>
       </c>
       <c r="B24" t="s">
@@ -7991,17 +7982,17 @@
         <v>769</v>
       </c>
       <c r="G24" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D24,2),"\x",MID(D24,4,2))</f>
+        <f t="shared" si="1"/>
         <v>\xc3\xa9</v>
       </c>
       <c r="I24" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A24,"() throws Exception { verify( (char) ",A24, ", """,C24,"""); }")</f>
+        <f t="shared" si="2"/>
         <v>@Test public void testConvert_233() throws Exception { verify( (char) 233, "é"); }</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
-        <f>HEX2DEC(MID(B25,3,4))</f>
+        <f t="shared" si="0"/>
         <v>232</v>
       </c>
       <c r="B25" t="s">
@@ -8017,17 +8008,17 @@
         <v>766</v>
       </c>
       <c r="G25" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D25,2),"\x",MID(D25,4,2))</f>
+        <f t="shared" si="1"/>
         <v>\xc3\xa8</v>
       </c>
       <c r="I25" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A25,"() throws Exception { verify( (char) ",A25, ", """,C25,"""); }")</f>
+        <f t="shared" si="2"/>
         <v>@Test public void testConvert_232() throws Exception { verify( (char) 232, "è"); }</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
-        <f>HEX2DEC(MID(B26,3,4))</f>
+        <f t="shared" si="0"/>
         <v>231</v>
       </c>
       <c r="B26" t="s">
@@ -8043,17 +8034,17 @@
         <v>763</v>
       </c>
       <c r="G26" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D26,2),"\x",MID(D26,4,2))</f>
+        <f t="shared" si="1"/>
         <v>\xc3\xa7</v>
       </c>
       <c r="I26" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A26,"() throws Exception { verify( (char) ",A26, ", """,C26,"""); }")</f>
+        <f t="shared" si="2"/>
         <v>@Test public void testConvert_231() throws Exception { verify( (char) 231, "ç"); }</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
-        <f>HEX2DEC(MID(B27,3,4))</f>
+        <f t="shared" si="0"/>
         <v>230</v>
       </c>
       <c r="B27" t="s">
@@ -8069,17 +8060,17 @@
         <v>760</v>
       </c>
       <c r="G27" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D27,2),"\x",MID(D27,4,2))</f>
+        <f t="shared" si="1"/>
         <v>\xc3\xa6</v>
       </c>
       <c r="I27" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A27,"() throws Exception { verify( (char) ",A27, ", """,C27,"""); }")</f>
+        <f t="shared" si="2"/>
         <v>@Test public void testConvert_230() throws Exception { verify( (char) 230, "æ"); }</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
-        <f>HEX2DEC(MID(B28,3,4))</f>
+        <f t="shared" si="0"/>
         <v>229</v>
       </c>
       <c r="B28" t="s">
@@ -8098,17 +8089,17 @@
         <v>884</v>
       </c>
       <c r="G28" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D28,2),"\x",MID(D28,4,2))</f>
+        <f t="shared" si="1"/>
         <v>\xc3\xa5</v>
       </c>
       <c r="I28" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A28,"() throws Exception { verify( (char) ",A28, ", """,C28,"""); }")</f>
+        <f t="shared" si="2"/>
         <v>@Test public void testConvert_229() throws Exception { verify( (char) 229, "å"); }</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
-        <f>HEX2DEC(MID(B29,3,4))</f>
+        <f t="shared" si="0"/>
         <v>228</v>
       </c>
       <c r="B29" t="s">
@@ -8124,17 +8115,17 @@
         <v>753</v>
       </c>
       <c r="G29" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D29,2),"\x",MID(D29,4,2))</f>
+        <f t="shared" si="1"/>
         <v>\xc3\xa4</v>
       </c>
       <c r="I29" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A29,"() throws Exception { verify( (char) ",A29, ", """,C29,"""); }")</f>
+        <f t="shared" si="2"/>
         <v>@Test public void testConvert_228() throws Exception { verify( (char) 228, "ä"); }</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <f>HEX2DEC(MID(B30,3,4))</f>
+        <f t="shared" si="0"/>
         <v>227</v>
       </c>
       <c r="B30" t="s">
@@ -8153,17 +8144,17 @@
         <v>885</v>
       </c>
       <c r="G30" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D30,2),"\x",MID(D30,4,2))</f>
+        <f t="shared" si="1"/>
         <v>\xc3\xa3</v>
       </c>
       <c r="I30" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A30,"() throws Exception { verify( (char) ",A30, ", """,C30,"""); }")</f>
+        <f t="shared" si="2"/>
         <v>@Test public void testConvert_227() throws Exception { verify( (char) 227, "ã"); }</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
-        <f>HEX2DEC(MID(B31,3,4))</f>
+        <f t="shared" si="0"/>
         <v>226</v>
       </c>
       <c r="B31" t="s">
@@ -8182,17 +8173,17 @@
         <v>886</v>
       </c>
       <c r="G31" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D31,2),"\x",MID(D31,4,2))</f>
+        <f t="shared" si="1"/>
         <v>\xc3\xa2</v>
       </c>
       <c r="I31" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A31,"() throws Exception { verify( (char) ",A31, ", """,C31,"""); }")</f>
+        <f t="shared" si="2"/>
         <v>@Test public void testConvert_226() throws Exception { verify( (char) 226, "â"); }</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32">
-        <f>HEX2DEC(MID(B32,3,4))</f>
+        <f t="shared" si="0"/>
         <v>225</v>
       </c>
       <c r="B32" t="s">
@@ -8208,20 +8199,20 @@
         <v>742</v>
       </c>
       <c r="G32" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D32,2),"\x",MID(D32,4,2))</f>
+        <f t="shared" si="1"/>
         <v>\xc3\xa1</v>
       </c>
       <c r="H32" t="s">
         <v>849</v>
       </c>
       <c r="I32" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A32,"() throws Exception { verify( (char) ",A32, ", """,C32,"""); }")</f>
+        <f t="shared" si="2"/>
         <v>@Test public void testConvert_225() throws Exception { verify( (char) 225, "á"); }</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33">
-        <f>HEX2DEC(MID(B33,3,4))</f>
+        <f t="shared" si="0"/>
         <v>224</v>
       </c>
       <c r="B33" t="s">
@@ -8237,17 +8228,17 @@
         <v>738</v>
       </c>
       <c r="G33" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D33,2),"\x",MID(D33,4,2))</f>
+        <f t="shared" si="1"/>
         <v>\xc3\xa0</v>
       </c>
       <c r="I33" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A33,"() throws Exception { verify( (char) ",A33, ", """,C33,"""); }")</f>
+        <f t="shared" si="2"/>
         <v>@Test public void testConvert_224() throws Exception { verify( (char) 224, "à"); }</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34">
-        <f>HEX2DEC(MID(B34,3,4))</f>
+        <f t="shared" ref="A34:A65" si="3">HEX2DEC(MID(B34,3,4))</f>
         <v>223</v>
       </c>
       <c r="B34" t="s">
@@ -8263,17 +8254,17 @@
         <v>735</v>
       </c>
       <c r="G34" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D34,2),"\x",MID(D34,4,2))</f>
+        <f t="shared" ref="G34:G65" si="4">CONCATENATE("\x",LEFT(D34,2),"\x",MID(D34,4,2))</f>
         <v>\xc3\x9f</v>
       </c>
       <c r="I34" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A34,"() throws Exception { verify( (char) ",A34, ", """,C34,"""); }")</f>
+        <f t="shared" ref="I34:I65" si="5">CONCATENATE("@Test public void testConvert_",A34,"() throws Exception { verify( (char) ",A34, ", """,C34,"""); }")</f>
         <v>@Test public void testConvert_223() throws Exception { verify( (char) 223, "ß"); }</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35">
-        <f>HEX2DEC(MID(B35,3,4))</f>
+        <f t="shared" si="3"/>
         <v>222</v>
       </c>
       <c r="B35" t="s">
@@ -8292,17 +8283,17 @@
         <v>887</v>
       </c>
       <c r="G35" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D35,2),"\x",MID(D35,4,2))</f>
+        <f t="shared" si="4"/>
         <v>\xc3\x9e</v>
       </c>
       <c r="I35" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A35,"() throws Exception { verify( (char) ",A35, ", """,C35,"""); }")</f>
+        <f t="shared" si="5"/>
         <v>@Test public void testConvert_222() throws Exception { verify( (char) 222, "Þ"); }</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36">
-        <f>HEX2DEC(MID(B36,3,4))</f>
+        <f t="shared" si="3"/>
         <v>221</v>
       </c>
       <c r="B36" t="s">
@@ -8318,17 +8309,17 @@
         <v>729</v>
       </c>
       <c r="G36" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D36,2),"\x",MID(D36,4,2))</f>
+        <f t="shared" si="4"/>
         <v>\xc3\x9d</v>
       </c>
       <c r="I36" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A36,"() throws Exception { verify( (char) ",A36, ", """,C36,"""); }")</f>
+        <f t="shared" si="5"/>
         <v>@Test public void testConvert_221() throws Exception { verify( (char) 221, "Ý"); }</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37">
-        <f>HEX2DEC(MID(B37,3,4))</f>
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
       <c r="B37" t="s">
@@ -8344,17 +8335,17 @@
         <v>725</v>
       </c>
       <c r="G37" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D37,2),"\x",MID(D37,4,2))</f>
+        <f t="shared" si="4"/>
         <v>\xc3\x9c</v>
       </c>
       <c r="I37" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A37,"() throws Exception { verify( (char) ",A37, ", """,C37,"""); }")</f>
+        <f t="shared" si="5"/>
         <v>@Test public void testConvert_220() throws Exception { verify( (char) 220, "Ü"); }</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38">
-        <f>HEX2DEC(MID(B38,3,4))</f>
+        <f t="shared" si="3"/>
         <v>219</v>
       </c>
       <c r="B38" t="s">
@@ -8373,17 +8364,17 @@
         <v>888</v>
       </c>
       <c r="G38" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D38,2),"\x",MID(D38,4,2))</f>
+        <f t="shared" si="4"/>
         <v>\xc3\x9b</v>
       </c>
       <c r="I38" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A38,"() throws Exception { verify( (char) ",A38, ", """,C38,"""); }")</f>
+        <f t="shared" si="5"/>
         <v>@Test public void testConvert_219() throws Exception { verify( (char) 219, "Û"); }</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39">
-        <f>HEX2DEC(MID(B39,3,4))</f>
+        <f t="shared" si="3"/>
         <v>218</v>
       </c>
       <c r="B39" t="s">
@@ -8399,17 +8390,17 @@
         <v>718</v>
       </c>
       <c r="G39" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D39,2),"\x",MID(D39,4,2))</f>
+        <f t="shared" si="4"/>
         <v>\xc3\x9a</v>
       </c>
       <c r="I39" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A39,"() throws Exception { verify( (char) ",A39, ", """,C39,"""); }")</f>
+        <f t="shared" si="5"/>
         <v>@Test public void testConvert_218() throws Exception { verify( (char) 218, "Ú"); }</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40">
-        <f>HEX2DEC(MID(B40,3,4))</f>
+        <f t="shared" si="3"/>
         <v>217</v>
       </c>
       <c r="B40" t="s">
@@ -8425,17 +8416,17 @@
         <v>714</v>
       </c>
       <c r="G40" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D40,2),"\x",MID(D40,4,2))</f>
+        <f t="shared" si="4"/>
         <v>\xc3\x99</v>
       </c>
       <c r="I40" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A40,"() throws Exception { verify( (char) ",A40, ", """,C40,"""); }")</f>
+        <f t="shared" si="5"/>
         <v>@Test public void testConvert_217() throws Exception { verify( (char) 217, "Ù"); }</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41">
-        <f>HEX2DEC(MID(B41,3,4))</f>
+        <f t="shared" si="3"/>
         <v>216</v>
       </c>
       <c r="B41" t="s">
@@ -8451,17 +8442,17 @@
         <v>711</v>
       </c>
       <c r="G41" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D41,2),"\x",MID(D41,4,2))</f>
+        <f t="shared" si="4"/>
         <v>\xc3\x98</v>
       </c>
       <c r="I41" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A41,"() throws Exception { verify( (char) ",A41, ", """,C41,"""); }")</f>
+        <f t="shared" si="5"/>
         <v>@Test public void testConvert_216() throws Exception { verify( (char) 216, "Ø"); }</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42">
-        <f>HEX2DEC(MID(B42,3,4))</f>
+        <f t="shared" si="3"/>
         <v>215</v>
       </c>
       <c r="B42" t="s">
@@ -8480,17 +8471,17 @@
         <v>889</v>
       </c>
       <c r="G42" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D42,2),"\x",MID(D42,4,2))</f>
+        <f t="shared" si="4"/>
         <v>\xc3\x97</v>
       </c>
       <c r="I42" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A42,"() throws Exception { verify( (char) ",A42, ", """,C42,"""); }")</f>
+        <f t="shared" si="5"/>
         <v>@Test public void testConvert_215() throws Exception { verify( (char) 215, "×"); }</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43">
-        <f>HEX2DEC(MID(B43,3,4))</f>
+        <f t="shared" si="3"/>
         <v>214</v>
       </c>
       <c r="B43" t="s">
@@ -8506,17 +8497,17 @@
         <v>704</v>
       </c>
       <c r="G43" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D43,2),"\x",MID(D43,4,2))</f>
+        <f t="shared" si="4"/>
         <v>\xc3\x96</v>
       </c>
       <c r="I43" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A43,"() throws Exception { verify( (char) ",A43, ", """,C43,"""); }")</f>
+        <f t="shared" si="5"/>
         <v>@Test public void testConvert_214() throws Exception { verify( (char) 214, "Ö"); }</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44">
-        <f>HEX2DEC(MID(B44,3,4))</f>
+        <f t="shared" si="3"/>
         <v>213</v>
       </c>
       <c r="B44" t="s">
@@ -8532,17 +8523,17 @@
         <v>701</v>
       </c>
       <c r="G44" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D44,2),"\x",MID(D44,4,2))</f>
+        <f t="shared" si="4"/>
         <v>\xc3\x95</v>
       </c>
       <c r="I44" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A44,"() throws Exception { verify( (char) ",A44, ", """,C44,"""); }")</f>
+        <f t="shared" si="5"/>
         <v>@Test public void testConvert_213() throws Exception { verify( (char) 213, "Õ"); }</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45">
-        <f>HEX2DEC(MID(B45,3,4))</f>
+        <f t="shared" si="3"/>
         <v>212</v>
       </c>
       <c r="B45" t="s">
@@ -8558,17 +8549,17 @@
         <v>697</v>
       </c>
       <c r="G45" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D45,2),"\x",MID(D45,4,2))</f>
+        <f t="shared" si="4"/>
         <v>\xc3\x94</v>
       </c>
       <c r="I45" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A45,"() throws Exception { verify( (char) ",A45, ", """,C45,"""); }")</f>
+        <f t="shared" si="5"/>
         <v>@Test public void testConvert_212() throws Exception { verify( (char) 212, "Ô"); }</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46">
-        <f>HEX2DEC(MID(B46,3,4))</f>
+        <f t="shared" si="3"/>
         <v>211</v>
       </c>
       <c r="B46" t="s">
@@ -8584,17 +8575,17 @@
         <v>694</v>
       </c>
       <c r="G46" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D46,2),"\x",MID(D46,4,2))</f>
+        <f t="shared" si="4"/>
         <v>\xc3\x93</v>
       </c>
       <c r="I46" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A46,"() throws Exception { verify( (char) ",A46, ", """,C46,"""); }")</f>
+        <f t="shared" si="5"/>
         <v>@Test public void testConvert_211() throws Exception { verify( (char) 211, "Ó"); }</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47">
-        <f>HEX2DEC(MID(B47,3,4))</f>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="B47" t="s">
@@ -8613,17 +8604,17 @@
         <v>890</v>
       </c>
       <c r="G47" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D47,2),"\x",MID(D47,4,2))</f>
+        <f t="shared" si="4"/>
         <v>\xc3\x92</v>
       </c>
       <c r="I47" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A47,"() throws Exception { verify( (char) ",A47, ", """,C47,"""); }")</f>
+        <f t="shared" si="5"/>
         <v>@Test public void testConvert_210() throws Exception { verify( (char) 210, "Ò"); }</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48">
-        <f>HEX2DEC(MID(B48,3,4))</f>
+        <f t="shared" si="3"/>
         <v>209</v>
       </c>
       <c r="B48" t="s">
@@ -8639,17 +8630,17 @@
         <v>687</v>
       </c>
       <c r="G48" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D48,2),"\x",MID(D48,4,2))</f>
+        <f t="shared" si="4"/>
         <v>\xc3\x91</v>
       </c>
       <c r="I48" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A48,"() throws Exception { verify( (char) ",A48, ", """,C48,"""); }")</f>
+        <f t="shared" si="5"/>
         <v>@Test public void testConvert_209() throws Exception { verify( (char) 209, "Ñ"); }</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49">
-        <f>HEX2DEC(MID(B49,3,4))</f>
+        <f t="shared" si="3"/>
         <v>208</v>
       </c>
       <c r="B49" t="s">
@@ -8668,17 +8659,17 @@
         <v>891</v>
       </c>
       <c r="G49" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D49,2),"\x",MID(D49,4,2))</f>
+        <f t="shared" si="4"/>
         <v>\xc3\x90</v>
       </c>
       <c r="I49" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A49,"() throws Exception { verify( (char) ",A49, ", """,C49,"""); }")</f>
+        <f t="shared" si="5"/>
         <v>@Test public void testConvert_208() throws Exception { verify( (char) 208, "Ð"); }</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50">
-        <f>HEX2DEC(MID(B50,3,4))</f>
+        <f t="shared" si="3"/>
         <v>207</v>
       </c>
       <c r="B50" t="s">
@@ -8694,17 +8685,17 @@
         <v>681</v>
       </c>
       <c r="G50" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D50,2),"\x",MID(D50,4,2))</f>
+        <f t="shared" si="4"/>
         <v>\xc3\x8f</v>
       </c>
       <c r="I50" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A50,"() throws Exception { verify( (char) ",A50, ", """,C50,"""); }")</f>
+        <f t="shared" si="5"/>
         <v>@Test public void testConvert_207() throws Exception { verify( (char) 207, "Ï"); }</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51">
-        <f>HEX2DEC(MID(B51,3,4))</f>
+        <f t="shared" si="3"/>
         <v>206</v>
       </c>
       <c r="B51" t="s">
@@ -8720,17 +8711,17 @@
         <v>678</v>
       </c>
       <c r="G51" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D51,2),"\x",MID(D51,4,2))</f>
+        <f t="shared" si="4"/>
         <v>\xc3\x8e</v>
       </c>
       <c r="I51" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A51,"() throws Exception { verify( (char) ",A51, ", """,C51,"""); }")</f>
+        <f t="shared" si="5"/>
         <v>@Test public void testConvert_206() throws Exception { verify( (char) 206, "Î"); }</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52">
-        <f>HEX2DEC(MID(B52,3,4))</f>
+        <f t="shared" si="3"/>
         <v>205</v>
       </c>
       <c r="B52" t="s">
@@ -8749,17 +8740,17 @@
         <v>892</v>
       </c>
       <c r="G52" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D52,2),"\x",MID(D52,4,2))</f>
+        <f t="shared" si="4"/>
         <v>\xc3\x8d</v>
       </c>
       <c r="I52" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A52,"() throws Exception { verify( (char) ",A52, ", """,C52,"""); }")</f>
+        <f t="shared" si="5"/>
         <v>@Test public void testConvert_205() throws Exception { verify( (char) 205, "Í"); }</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53">
-        <f>HEX2DEC(MID(B53,3,4))</f>
+        <f t="shared" si="3"/>
         <v>204</v>
       </c>
       <c r="B53" t="s">
@@ -8775,17 +8766,17 @@
         <v>670</v>
       </c>
       <c r="G53" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D53,2),"\x",MID(D53,4,2))</f>
+        <f t="shared" si="4"/>
         <v>\xc3\x8c</v>
       </c>
       <c r="I53" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A53,"() throws Exception { verify( (char) ",A53, ", """,C53,"""); }")</f>
+        <f t="shared" si="5"/>
         <v>@Test public void testConvert_204() throws Exception { verify( (char) 204, "Ì"); }</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54">
-        <f>HEX2DEC(MID(B54,3,4))</f>
+        <f t="shared" si="3"/>
         <v>203</v>
       </c>
       <c r="B54" t="s">
@@ -8801,17 +8792,17 @@
         <v>667</v>
       </c>
       <c r="G54" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D54,2),"\x",MID(D54,4,2))</f>
+        <f t="shared" si="4"/>
         <v>\xc3\x8b</v>
       </c>
       <c r="I54" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A54,"() throws Exception { verify( (char) ",A54, ", """,C54,"""); }")</f>
+        <f t="shared" si="5"/>
         <v>@Test public void testConvert_203() throws Exception { verify( (char) 203, "Ë"); }</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55">
-        <f>HEX2DEC(MID(B55,3,4))</f>
+        <f t="shared" si="3"/>
         <v>202</v>
       </c>
       <c r="B55" t="s">
@@ -8827,17 +8818,17 @@
         <v>664</v>
       </c>
       <c r="G55" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D55,2),"\x",MID(D55,4,2))</f>
+        <f t="shared" si="4"/>
         <v>\xc3\x8a</v>
       </c>
       <c r="I55" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A55,"() throws Exception { verify( (char) ",A55, ", """,C55,"""); }")</f>
+        <f t="shared" si="5"/>
         <v>@Test public void testConvert_202() throws Exception { verify( (char) 202, "Ê"); }</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56">
-        <f>HEX2DEC(MID(B56,3,4))</f>
+        <f t="shared" si="3"/>
         <v>201</v>
       </c>
       <c r="B56" t="s">
@@ -8853,17 +8844,17 @@
         <v>660</v>
       </c>
       <c r="G56" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D56,2),"\x",MID(D56,4,2))</f>
+        <f t="shared" si="4"/>
         <v>\xc3\x89</v>
       </c>
       <c r="I56" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A56,"() throws Exception { verify( (char) ",A56, ", """,C56,"""); }")</f>
+        <f t="shared" si="5"/>
         <v>@Test public void testConvert_201() throws Exception { verify( (char) 201, "É"); }</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57">
-        <f>HEX2DEC(MID(B57,3,4))</f>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="B57" t="s">
@@ -8879,17 +8870,17 @@
         <v>657</v>
       </c>
       <c r="G57" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D57,2),"\x",MID(D57,4,2))</f>
+        <f t="shared" si="4"/>
         <v>\xc3\x88</v>
       </c>
       <c r="I57" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A57,"() throws Exception { verify( (char) ",A57, ", """,C57,"""); }")</f>
+        <f t="shared" si="5"/>
         <v>@Test public void testConvert_200() throws Exception { verify( (char) 200, "È"); }</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58">
-        <f>HEX2DEC(MID(B58,3,4))</f>
+        <f t="shared" si="3"/>
         <v>199</v>
       </c>
       <c r="B58" t="s">
@@ -8905,17 +8896,17 @@
         <v>654</v>
       </c>
       <c r="G58" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D58,2),"\x",MID(D58,4,2))</f>
+        <f t="shared" si="4"/>
         <v>\xc3\x87</v>
       </c>
       <c r="I58" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A58,"() throws Exception { verify( (char) ",A58, ", """,C58,"""); }")</f>
+        <f t="shared" si="5"/>
         <v>@Test public void testConvert_199() throws Exception { verify( (char) 199, "Ç"); }</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59">
-        <f>HEX2DEC(MID(B59,3,4))</f>
+        <f t="shared" si="3"/>
         <v>198</v>
       </c>
       <c r="B59" t="s">
@@ -8931,17 +8922,17 @@
         <v>651</v>
       </c>
       <c r="G59" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D59,2),"\x",MID(D59,4,2))</f>
+        <f t="shared" si="4"/>
         <v>\xc3\x86</v>
       </c>
       <c r="I59" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A59,"() throws Exception { verify( (char) ",A59, ", """,C59,"""); }")</f>
+        <f t="shared" si="5"/>
         <v>@Test public void testConvert_198() throws Exception { verify( (char) 198, "Æ"); }</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60">
-        <f>HEX2DEC(MID(B60,3,4))</f>
+        <f t="shared" si="3"/>
         <v>197</v>
       </c>
       <c r="B60" t="s">
@@ -8957,17 +8948,17 @@
         <v>647</v>
       </c>
       <c r="G60" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D60,2),"\x",MID(D60,4,2))</f>
+        <f t="shared" si="4"/>
         <v>\xc3\x85</v>
       </c>
       <c r="I60" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A60,"() throws Exception { verify( (char) ",A60, ", """,C60,"""); }")</f>
+        <f t="shared" si="5"/>
         <v>@Test public void testConvert_197() throws Exception { verify( (char) 197, "Å"); }</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61">
-        <f>HEX2DEC(MID(B61,3,4))</f>
+        <f t="shared" si="3"/>
         <v>196</v>
       </c>
       <c r="B61" t="s">
@@ -8983,17 +8974,17 @@
         <v>644</v>
       </c>
       <c r="G61" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D61,2),"\x",MID(D61,4,2))</f>
+        <f t="shared" si="4"/>
         <v>\xc3\x84</v>
       </c>
       <c r="I61" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A61,"() throws Exception { verify( (char) ",A61, ", """,C61,"""); }")</f>
+        <f t="shared" si="5"/>
         <v>@Test public void testConvert_196() throws Exception { verify( (char) 196, "Ä"); }</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62">
-        <f>HEX2DEC(MID(B62,3,4))</f>
+        <f t="shared" si="3"/>
         <v>195</v>
       </c>
       <c r="B62" t="s">
@@ -9009,17 +9000,17 @@
         <v>641</v>
       </c>
       <c r="G62" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D62,2),"\x",MID(D62,4,2))</f>
+        <f t="shared" si="4"/>
         <v>\xc3\x83</v>
       </c>
       <c r="I62" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A62,"() throws Exception { verify( (char) ",A62, ", """,C62,"""); }")</f>
+        <f t="shared" si="5"/>
         <v>@Test public void testConvert_195() throws Exception { verify( (char) 195, "Ã"); }</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63">
-        <f>HEX2DEC(MID(B63,3,4))</f>
+        <f t="shared" si="3"/>
         <v>194</v>
       </c>
       <c r="B63" t="s">
@@ -9035,17 +9026,17 @@
         <v>637</v>
       </c>
       <c r="G63" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D63,2),"\x",MID(D63,4,2))</f>
+        <f t="shared" si="4"/>
         <v>\xc3\x82</v>
       </c>
       <c r="I63" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A63,"() throws Exception { verify( (char) ",A63, ", """,C63,"""); }")</f>
+        <f t="shared" si="5"/>
         <v>@Test public void testConvert_194() throws Exception { verify( (char) 194, "Â"); }</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64">
-        <f>HEX2DEC(MID(B64,3,4))</f>
+        <f t="shared" si="3"/>
         <v>193</v>
       </c>
       <c r="B64" t="s">
@@ -9061,17 +9052,17 @@
         <v>633</v>
       </c>
       <c r="G64" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D64,2),"\x",MID(D64,4,2))</f>
+        <f t="shared" si="4"/>
         <v>\xc3\x81</v>
       </c>
       <c r="I64" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A64,"() throws Exception { verify( (char) ",A64, ", """,C64,"""); }")</f>
+        <f t="shared" si="5"/>
         <v>@Test public void testConvert_193() throws Exception { verify( (char) 193, "Á"); }</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65">
-        <f>HEX2DEC(MID(B65,3,4))</f>
+        <f t="shared" si="3"/>
         <v>192</v>
       </c>
       <c r="B65" t="s">
@@ -9087,17 +9078,17 @@
         <v>629</v>
       </c>
       <c r="G65" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D65,2),"\x",MID(D65,4,2))</f>
+        <f t="shared" si="4"/>
         <v>\xc3\x80</v>
       </c>
       <c r="I65" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A65,"() throws Exception { verify( (char) ",A65, ", """,C65,"""); }")</f>
+        <f t="shared" si="5"/>
         <v>@Test public void testConvert_192() throws Exception { verify( (char) 192, "À"); }</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66">
-        <f>HEX2DEC(MID(B66,3,4))</f>
+        <f t="shared" ref="A66:A97" si="6">HEX2DEC(MID(B66,3,4))</f>
         <v>191</v>
       </c>
       <c r="B66" t="s">
@@ -9113,17 +9104,17 @@
         <v>626</v>
       </c>
       <c r="G66" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D66,2),"\x",MID(D66,4,2))</f>
+        <f t="shared" ref="G66:G97" si="7">CONCATENATE("\x",LEFT(D66,2),"\x",MID(D66,4,2))</f>
         <v>\xc2\xbf</v>
       </c>
       <c r="I66" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A66,"() throws Exception { verify( (char) ",A66, ", """,C66,"""); }")</f>
+        <f t="shared" ref="I66:I97" si="8">CONCATENATE("@Test public void testConvert_",A66,"() throws Exception { verify( (char) ",A66, ", """,C66,"""); }")</f>
         <v>@Test public void testConvert_191() throws Exception { verify( (char) 191, "¿"); }</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67">
-        <f>HEX2DEC(MID(B67,3,4))</f>
+        <f t="shared" si="6"/>
         <v>190</v>
       </c>
       <c r="B67" t="s">
@@ -9139,17 +9130,17 @@
         <v>622</v>
       </c>
       <c r="G67" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D67,2),"\x",MID(D67,4,2))</f>
+        <f t="shared" si="7"/>
         <v>\xc2\xbe</v>
       </c>
       <c r="I67" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A67,"() throws Exception { verify( (char) ",A67, ", """,C67,"""); }")</f>
+        <f t="shared" si="8"/>
         <v>@Test public void testConvert_190() throws Exception { verify( (char) 190, "¾"); }</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68">
-        <f>HEX2DEC(MID(B68,3,4))</f>
+        <f t="shared" si="6"/>
         <v>189</v>
       </c>
       <c r="B68" t="s">
@@ -9165,17 +9156,17 @@
         <v>618</v>
       </c>
       <c r="G68" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D68,2),"\x",MID(D68,4,2))</f>
+        <f t="shared" si="7"/>
         <v>\xc2\xbd</v>
       </c>
       <c r="I68" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A68,"() throws Exception { verify( (char) ",A68, ", """,C68,"""); }")</f>
+        <f t="shared" si="8"/>
         <v>@Test public void testConvert_189() throws Exception { verify( (char) 189, "½"); }</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69">
-        <f>HEX2DEC(MID(B69,3,4))</f>
+        <f t="shared" si="6"/>
         <v>188</v>
       </c>
       <c r="B69" t="s">
@@ -9191,17 +9182,17 @@
         <v>614</v>
       </c>
       <c r="G69" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D69,2),"\x",MID(D69,4,2))</f>
+        <f t="shared" si="7"/>
         <v>\xc2\xbc</v>
       </c>
       <c r="I69" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A69,"() throws Exception { verify( (char) ",A69, ", """,C69,"""); }")</f>
+        <f t="shared" si="8"/>
         <v>@Test public void testConvert_188() throws Exception { verify( (char) 188, "¼"); }</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70">
-        <f>HEX2DEC(MID(B70,3,4))</f>
+        <f t="shared" si="6"/>
         <v>187</v>
       </c>
       <c r="B70" t="s">
@@ -9217,17 +9208,17 @@
         <v>610</v>
       </c>
       <c r="G70" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D70,2),"\x",MID(D70,4,2))</f>
+        <f t="shared" si="7"/>
         <v>\xc2\xbb</v>
       </c>
       <c r="I70" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A70,"() throws Exception { verify( (char) ",A70, ", """,C70,"""); }")</f>
+        <f t="shared" si="8"/>
         <v>@Test public void testConvert_187() throws Exception { verify( (char) 187, "»"); }</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71">
-        <f>HEX2DEC(MID(B71,3,4))</f>
+        <f t="shared" si="6"/>
         <v>186</v>
       </c>
       <c r="B71" t="s">
@@ -9243,17 +9234,17 @@
         <v>606</v>
       </c>
       <c r="G71" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D71,2),"\x",MID(D71,4,2))</f>
+        <f t="shared" si="7"/>
         <v>\xc2\xba</v>
       </c>
       <c r="I71" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A71,"() throws Exception { verify( (char) ",A71, ", """,C71,"""); }")</f>
+        <f t="shared" si="8"/>
         <v>@Test public void testConvert_186() throws Exception { verify( (char) 186, "º"); }</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72">
-        <f>HEX2DEC(MID(B72,3,4))</f>
+        <f t="shared" si="6"/>
         <v>185</v>
       </c>
       <c r="B72" t="s">
@@ -9269,17 +9260,17 @@
         <v>602</v>
       </c>
       <c r="G72" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D72,2),"\x",MID(D72,4,2))</f>
+        <f t="shared" si="7"/>
         <v>\xc2\xb9</v>
       </c>
       <c r="I72" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A72,"() throws Exception { verify( (char) ",A72, ", """,C72,"""); }")</f>
+        <f t="shared" si="8"/>
         <v>@Test public void testConvert_185() throws Exception { verify( (char) 185, "¹"); }</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73">
-        <f>HEX2DEC(MID(B73,3,4))</f>
+        <f t="shared" si="6"/>
         <v>184</v>
       </c>
       <c r="B73" t="s">
@@ -9295,17 +9286,17 @@
         <v>598</v>
       </c>
       <c r="G73" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D73,2),"\x",MID(D73,4,2))</f>
+        <f t="shared" si="7"/>
         <v>\xc2\xb8</v>
       </c>
       <c r="I73" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A73,"() throws Exception { verify( (char) ",A73, ", """,C73,"""); }")</f>
+        <f t="shared" si="8"/>
         <v>@Test public void testConvert_184() throws Exception { verify( (char) 184, "¸"); }</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74">
-        <f>HEX2DEC(MID(B74,3,4))</f>
+        <f t="shared" si="6"/>
         <v>183</v>
       </c>
       <c r="B74" t="s">
@@ -9324,20 +9315,20 @@
         <v>878</v>
       </c>
       <c r="G74" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D74,2),"\x",MID(D74,4,2))</f>
+        <f t="shared" si="7"/>
         <v>\xc2\xb7</v>
       </c>
       <c r="H74" t="s">
         <v>851</v>
       </c>
       <c r="I74" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A74,"() throws Exception { verify( (char) ",A74, ", """,C74,"""); }")</f>
+        <f t="shared" si="8"/>
         <v>@Test public void testConvert_183() throws Exception { verify( (char) 183, "·"); }</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75">
-        <f>HEX2DEC(MID(B75,3,4))</f>
+        <f t="shared" si="6"/>
         <v>182</v>
       </c>
       <c r="B75" t="s">
@@ -9353,17 +9344,17 @@
         <v>590</v>
       </c>
       <c r="G75" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D75,2),"\x",MID(D75,4,2))</f>
+        <f t="shared" si="7"/>
         <v>\xc2\xb6</v>
       </c>
       <c r="I75" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A75,"() throws Exception { verify( (char) ",A75, ", """,C75,"""); }")</f>
+        <f t="shared" si="8"/>
         <v>@Test public void testConvert_182() throws Exception { verify( (char) 182, "¶"); }</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76">
-        <f>HEX2DEC(MID(B76,3,4))</f>
+        <f t="shared" si="6"/>
         <v>181</v>
       </c>
       <c r="B76" t="s">
@@ -9379,17 +9370,17 @@
         <v>586</v>
       </c>
       <c r="G76" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D76,2),"\x",MID(D76,4,2))</f>
+        <f t="shared" si="7"/>
         <v>\xc2\xb5</v>
       </c>
       <c r="I76" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A76,"() throws Exception { verify( (char) ",A76, ", """,C76,"""); }")</f>
+        <f t="shared" si="8"/>
         <v>@Test public void testConvert_181() throws Exception { verify( (char) 181, "µ"); }</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77">
-        <f>HEX2DEC(MID(B77,3,4))</f>
+        <f t="shared" si="6"/>
         <v>180</v>
       </c>
       <c r="B77" t="s">
@@ -9405,17 +9396,17 @@
         <v>582</v>
       </c>
       <c r="G77" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D77,2),"\x",MID(D77,4,2))</f>
+        <f t="shared" si="7"/>
         <v>\xc2\xb4</v>
       </c>
       <c r="I77" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A77,"() throws Exception { verify( (char) ",A77, ", """,C77,"""); }")</f>
+        <f t="shared" si="8"/>
         <v>@Test public void testConvert_180() throws Exception { verify( (char) 180, "´"); }</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78">
-        <f>HEX2DEC(MID(B78,3,4))</f>
+        <f t="shared" si="6"/>
         <v>179</v>
       </c>
       <c r="B78" t="s">
@@ -9431,17 +9422,17 @@
         <v>578</v>
       </c>
       <c r="G78" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D78,2),"\x",MID(D78,4,2))</f>
+        <f t="shared" si="7"/>
         <v>\xc2\xb3</v>
       </c>
       <c r="I78" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A78,"() throws Exception { verify( (char) ",A78, ", """,C78,"""); }")</f>
+        <f t="shared" si="8"/>
         <v>@Test public void testConvert_179() throws Exception { verify( (char) 179, "³"); }</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79">
-        <f>HEX2DEC(MID(B79,3,4))</f>
+        <f t="shared" si="6"/>
         <v>178</v>
       </c>
       <c r="B79" t="s">
@@ -9460,17 +9451,17 @@
         <v>893</v>
       </c>
       <c r="G79" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D79,2),"\x",MID(D79,4,2))</f>
+        <f t="shared" si="7"/>
         <v>\xc2\xb2</v>
       </c>
       <c r="I79" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A79,"() throws Exception { verify( (char) ",A79, ", """,C79,"""); }")</f>
+        <f t="shared" si="8"/>
         <v>@Test public void testConvert_178() throws Exception { verify( (char) 178, "²"); }</v>
       </c>
     </row>
     <row r="80" spans="1:9" s="18" customFormat="1">
       <c r="A80">
-        <f>HEX2DEC(MID(B80,3,4))</f>
+        <f t="shared" si="6"/>
         <v>177</v>
       </c>
       <c r="B80" t="s">
@@ -9489,18 +9480,18 @@
         <v>894</v>
       </c>
       <c r="G80" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D80,2),"\x",MID(D80,4,2))</f>
+        <f t="shared" si="7"/>
         <v>\xc2\xb1</v>
       </c>
       <c r="H80"/>
       <c r="I80" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A80,"() throws Exception { verify( (char) ",A80, ", """,C80,"""); }")</f>
+        <f t="shared" si="8"/>
         <v>@Test public void testConvert_177() throws Exception { verify( (char) 177, "±"); }</v>
       </c>
     </row>
     <row r="81" spans="1:9" s="18" customFormat="1">
       <c r="A81">
-        <f>HEX2DEC(MID(B81,3,4))</f>
+        <f t="shared" si="6"/>
         <v>176</v>
       </c>
       <c r="B81" t="s">
@@ -9519,18 +9510,18 @@
         <v>895</v>
       </c>
       <c r="G81" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D81,2),"\x",MID(D81,4,2))</f>
+        <f t="shared" si="7"/>
         <v>\xc2\xb0</v>
       </c>
       <c r="H81"/>
       <c r="I81" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A81,"() throws Exception { verify( (char) ",A81, ", """,C81,"""); }")</f>
+        <f t="shared" si="8"/>
         <v>@Test public void testConvert_176() throws Exception { verify( (char) 176, "°"); }</v>
       </c>
     </row>
     <row r="82" spans="1:9" s="18" customFormat="1">
       <c r="A82">
-        <f>HEX2DEC(MID(B82,3,4))</f>
+        <f t="shared" si="6"/>
         <v>175</v>
       </c>
       <c r="B82" t="s">
@@ -9547,18 +9538,18 @@
       </c>
       <c r="F82"/>
       <c r="G82" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D82,2),"\x",MID(D82,4,2))</f>
+        <f t="shared" si="7"/>
         <v>\xc2\xaf</v>
       </c>
       <c r="H82"/>
       <c r="I82" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A82,"() throws Exception { verify( (char) ",A82, ", """,C82,"""); }")</f>
+        <f t="shared" si="8"/>
         <v>@Test public void testConvert_175() throws Exception { verify( (char) 175, "¯"); }</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83">
-        <f>HEX2DEC(MID(B83,3,4))</f>
+        <f t="shared" si="6"/>
         <v>174</v>
       </c>
       <c r="B83" t="s">
@@ -9574,17 +9565,17 @@
         <v>558</v>
       </c>
       <c r="G83" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D83,2),"\x",MID(D83,4,2))</f>
+        <f t="shared" si="7"/>
         <v>\xc2\xae</v>
       </c>
       <c r="I83" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A83,"() throws Exception { verify( (char) ",A83, ", """,C83,"""); }")</f>
+        <f t="shared" si="8"/>
         <v>@Test public void testConvert_174() throws Exception { verify( (char) 174, "®"); }</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84">
-        <f>HEX2DEC(MID(B84,3,4))</f>
+        <f t="shared" si="6"/>
         <v>173</v>
       </c>
       <c r="B84" s="20" t="s">
@@ -9601,20 +9592,20 @@
         <v>879</v>
       </c>
       <c r="G84" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D84,2),"\x",MID(D84,4,2))</f>
+        <f t="shared" si="7"/>
         <v>\xc2\xad</v>
       </c>
       <c r="H84" t="s">
         <v>851</v>
       </c>
       <c r="I84" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A84,"() throws Exception { verify( (char) ",A84, ", """,C84,"""); }")</f>
+        <f t="shared" si="8"/>
         <v>@Test public void testConvert_173() throws Exception { verify( (char) 173, ""); }</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85">
-        <f>HEX2DEC(MID(B85,3,4))</f>
+        <f t="shared" si="6"/>
         <v>172</v>
       </c>
       <c r="B85" t="s">
@@ -9630,17 +9621,17 @@
         <v>551</v>
       </c>
       <c r="G85" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D85,2),"\x",MID(D85,4,2))</f>
+        <f t="shared" si="7"/>
         <v>\xc2\xac</v>
       </c>
       <c r="I85" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A85,"() throws Exception { verify( (char) ",A85, ", """,C85,"""); }")</f>
+        <f t="shared" si="8"/>
         <v>@Test public void testConvert_172() throws Exception { verify( (char) 172, "¬"); }</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86">
-        <f>HEX2DEC(MID(B86,3,4))</f>
+        <f t="shared" si="6"/>
         <v>171</v>
       </c>
       <c r="B86" t="s">
@@ -9656,17 +9647,17 @@
         <v>547</v>
       </c>
       <c r="G86" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D86,2),"\x",MID(D86,4,2))</f>
+        <f t="shared" si="7"/>
         <v>\xc2\xab</v>
       </c>
       <c r="I86" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A86,"() throws Exception { verify( (char) ",A86, ", """,C86,"""); }")</f>
+        <f t="shared" si="8"/>
         <v>@Test public void testConvert_171() throws Exception { verify( (char) 171, "«"); }</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87">
-        <f>HEX2DEC(MID(B87,3,4))</f>
+        <f t="shared" si="6"/>
         <v>170</v>
       </c>
       <c r="B87" t="s">
@@ -9682,17 +9673,17 @@
         <v>543</v>
       </c>
       <c r="G87" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D87,2),"\x",MID(D87,4,2))</f>
+        <f t="shared" si="7"/>
         <v>\xc2\xaa</v>
       </c>
       <c r="I87" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A87,"() throws Exception { verify( (char) ",A87, ", """,C87,"""); }")</f>
+        <f t="shared" si="8"/>
         <v>@Test public void testConvert_170() throws Exception { verify( (char) 170, "ª"); }</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88">
-        <f>HEX2DEC(MID(B88,3,4))</f>
+        <f t="shared" si="6"/>
         <v>169</v>
       </c>
       <c r="B88" t="s">
@@ -9711,17 +9702,17 @@
         <v>880</v>
       </c>
       <c r="G88" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D88,2),"\x",MID(D88,4,2))</f>
+        <f t="shared" si="7"/>
         <v>\xc2\xa9</v>
       </c>
       <c r="I88" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A88,"() throws Exception { verify( (char) ",A88, ", """,C88,"""); }")</f>
+        <f t="shared" si="8"/>
         <v>@Test public void testConvert_169() throws Exception { verify( (char) 169, "©"); }</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89">
-        <f>HEX2DEC(MID(B89,3,4))</f>
+        <f t="shared" si="6"/>
         <v>168</v>
       </c>
       <c r="B89" t="s">
@@ -9740,17 +9731,17 @@
         <v>881</v>
       </c>
       <c r="G89" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D89,2),"\x",MID(D89,4,2))</f>
+        <f t="shared" si="7"/>
         <v>\xc2\xa8</v>
       </c>
       <c r="I89" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A89,"() throws Exception { verify( (char) ",A89, ", """,C89,"""); }")</f>
+        <f t="shared" si="8"/>
         <v>@Test public void testConvert_168() throws Exception { verify( (char) 168, "¨"); }</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90">
-        <f>HEX2DEC(MID(B90,3,4))</f>
+        <f t="shared" si="6"/>
         <v>167</v>
       </c>
       <c r="B90" t="s">
@@ -9766,17 +9757,17 @@
         <v>531</v>
       </c>
       <c r="G90" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D90,2),"\x",MID(D90,4,2))</f>
+        <f t="shared" si="7"/>
         <v>\xc2\xa7</v>
       </c>
       <c r="I90" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A90,"() throws Exception { verify( (char) ",A90, ", """,C90,"""); }")</f>
+        <f t="shared" si="8"/>
         <v>@Test public void testConvert_167() throws Exception { verify( (char) 167, "§"); }</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91">
-        <f>HEX2DEC(MID(B91,3,4))</f>
+        <f t="shared" si="6"/>
         <v>166</v>
       </c>
       <c r="B91" t="s">
@@ -9792,17 +9783,17 @@
         <v>527</v>
       </c>
       <c r="G91" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D91,2),"\x",MID(D91,4,2))</f>
+        <f t="shared" si="7"/>
         <v>\xc2\xa6</v>
       </c>
       <c r="I91" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A91,"() throws Exception { verify( (char) ",A91, ", """,C91,"""); }")</f>
+        <f t="shared" si="8"/>
         <v>@Test public void testConvert_166() throws Exception { verify( (char) 166, "¦"); }</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92">
-        <f>HEX2DEC(MID(B92,3,4))</f>
+        <f t="shared" si="6"/>
         <v>165</v>
       </c>
       <c r="B92" t="s">
@@ -9818,17 +9809,17 @@
         <v>523</v>
       </c>
       <c r="G92" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D92,2),"\x",MID(D92,4,2))</f>
+        <f t="shared" si="7"/>
         <v>\xc2\xa5</v>
       </c>
       <c r="I92" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A92,"() throws Exception { verify( (char) ",A92, ", """,C92,"""); }")</f>
+        <f t="shared" si="8"/>
         <v>@Test public void testConvert_165() throws Exception { verify( (char) 165, "¥"); }</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93">
-        <f>HEX2DEC(MID(B93,3,4))</f>
+        <f t="shared" si="6"/>
         <v>164</v>
       </c>
       <c r="B93" t="s">
@@ -9844,17 +9835,17 @@
         <v>519</v>
       </c>
       <c r="G93" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D93,2),"\x",MID(D93,4,2))</f>
+        <f t="shared" si="7"/>
         <v>\xc2\xa4</v>
       </c>
       <c r="I93" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A93,"() throws Exception { verify( (char) ",A93, ", """,C93,"""); }")</f>
+        <f t="shared" si="8"/>
         <v>@Test public void testConvert_164() throws Exception { verify( (char) 164, "¤"); }</v>
       </c>
     </row>
     <row r="94" spans="1:9" s="18" customFormat="1">
       <c r="A94">
-        <f>HEX2DEC(MID(B94,3,4))</f>
+        <f t="shared" si="6"/>
         <v>163</v>
       </c>
       <c r="B94" t="s">
@@ -9871,18 +9862,18 @@
       </c>
       <c r="F94"/>
       <c r="G94" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D94,2),"\x",MID(D94,4,2))</f>
+        <f t="shared" si="7"/>
         <v>\xc2\xa3</v>
       </c>
       <c r="H94"/>
       <c r="I94" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A94,"() throws Exception { verify( (char) ",A94, ", """,C94,"""); }")</f>
+        <f t="shared" si="8"/>
         <v>@Test public void testConvert_163() throws Exception { verify( (char) 163, "£"); }</v>
       </c>
     </row>
     <row r="95" spans="1:9" s="18" customFormat="1">
       <c r="A95">
-        <f>HEX2DEC(MID(B95,3,4))</f>
+        <f t="shared" si="6"/>
         <v>162</v>
       </c>
       <c r="B95" t="s">
@@ -9899,18 +9890,18 @@
       </c>
       <c r="F95"/>
       <c r="G95" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D95,2),"\x",MID(D95,4,2))</f>
+        <f t="shared" si="7"/>
         <v>\xc2\xa2</v>
       </c>
       <c r="H95"/>
       <c r="I95" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A95,"() throws Exception { verify( (char) ",A95, ", """,C95,"""); }")</f>
+        <f t="shared" si="8"/>
         <v>@Test public void testConvert_162() throws Exception { verify( (char) 162, "¢"); }</v>
       </c>
     </row>
     <row r="96" spans="1:9" s="18" customFormat="1">
       <c r="A96">
-        <f>HEX2DEC(MID(B96,3,4))</f>
+        <f t="shared" si="6"/>
         <v>161</v>
       </c>
       <c r="B96" t="s">
@@ -9929,18 +9920,18 @@
         <v>882</v>
       </c>
       <c r="G96" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D96,2),"\x",MID(D96,4,2))</f>
+        <f t="shared" si="7"/>
         <v>\xc2\xa1</v>
       </c>
       <c r="H96"/>
       <c r="I96" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A96,"() throws Exception { verify( (char) ",A96, ", """,C96,"""); }")</f>
+        <f t="shared" si="8"/>
         <v>@Test public void testConvert_161() throws Exception { verify( (char) 161, "¡"); }</v>
       </c>
     </row>
     <row r="97" spans="1:9" s="18" customFormat="1">
       <c r="A97">
-        <f>HEX2DEC(MID(B97,3,4))</f>
+        <f t="shared" si="6"/>
         <v>160</v>
       </c>
       <c r="B97" t="s">
@@ -9955,18 +9946,18 @@
       </c>
       <c r="F97"/>
       <c r="G97" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D97,2),"\x",MID(D97,4,2))</f>
+        <f t="shared" si="7"/>
         <v>\xc2\xa0</v>
       </c>
       <c r="H97"/>
       <c r="I97" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A97,"() throws Exception { verify( (char) ",A97, ", """,C97,"""); }")</f>
+        <f t="shared" si="8"/>
         <v>@Test public void testConvert_160() throws Exception { verify( (char) 160, ""); }</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98">
-        <f>HEX2DEC(MID(B98,3,4))</f>
+        <f t="shared" ref="A98:A129" si="9">HEX2DEC(MID(B98,3,4))</f>
         <v>159</v>
       </c>
       <c r="B98" t="s">
@@ -9979,17 +9970,17 @@
         <v>181</v>
       </c>
       <c r="G98" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D98,2),"\x",MID(D98,4,2))</f>
+        <f t="shared" ref="G98:G121" si="10">CONCATENATE("\x",LEFT(D98,2),"\x",MID(D98,4,2))</f>
         <v>\xc2\x9f</v>
       </c>
-      <c r="I98" s="14" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A98,"() throws Exception { verify( (char) ",A98, ", """,C98,"""); }")</f>
+      <c r="I98" s="25" t="str">
+        <f t="shared" ref="I98:I121" si="11">CONCATENATE("@Test public void testConvert_",A98,"() throws Exception { verify( (char) ",A98, ", """,C98,"""); }")</f>
         <v>@Test public void testConvert_159() throws Exception { verify( (char) 159, ""); }</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99">
-        <f>HEX2DEC(MID(B99,3,4))</f>
+        <f t="shared" si="9"/>
         <v>156</v>
       </c>
       <c r="B99" t="s">
@@ -10002,17 +9993,17 @@
         <v>181</v>
       </c>
       <c r="G99" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D99,2),"\x",MID(D99,4,2))</f>
+        <f t="shared" si="10"/>
         <v>\xc2\x9c</v>
       </c>
       <c r="I99" s="14" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A99,"() throws Exception { verify( (char) ",A99, ", """,C99,"""); }")</f>
+        <f t="shared" si="11"/>
         <v>@Test public void testConvert_156() throws Exception { verify( (char) 156, ""); }</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100">
-        <f>HEX2DEC(MID(B100,3,4))</f>
+        <f t="shared" si="9"/>
         <v>155</v>
       </c>
       <c r="B100" t="s">
@@ -10025,17 +10016,17 @@
         <v>181</v>
       </c>
       <c r="G100" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D100,2),"\x",MID(D100,4,2))</f>
+        <f t="shared" si="10"/>
         <v>\xc2\x9b</v>
       </c>
       <c r="I100" s="14" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A100,"() throws Exception { verify( (char) ",A100, ", """,C100,"""); }")</f>
+        <f t="shared" si="11"/>
         <v>@Test public void testConvert_155() throws Exception { verify( (char) 155, ""); }</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101">
-        <f>HEX2DEC(MID(B101,3,4))</f>
+        <f t="shared" si="9"/>
         <v>154</v>
       </c>
       <c r="B101" t="s">
@@ -10048,17 +10039,17 @@
         <v>181</v>
       </c>
       <c r="G101" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D101,2),"\x",MID(D101,4,2))</f>
+        <f t="shared" si="10"/>
         <v>\xc2\x9a</v>
       </c>
       <c r="I101" s="14" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A101,"() throws Exception { verify( (char) ",A101, ", """,C101,"""); }")</f>
+        <f t="shared" si="11"/>
         <v>@Test public void testConvert_154() throws Exception { verify( (char) 154, ""); }</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102">
-        <f>HEX2DEC(MID(B102,3,4))</f>
+        <f t="shared" si="9"/>
         <v>153</v>
       </c>
       <c r="B102" t="s">
@@ -10071,17 +10062,17 @@
         <v>181</v>
       </c>
       <c r="G102" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D102,2),"\x",MID(D102,4,2))</f>
+        <f t="shared" si="10"/>
         <v>\xc2\x99</v>
       </c>
       <c r="I102" s="14" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A102,"() throws Exception { verify( (char) ",A102, ", """,C102,"""); }")</f>
+        <f t="shared" si="11"/>
         <v>@Test public void testConvert_153() throws Exception { verify( (char) 153, ""); }</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103">
-        <f>HEX2DEC(MID(B103,3,4))</f>
+        <f t="shared" si="9"/>
         <v>152</v>
       </c>
       <c r="B103" t="s">
@@ -10094,17 +10085,17 @@
         <v>181</v>
       </c>
       <c r="G103" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D103,2),"\x",MID(D103,4,2))</f>
+        <f t="shared" si="10"/>
         <v>\xc2\x98</v>
       </c>
       <c r="I103" s="14" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A103,"() throws Exception { verify( (char) ",A103, ", """,C103,"""); }")</f>
+        <f t="shared" si="11"/>
         <v>@Test public void testConvert_152() throws Exception { verify( (char) 152, ""); }</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104">
-        <f>HEX2DEC(MID(B104,3,4))</f>
+        <f t="shared" si="9"/>
         <v>151</v>
       </c>
       <c r="B104" t="s">
@@ -10117,17 +10108,17 @@
         <v>181</v>
       </c>
       <c r="G104" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D104,2),"\x",MID(D104,4,2))</f>
+        <f t="shared" si="10"/>
         <v>\xc2\x97</v>
       </c>
       <c r="I104" s="14" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A104,"() throws Exception { verify( (char) ",A104, ", """,C104,"""); }")</f>
+        <f t="shared" si="11"/>
         <v>@Test public void testConvert_151() throws Exception { verify( (char) 151, ""); }</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105">
-        <f>HEX2DEC(MID(B105,3,4))</f>
+        <f t="shared" si="9"/>
         <v>150</v>
       </c>
       <c r="B105" t="s">
@@ -10140,17 +10131,17 @@
         <v>181</v>
       </c>
       <c r="G105" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D105,2),"\x",MID(D105,4,2))</f>
+        <f t="shared" si="10"/>
         <v>\xc2\x96</v>
       </c>
       <c r="I105" s="14" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A105,"() throws Exception { verify( (char) ",A105, ", """,C105,"""); }")</f>
+        <f t="shared" si="11"/>
         <v>@Test public void testConvert_150() throws Exception { verify( (char) 150, ""); }</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106">
-        <f>HEX2DEC(MID(B106,3,4))</f>
+        <f t="shared" si="9"/>
         <v>149</v>
       </c>
       <c r="B106" t="s">
@@ -10163,17 +10154,17 @@
         <v>181</v>
       </c>
       <c r="G106" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D106,2),"\x",MID(D106,4,2))</f>
+        <f t="shared" si="10"/>
         <v>\xc2\x95</v>
       </c>
       <c r="I106" s="14" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A106,"() throws Exception { verify( (char) ",A106, ", """,C106,"""); }")</f>
+        <f t="shared" si="11"/>
         <v>@Test public void testConvert_149() throws Exception { verify( (char) 149, ""); }</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107">
-        <f>HEX2DEC(MID(B107,3,4))</f>
+        <f t="shared" si="9"/>
         <v>148</v>
       </c>
       <c r="B107" t="s">
@@ -10186,17 +10177,17 @@
         <v>181</v>
       </c>
       <c r="G107" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D107,2),"\x",MID(D107,4,2))</f>
+        <f t="shared" si="10"/>
         <v>\xc2\x94</v>
       </c>
       <c r="I107" s="14" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A107,"() throws Exception { verify( (char) ",A107, ", """,C107,"""); }")</f>
+        <f t="shared" si="11"/>
         <v>@Test public void testConvert_148() throws Exception { verify( (char) 148, ""); }</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108">
-        <f>HEX2DEC(MID(B108,3,4))</f>
+        <f t="shared" si="9"/>
         <v>147</v>
       </c>
       <c r="B108" t="s">
@@ -10209,17 +10200,17 @@
         <v>181</v>
       </c>
       <c r="G108" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D108,2),"\x",MID(D108,4,2))</f>
+        <f t="shared" si="10"/>
         <v>\xc2\x93</v>
       </c>
       <c r="I108" s="14" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A108,"() throws Exception { verify( (char) ",A108, ", """,C108,"""); }")</f>
+        <f t="shared" si="11"/>
         <v>@Test public void testConvert_147() throws Exception { verify( (char) 147, ""); }</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109">
-        <f>HEX2DEC(MID(B109,3,4))</f>
+        <f t="shared" si="9"/>
         <v>146</v>
       </c>
       <c r="B109" t="s">
@@ -10232,17 +10223,17 @@
         <v>181</v>
       </c>
       <c r="G109" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D109,2),"\x",MID(D109,4,2))</f>
+        <f t="shared" si="10"/>
         <v>\xc2\x92</v>
       </c>
       <c r="I109" s="14" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A109,"() throws Exception { verify( (char) ",A109, ", """,C109,"""); }")</f>
+        <f t="shared" si="11"/>
         <v>@Test public void testConvert_146() throws Exception { verify( (char) 146, ""); }</v>
       </c>
     </row>
     <row r="110" spans="1:9" s="18" customFormat="1">
       <c r="A110">
-        <f>HEX2DEC(MID(B110,3,4))</f>
+        <f t="shared" si="9"/>
         <v>145</v>
       </c>
       <c r="B110" t="s">
@@ -10257,18 +10248,18 @@
       </c>
       <c r="F110"/>
       <c r="G110" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D110,2),"\x",MID(D110,4,2))</f>
+        <f t="shared" si="10"/>
         <v>\xc2\x91</v>
       </c>
       <c r="H110"/>
       <c r="I110" s="14" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A110,"() throws Exception { verify( (char) ",A110, ", """,C110,"""); }")</f>
+        <f t="shared" si="11"/>
         <v>@Test public void testConvert_145() throws Exception { verify( (char) 145, ""); }</v>
       </c>
     </row>
     <row r="111" spans="1:9" s="18" customFormat="1">
       <c r="A111">
-        <f>HEX2DEC(MID(B111,3,4))</f>
+        <f t="shared" si="9"/>
         <v>140</v>
       </c>
       <c r="B111" t="s">
@@ -10283,18 +10274,18 @@
       </c>
       <c r="F111"/>
       <c r="G111" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D111,2),"\x",MID(D111,4,2))</f>
+        <f t="shared" si="10"/>
         <v>\xc2\x8c</v>
       </c>
       <c r="H111"/>
       <c r="I111" s="14" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A111,"() throws Exception { verify( (char) ",A111, ", """,C111,"""); }")</f>
+        <f t="shared" si="11"/>
         <v>@Test public void testConvert_140() throws Exception { verify( (char) 140, ""); }</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112">
-        <f>HEX2DEC(MID(B112,3,4))</f>
+        <f t="shared" si="9"/>
         <v>139</v>
       </c>
       <c r="B112" t="s">
@@ -10307,17 +10298,17 @@
         <v>181</v>
       </c>
       <c r="G112" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D112,2),"\x",MID(D112,4,2))</f>
+        <f t="shared" si="10"/>
         <v>\xc2\x8b</v>
       </c>
       <c r="I112" s="14" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A112,"() throws Exception { verify( (char) ",A112, ", """,C112,"""); }")</f>
+        <f t="shared" si="11"/>
         <v>@Test public void testConvert_139() throws Exception { verify( (char) 139, ""); }</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113">
-        <f>HEX2DEC(MID(B113,3,4))</f>
+        <f t="shared" si="9"/>
         <v>138</v>
       </c>
       <c r="B113" t="s">
@@ -10330,17 +10321,17 @@
         <v>181</v>
       </c>
       <c r="G113" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D113,2),"\x",MID(D113,4,2))</f>
+        <f t="shared" si="10"/>
         <v>\xc2\x8a</v>
       </c>
       <c r="I113" s="14" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A113,"() throws Exception { verify( (char) ",A113, ", """,C113,"""); }")</f>
+        <f t="shared" si="11"/>
         <v>@Test public void testConvert_138() throws Exception { verify( (char) 138, ""); }</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114">
-        <f>HEX2DEC(MID(B114,3,4))</f>
+        <f t="shared" si="9"/>
         <v>137</v>
       </c>
       <c r="B114" t="s">
@@ -10353,17 +10344,17 @@
         <v>181</v>
       </c>
       <c r="G114" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D114,2),"\x",MID(D114,4,2))</f>
+        <f t="shared" si="10"/>
         <v>\xc2\x89</v>
       </c>
       <c r="I114" s="14" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A114,"() throws Exception { verify( (char) ",A114, ", """,C114,"""); }")</f>
+        <f t="shared" si="11"/>
         <v>@Test public void testConvert_137() throws Exception { verify( (char) 137, ""); }</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115">
-        <f>HEX2DEC(MID(B115,3,4))</f>
+        <f t="shared" si="9"/>
         <v>136</v>
       </c>
       <c r="B115" t="s">
@@ -10376,17 +10367,17 @@
         <v>181</v>
       </c>
       <c r="G115" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D115,2),"\x",MID(D115,4,2))</f>
+        <f t="shared" si="10"/>
         <v>\xc2\x88</v>
       </c>
       <c r="I115" s="14" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A115,"() throws Exception { verify( (char) ",A115, ", """,C115,"""); }")</f>
+        <f t="shared" si="11"/>
         <v>@Test public void testConvert_136() throws Exception { verify( (char) 136, ""); }</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116">
-        <f>HEX2DEC(MID(B116,3,4))</f>
+        <f t="shared" si="9"/>
         <v>135</v>
       </c>
       <c r="B116" t="s">
@@ -10399,17 +10390,17 @@
         <v>181</v>
       </c>
       <c r="G116" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D116,2),"\x",MID(D116,4,2))</f>
+        <f t="shared" si="10"/>
         <v>\xc2\x87</v>
       </c>
       <c r="I116" s="14" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A116,"() throws Exception { verify( (char) ",A116, ", """,C116,"""); }")</f>
+        <f t="shared" si="11"/>
         <v>@Test public void testConvert_135() throws Exception { verify( (char) 135, ""); }</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117">
-        <f>HEX2DEC(MID(B117,3,4))</f>
+        <f t="shared" si="9"/>
         <v>134</v>
       </c>
       <c r="B117" t="s">
@@ -10422,17 +10413,17 @@
         <v>181</v>
       </c>
       <c r="G117" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D117,2),"\x",MID(D117,4,2))</f>
+        <f t="shared" si="10"/>
         <v>\xc2\x86</v>
       </c>
       <c r="I117" s="14" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A117,"() throws Exception { verify( (char) ",A117, ", """,C117,"""); }")</f>
+        <f t="shared" si="11"/>
         <v>@Test public void testConvert_134() throws Exception { verify( (char) 134, ""); }</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118">
-        <f>HEX2DEC(MID(B118,3,4))</f>
+        <f t="shared" si="9"/>
         <v>133</v>
       </c>
       <c r="B118" t="s">
@@ -10445,17 +10436,17 @@
         <v>181</v>
       </c>
       <c r="G118" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D118,2),"\x",MID(D118,4,2))</f>
+        <f t="shared" si="10"/>
         <v>\xc2\x85</v>
       </c>
       <c r="I118" s="14" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A118,"() throws Exception { verify( (char) ",A118, ", """,C118,"""); }")</f>
+        <f t="shared" si="11"/>
         <v>@Test public void testConvert_133() throws Exception { verify( (char) 133, ""); }</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119">
-        <f>HEX2DEC(MID(B119,3,4))</f>
+        <f t="shared" si="9"/>
         <v>132</v>
       </c>
       <c r="B119" t="s">
@@ -10468,17 +10459,17 @@
         <v>181</v>
       </c>
       <c r="G119" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D119,2),"\x",MID(D119,4,2))</f>
+        <f t="shared" si="10"/>
         <v>\xc2\x84</v>
       </c>
       <c r="I119" s="14" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A119,"() throws Exception { verify( (char) ",A119, ", """,C119,"""); }")</f>
+        <f t="shared" si="11"/>
         <v>@Test public void testConvert_132() throws Exception { verify( (char) 132, ""); }</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120">
-        <f>HEX2DEC(MID(B120,3,4))</f>
+        <f t="shared" si="9"/>
         <v>131</v>
       </c>
       <c r="B120" t="s">
@@ -10491,17 +10482,17 @@
         <v>181</v>
       </c>
       <c r="G120" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D120,2),"\x",MID(D120,4,2))</f>
+        <f t="shared" si="10"/>
         <v>\xc2\x83</v>
       </c>
       <c r="I120" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A120,"() throws Exception { verify( (char) ",A120, ", """,C120,"""); }")</f>
+        <f t="shared" si="11"/>
         <v>@Test public void testConvert_131() throws Exception { verify( (char) 131, ""); }</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121">
-        <f>HEX2DEC(MID(B121,3,4))</f>
+        <f t="shared" si="9"/>
         <v>130</v>
       </c>
       <c r="B121" t="s">
@@ -10514,11 +10505,11 @@
         <v>181</v>
       </c>
       <c r="G121" s="20" t="str">
-        <f>CONCATENATE("\x",LEFT(D121,2),"\x",MID(D121,4,2))</f>
+        <f t="shared" si="10"/>
         <v>\xc2\x82</v>
       </c>
       <c r="I121" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A121,"() throws Exception { verify( (char) ",A121, ", """,C121,"""); }")</f>
+        <f t="shared" si="11"/>
         <v>@Test public void testConvert_130() throws Exception { verify( (char) 130, ""); }</v>
       </c>
     </row>
@@ -10542,7 +10533,7 @@
     </row>
     <row r="125" spans="1:9">
       <c r="A125">
-        <f>HEX2DEC(MID(B125,3,4))</f>
+        <f t="shared" ref="A125:A156" si="12">HEX2DEC(MID(B125,3,4))</f>
         <v>126</v>
       </c>
       <c r="B125" t="s">
@@ -10558,17 +10549,17 @@
         <v>434</v>
       </c>
       <c r="G125" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D125))</f>
+        <f t="shared" ref="G125:G156" si="13">CONCATENATE("\x",TRIM(D125))</f>
         <v>\x7e</v>
       </c>
       <c r="I125" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A125,"() throws Exception { verify( (char) ",A125, ", """,C125,"""); }")</f>
+        <f t="shared" ref="I125:I156" si="14">CONCATENATE("@Test public void testConvert_",A125,"() throws Exception { verify( (char) ",A125, ", """,C125,"""); }")</f>
         <v>@Test public void testConvert_126() throws Exception { verify( (char) 126, "~"); }</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126">
-        <f>HEX2DEC(MID(B126,3,4))</f>
+        <f t="shared" si="12"/>
         <v>125</v>
       </c>
       <c r="B126" t="s">
@@ -10584,17 +10575,17 @@
         <v>430</v>
       </c>
       <c r="G126" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D126))</f>
+        <f t="shared" si="13"/>
         <v>\x7d</v>
       </c>
       <c r="I126" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A126,"() throws Exception { verify( (char) ",A126, ", """,C126,"""); }")</f>
+        <f t="shared" si="14"/>
         <v>@Test public void testConvert_125() throws Exception { verify( (char) 125, "}"); }</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127">
-        <f>HEX2DEC(MID(B127,3,4))</f>
+        <f t="shared" si="12"/>
         <v>124</v>
       </c>
       <c r="B127" t="s">
@@ -10610,17 +10601,17 @@
         <v>426</v>
       </c>
       <c r="G127" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D127))</f>
+        <f t="shared" si="13"/>
         <v>\x7c</v>
       </c>
       <c r="I127" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A127,"() throws Exception { verify( (char) ",A127, ", """,C127,"""); }")</f>
+        <f t="shared" si="14"/>
         <v>@Test public void testConvert_124() throws Exception { verify( (char) 124, "|"); }</v>
       </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128">
-        <f>HEX2DEC(MID(B128,3,4))</f>
+        <f t="shared" si="12"/>
         <v>123</v>
       </c>
       <c r="B128" t="s">
@@ -10636,17 +10627,17 @@
         <v>422</v>
       </c>
       <c r="G128" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D128))</f>
+        <f t="shared" si="13"/>
         <v>\x7b</v>
       </c>
       <c r="I128" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A128,"() throws Exception { verify( (char) ",A128, ", """,C128,"""); }")</f>
+        <f t="shared" si="14"/>
         <v>@Test public void testConvert_123() throws Exception { verify( (char) 123, "{"); }</v>
       </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129">
-        <f>HEX2DEC(MID(B129,3,4))</f>
+        <f t="shared" si="12"/>
         <v>122</v>
       </c>
       <c r="B129" t="s">
@@ -10662,17 +10653,17 @@
         <v>418</v>
       </c>
       <c r="G129" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D129))</f>
+        <f t="shared" si="13"/>
         <v>\x7a</v>
       </c>
       <c r="I129" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A129,"() throws Exception { verify( (char) ",A129, ", """,C129,"""); }")</f>
+        <f t="shared" si="14"/>
         <v>@Test public void testConvert_122() throws Exception { verify( (char) 122, "z"); }</v>
       </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130">
-        <f>HEX2DEC(MID(B130,3,4))</f>
+        <f t="shared" si="12"/>
         <v>121</v>
       </c>
       <c r="B130" t="s">
@@ -10688,17 +10679,17 @@
         <v>414</v>
       </c>
       <c r="G130" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D130))</f>
+        <f t="shared" si="13"/>
         <v>\x79</v>
       </c>
       <c r="I130" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A130,"() throws Exception { verify( (char) ",A130, ", """,C130,"""); }")</f>
+        <f t="shared" si="14"/>
         <v>@Test public void testConvert_121() throws Exception { verify( (char) 121, "y"); }</v>
       </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131">
-        <f>HEX2DEC(MID(B131,3,4))</f>
+        <f t="shared" si="12"/>
         <v>120</v>
       </c>
       <c r="B131" t="s">
@@ -10714,17 +10705,17 @@
         <v>411</v>
       </c>
       <c r="G131" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D131))</f>
+        <f t="shared" si="13"/>
         <v>\x78</v>
       </c>
       <c r="I131" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A131,"() throws Exception { verify( (char) ",A131, ", """,C131,"""); }")</f>
+        <f t="shared" si="14"/>
         <v>@Test public void testConvert_120() throws Exception { verify( (char) 120, "x"); }</v>
       </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132">
-        <f>HEX2DEC(MID(B132,3,4))</f>
+        <f t="shared" si="12"/>
         <v>119</v>
       </c>
       <c r="B132" t="s">
@@ -10740,17 +10731,17 @@
         <v>408</v>
       </c>
       <c r="G132" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D132))</f>
+        <f t="shared" si="13"/>
         <v>\x77</v>
       </c>
       <c r="I132" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A132,"() throws Exception { verify( (char) ",A132, ", """,C132,"""); }")</f>
+        <f t="shared" si="14"/>
         <v>@Test public void testConvert_119() throws Exception { verify( (char) 119, "w"); }</v>
       </c>
     </row>
     <row r="133" spans="1:9">
       <c r="A133">
-        <f>HEX2DEC(MID(B133,3,4))</f>
+        <f t="shared" si="12"/>
         <v>118</v>
       </c>
       <c r="B133" t="s">
@@ -10766,17 +10757,17 @@
         <v>405</v>
       </c>
       <c r="G133" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D133))</f>
+        <f t="shared" si="13"/>
         <v>\x76</v>
       </c>
       <c r="I133" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A133,"() throws Exception { verify( (char) ",A133, ", """,C133,"""); }")</f>
+        <f t="shared" si="14"/>
         <v>@Test public void testConvert_118() throws Exception { verify( (char) 118, "v"); }</v>
       </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134">
-        <f>HEX2DEC(MID(B134,3,4))</f>
+        <f t="shared" si="12"/>
         <v>117</v>
       </c>
       <c r="B134" t="s">
@@ -10792,17 +10783,17 @@
         <v>402</v>
       </c>
       <c r="G134" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D134))</f>
+        <f t="shared" si="13"/>
         <v>\x75</v>
       </c>
       <c r="I134" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A134,"() throws Exception { verify( (char) ",A134, ", """,C134,"""); }")</f>
+        <f t="shared" si="14"/>
         <v>@Test public void testConvert_117() throws Exception { verify( (char) 117, "u"); }</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135">
-        <f>HEX2DEC(MID(B135,3,4))</f>
+        <f t="shared" si="12"/>
         <v>116</v>
       </c>
       <c r="B135" t="s">
@@ -10818,17 +10809,17 @@
         <v>399</v>
       </c>
       <c r="G135" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D135))</f>
+        <f t="shared" si="13"/>
         <v>\x74</v>
       </c>
       <c r="I135" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A135,"() throws Exception { verify( (char) ",A135, ", """,C135,"""); }")</f>
+        <f t="shared" si="14"/>
         <v>@Test public void testConvert_116() throws Exception { verify( (char) 116, "t"); }</v>
       </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136">
-        <f>HEX2DEC(MID(B136,3,4))</f>
+        <f t="shared" si="12"/>
         <v>115</v>
       </c>
       <c r="B136" t="s">
@@ -10844,17 +10835,17 @@
         <v>396</v>
       </c>
       <c r="G136" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D136))</f>
+        <f t="shared" si="13"/>
         <v>\x73</v>
       </c>
       <c r="I136" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A136,"() throws Exception { verify( (char) ",A136, ", """,C136,"""); }")</f>
+        <f t="shared" si="14"/>
         <v>@Test public void testConvert_115() throws Exception { verify( (char) 115, "s"); }</v>
       </c>
     </row>
     <row r="137" spans="1:9">
       <c r="A137">
-        <f>HEX2DEC(MID(B137,3,4))</f>
+        <f t="shared" si="12"/>
         <v>114</v>
       </c>
       <c r="B137" t="s">
@@ -10870,17 +10861,17 @@
         <v>393</v>
       </c>
       <c r="G137" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D137))</f>
+        <f t="shared" si="13"/>
         <v>\x72</v>
       </c>
       <c r="I137" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A137,"() throws Exception { verify( (char) ",A137, ", """,C137,"""); }")</f>
+        <f t="shared" si="14"/>
         <v>@Test public void testConvert_114() throws Exception { verify( (char) 114, "r"); }</v>
       </c>
     </row>
     <row r="138" spans="1:9">
       <c r="A138">
-        <f>HEX2DEC(MID(B138,3,4))</f>
+        <f t="shared" si="12"/>
         <v>113</v>
       </c>
       <c r="B138" t="s">
@@ -10896,17 +10887,17 @@
         <v>390</v>
       </c>
       <c r="G138" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D138))</f>
+        <f t="shared" si="13"/>
         <v>\x71</v>
       </c>
       <c r="I138" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A138,"() throws Exception { verify( (char) ",A138, ", """,C138,"""); }")</f>
+        <f t="shared" si="14"/>
         <v>@Test public void testConvert_113() throws Exception { verify( (char) 113, "q"); }</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139">
-        <f>HEX2DEC(MID(B139,3,4))</f>
+        <f t="shared" si="12"/>
         <v>112</v>
       </c>
       <c r="B139" t="s">
@@ -10922,17 +10913,17 @@
         <v>387</v>
       </c>
       <c r="G139" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D139))</f>
+        <f t="shared" si="13"/>
         <v>\x70</v>
       </c>
       <c r="I139" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A139,"() throws Exception { verify( (char) ",A139, ", """,C139,"""); }")</f>
+        <f t="shared" si="14"/>
         <v>@Test public void testConvert_112() throws Exception { verify( (char) 112, "p"); }</v>
       </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140">
-        <f>HEX2DEC(MID(B140,3,4))</f>
+        <f t="shared" si="12"/>
         <v>111</v>
       </c>
       <c r="B140" t="s">
@@ -10948,17 +10939,17 @@
         <v>384</v>
       </c>
       <c r="G140" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D140))</f>
+        <f t="shared" si="13"/>
         <v>\x6f</v>
       </c>
       <c r="I140" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A140,"() throws Exception { verify( (char) ",A140, ", """,C140,"""); }")</f>
+        <f t="shared" si="14"/>
         <v>@Test public void testConvert_111() throws Exception { verify( (char) 111, "o"); }</v>
       </c>
     </row>
     <row r="141" spans="1:9">
       <c r="A141">
-        <f>HEX2DEC(MID(B141,3,4))</f>
+        <f t="shared" si="12"/>
         <v>110</v>
       </c>
       <c r="B141" t="s">
@@ -10974,17 +10965,17 @@
         <v>380</v>
       </c>
       <c r="G141" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D141))</f>
+        <f t="shared" si="13"/>
         <v>\x6e</v>
       </c>
       <c r="I141" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A141,"() throws Exception { verify( (char) ",A141, ", """,C141,"""); }")</f>
+        <f t="shared" si="14"/>
         <v>@Test public void testConvert_110() throws Exception { verify( (char) 110, "n"); }</v>
       </c>
     </row>
     <row r="142" spans="1:9">
       <c r="A142">
-        <f>HEX2DEC(MID(B142,3,4))</f>
+        <f t="shared" si="12"/>
         <v>109</v>
       </c>
       <c r="B142" t="s">
@@ -11000,17 +10991,17 @@
         <v>376</v>
       </c>
       <c r="G142" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D142))</f>
+        <f t="shared" si="13"/>
         <v>\x6d</v>
       </c>
       <c r="I142" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A142,"() throws Exception { verify( (char) ",A142, ", """,C142,"""); }")</f>
+        <f t="shared" si="14"/>
         <v>@Test public void testConvert_109() throws Exception { verify( (char) 109, "m"); }</v>
       </c>
     </row>
     <row r="143" spans="1:9">
       <c r="A143">
-        <f>HEX2DEC(MID(B143,3,4))</f>
+        <f t="shared" si="12"/>
         <v>108</v>
       </c>
       <c r="B143" t="s">
@@ -11026,17 +11017,17 @@
         <v>372</v>
       </c>
       <c r="G143" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D143))</f>
+        <f t="shared" si="13"/>
         <v>\x6c</v>
       </c>
       <c r="I143" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A143,"() throws Exception { verify( (char) ",A143, ", """,C143,"""); }")</f>
+        <f t="shared" si="14"/>
         <v>@Test public void testConvert_108() throws Exception { verify( (char) 108, "l"); }</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144">
-        <f>HEX2DEC(MID(B144,3,4))</f>
+        <f t="shared" si="12"/>
         <v>107</v>
       </c>
       <c r="B144" t="s">
@@ -11052,17 +11043,17 @@
         <v>368</v>
       </c>
       <c r="G144" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D144))</f>
+        <f t="shared" si="13"/>
         <v>\x6b</v>
       </c>
       <c r="I144" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A144,"() throws Exception { verify( (char) ",A144, ", """,C144,"""); }")</f>
+        <f t="shared" si="14"/>
         <v>@Test public void testConvert_107() throws Exception { verify( (char) 107, "k"); }</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145">
-        <f>HEX2DEC(MID(B145,3,4))</f>
+        <f t="shared" si="12"/>
         <v>106</v>
       </c>
       <c r="B145" t="s">
@@ -11078,17 +11069,17 @@
         <v>364</v>
       </c>
       <c r="G145" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D145))</f>
+        <f t="shared" si="13"/>
         <v>\x6a</v>
       </c>
       <c r="I145" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A145,"() throws Exception { verify( (char) ",A145, ", """,C145,"""); }")</f>
+        <f t="shared" si="14"/>
         <v>@Test public void testConvert_106() throws Exception { verify( (char) 106, "j"); }</v>
       </c>
     </row>
     <row r="146" spans="1:9">
       <c r="A146">
-        <f>HEX2DEC(MID(B146,3,4))</f>
+        <f t="shared" si="12"/>
         <v>105</v>
       </c>
       <c r="B146" t="s">
@@ -11107,17 +11098,17 @@
         <v>896</v>
       </c>
       <c r="G146" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D146))</f>
+        <f t="shared" si="13"/>
         <v>\x69</v>
       </c>
       <c r="I146" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A146,"() throws Exception { verify( (char) ",A146, ", """,C146,"""); }")</f>
+        <f t="shared" si="14"/>
         <v>@Test public void testConvert_105() throws Exception { verify( (char) 105, "i"); }</v>
       </c>
     </row>
     <row r="147" spans="1:9">
       <c r="A147">
-        <f>HEX2DEC(MID(B147,3,4))</f>
+        <f t="shared" si="12"/>
         <v>104</v>
       </c>
       <c r="B147" t="s">
@@ -11133,17 +11124,17 @@
         <v>357</v>
       </c>
       <c r="G147" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D147))</f>
+        <f t="shared" si="13"/>
         <v>\x68</v>
       </c>
       <c r="I147" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A147,"() throws Exception { verify( (char) ",A147, ", """,C147,"""); }")</f>
+        <f t="shared" si="14"/>
         <v>@Test public void testConvert_104() throws Exception { verify( (char) 104, "h"); }</v>
       </c>
     </row>
     <row r="148" spans="1:9">
       <c r="A148">
-        <f>HEX2DEC(MID(B148,3,4))</f>
+        <f t="shared" si="12"/>
         <v>103</v>
       </c>
       <c r="B148" t="s">
@@ -11159,17 +11150,17 @@
         <v>354</v>
       </c>
       <c r="G148" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D148))</f>
+        <f t="shared" si="13"/>
         <v>\x67</v>
       </c>
       <c r="I148" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A148,"() throws Exception { verify( (char) ",A148, ", """,C148,"""); }")</f>
+        <f t="shared" si="14"/>
         <v>@Test public void testConvert_103() throws Exception { verify( (char) 103, "g"); }</v>
       </c>
     </row>
     <row r="149" spans="1:9">
       <c r="A149">
-        <f>HEX2DEC(MID(B149,3,4))</f>
+        <f t="shared" si="12"/>
         <v>102</v>
       </c>
       <c r="B149" t="s">
@@ -11185,17 +11176,17 @@
         <v>351</v>
       </c>
       <c r="G149" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D149))</f>
+        <f t="shared" si="13"/>
         <v>\x66</v>
       </c>
       <c r="I149" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A149,"() throws Exception { verify( (char) ",A149, ", """,C149,"""); }")</f>
+        <f t="shared" si="14"/>
         <v>@Test public void testConvert_102() throws Exception { verify( (char) 102, "f"); }</v>
       </c>
     </row>
     <row r="150" spans="1:9">
       <c r="A150">
-        <f>HEX2DEC(MID(B150,3,4))</f>
+        <f t="shared" si="12"/>
         <v>101</v>
       </c>
       <c r="B150" t="s">
@@ -11211,17 +11202,17 @@
         <v>348</v>
       </c>
       <c r="G150" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D150))</f>
+        <f t="shared" si="13"/>
         <v>\x65</v>
       </c>
       <c r="I150" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A150,"() throws Exception { verify( (char) ",A150, ", """,C150,"""); }")</f>
+        <f t="shared" si="14"/>
         <v>@Test public void testConvert_101() throws Exception { verify( (char) 101, "e"); }</v>
       </c>
     </row>
     <row r="151" spans="1:9">
       <c r="A151">
-        <f>HEX2DEC(MID(B151,3,4))</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="B151" t="s">
@@ -11237,17 +11228,17 @@
         <v>345</v>
       </c>
       <c r="G151" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D151))</f>
+        <f t="shared" si="13"/>
         <v>\x64</v>
       </c>
       <c r="I151" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A151,"() throws Exception { verify( (char) ",A151, ", """,C151,"""); }")</f>
+        <f t="shared" si="14"/>
         <v>@Test public void testConvert_100() throws Exception { verify( (char) 100, "d"); }</v>
       </c>
     </row>
     <row r="152" spans="1:9">
       <c r="A152">
-        <f>HEX2DEC(MID(B152,3,4))</f>
+        <f t="shared" si="12"/>
         <v>99</v>
       </c>
       <c r="B152" t="s">
@@ -11263,17 +11254,17 @@
         <v>342</v>
       </c>
       <c r="G152" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D152))</f>
+        <f t="shared" si="13"/>
         <v>\x63</v>
       </c>
       <c r="I152" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A152,"() throws Exception { verify( (char) ",A152, ", """,C152,"""); }")</f>
+        <f t="shared" si="14"/>
         <v>@Test public void testConvert_99() throws Exception { verify( (char) 99, "c"); }</v>
       </c>
     </row>
     <row r="153" spans="1:9">
       <c r="A153">
-        <f>HEX2DEC(MID(B153,3,4))</f>
+        <f t="shared" si="12"/>
         <v>98</v>
       </c>
       <c r="B153" t="s">
@@ -11289,17 +11280,17 @@
         <v>339</v>
       </c>
       <c r="G153" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D153))</f>
+        <f t="shared" si="13"/>
         <v>\x62</v>
       </c>
       <c r="I153" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A153,"() throws Exception { verify( (char) ",A153, ", """,C153,"""); }")</f>
+        <f t="shared" si="14"/>
         <v>@Test public void testConvert_98() throws Exception { verify( (char) 98, "b"); }</v>
       </c>
     </row>
     <row r="154" spans="1:9">
       <c r="A154">
-        <f>HEX2DEC(MID(B154,3,4))</f>
+        <f t="shared" si="12"/>
         <v>97</v>
       </c>
       <c r="B154" t="s">
@@ -11315,17 +11306,17 @@
         <v>336</v>
       </c>
       <c r="G154" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D154))</f>
+        <f t="shared" si="13"/>
         <v>\x61</v>
       </c>
       <c r="I154" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A154,"() throws Exception { verify( (char) ",A154, ", """,C154,"""); }")</f>
+        <f t="shared" si="14"/>
         <v>@Test public void testConvert_97() throws Exception { verify( (char) 97, "a"); }</v>
       </c>
     </row>
     <row r="155" spans="1:9">
       <c r="A155">
-        <f>HEX2DEC(MID(B155,3,4))</f>
+        <f t="shared" si="12"/>
         <v>96</v>
       </c>
       <c r="B155" t="s">
@@ -11341,17 +11332,17 @@
         <v>333</v>
       </c>
       <c r="G155" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D155))</f>
+        <f t="shared" si="13"/>
         <v>\x60</v>
       </c>
       <c r="I155" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A155,"() throws Exception { verify( (char) ",A155, ", """,C155,"""); }")</f>
+        <f t="shared" si="14"/>
         <v>@Test public void testConvert_96() throws Exception { verify( (char) 96, "`"); }</v>
       </c>
     </row>
     <row r="156" spans="1:9">
       <c r="A156">
-        <f>HEX2DEC(MID(B156,3,4))</f>
+        <f t="shared" si="12"/>
         <v>95</v>
       </c>
       <c r="B156" t="s">
@@ -11367,17 +11358,17 @@
         <v>330</v>
       </c>
       <c r="G156" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D156))</f>
+        <f t="shared" si="13"/>
         <v>\x5f</v>
       </c>
       <c r="I156" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A156,"() throws Exception { verify( (char) ",A156, ", """,C156,"""); }")</f>
+        <f t="shared" si="14"/>
         <v>@Test public void testConvert_95() throws Exception { verify( (char) 95, "_"); }</v>
       </c>
     </row>
     <row r="157" spans="1:9">
       <c r="A157">
-        <f>HEX2DEC(MID(B157,3,4))</f>
+        <f t="shared" ref="A157:A188" si="15">HEX2DEC(MID(B157,3,4))</f>
         <v>94</v>
       </c>
       <c r="B157" t="s">
@@ -11393,17 +11384,17 @@
         <v>326</v>
       </c>
       <c r="G157" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D157))</f>
+        <f t="shared" ref="G157:G188" si="16">CONCATENATE("\x",TRIM(D157))</f>
         <v>\x5e</v>
       </c>
       <c r="I157" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A157,"() throws Exception { verify( (char) ",A157, ", """,C157,"""); }")</f>
+        <f t="shared" ref="I157:I188" si="17">CONCATENATE("@Test public void testConvert_",A157,"() throws Exception { verify( (char) ",A157, ", """,C157,"""); }")</f>
         <v>@Test public void testConvert_94() throws Exception { verify( (char) 94, "^"); }</v>
       </c>
     </row>
     <row r="158" spans="1:9">
       <c r="A158">
-        <f>HEX2DEC(MID(B158,3,4))</f>
+        <f t="shared" si="15"/>
         <v>93</v>
       </c>
       <c r="B158" t="s">
@@ -11419,17 +11410,17 @@
         <v>322</v>
       </c>
       <c r="G158" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D158))</f>
+        <f t="shared" si="16"/>
         <v>\x5d</v>
       </c>
       <c r="I158" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A158,"() throws Exception { verify( (char) ",A158, ", """,C158,"""); }")</f>
+        <f t="shared" si="17"/>
         <v>@Test public void testConvert_93() throws Exception { verify( (char) 93, "]"); }</v>
       </c>
     </row>
     <row r="159" spans="1:9">
       <c r="A159">
-        <f>HEX2DEC(MID(B159,3,4))</f>
+        <f t="shared" si="15"/>
         <v>92</v>
       </c>
       <c r="B159" t="s">
@@ -11445,17 +11436,17 @@
         <v>318</v>
       </c>
       <c r="G159" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D159))</f>
+        <f t="shared" si="16"/>
         <v>\x5c</v>
       </c>
       <c r="I159" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A159,"() throws Exception { verify( (char) ",A159, ", """,C159,"""); }")</f>
+        <f t="shared" si="17"/>
         <v>@Test public void testConvert_92() throws Exception { verify( (char) 92, "\"); }</v>
       </c>
     </row>
     <row r="160" spans="1:9">
       <c r="A160">
-        <f>HEX2DEC(MID(B160,3,4))</f>
+        <f t="shared" si="15"/>
         <v>91</v>
       </c>
       <c r="B160" t="s">
@@ -11471,17 +11462,17 @@
         <v>314</v>
       </c>
       <c r="G160" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D160))</f>
+        <f t="shared" si="16"/>
         <v>\x5b</v>
       </c>
       <c r="I160" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A160,"() throws Exception { verify( (char) ",A160, ", """,C160,"""); }")</f>
+        <f t="shared" si="17"/>
         <v>@Test public void testConvert_91() throws Exception { verify( (char) 91, "["); }</v>
       </c>
     </row>
     <row r="161" spans="1:9">
       <c r="A161">
-        <f>HEX2DEC(MID(B161,3,4))</f>
+        <f t="shared" si="15"/>
         <v>90</v>
       </c>
       <c r="B161" t="s">
@@ -11497,17 +11488,17 @@
         <v>310</v>
       </c>
       <c r="G161" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D161))</f>
+        <f t="shared" si="16"/>
         <v>\x5a</v>
       </c>
       <c r="I161" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A161,"() throws Exception { verify( (char) ",A161, ", """,C161,"""); }")</f>
+        <f t="shared" si="17"/>
         <v>@Test public void testConvert_90() throws Exception { verify( (char) 90, "Z"); }</v>
       </c>
     </row>
     <row r="162" spans="1:9">
       <c r="A162">
-        <f>HEX2DEC(MID(B162,3,4))</f>
+        <f t="shared" si="15"/>
         <v>89</v>
       </c>
       <c r="B162" t="s">
@@ -11523,17 +11514,17 @@
         <v>306</v>
       </c>
       <c r="G162" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D162))</f>
+        <f t="shared" si="16"/>
         <v>\x59</v>
       </c>
       <c r="I162" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A162,"() throws Exception { verify( (char) ",A162, ", """,C162,"""); }")</f>
+        <f t="shared" si="17"/>
         <v>@Test public void testConvert_89() throws Exception { verify( (char) 89, "Y"); }</v>
       </c>
     </row>
     <row r="163" spans="1:9">
       <c r="A163">
-        <f>HEX2DEC(MID(B163,3,4))</f>
+        <f t="shared" si="15"/>
         <v>88</v>
       </c>
       <c r="B163" t="s">
@@ -11549,17 +11540,17 @@
         <v>303</v>
       </c>
       <c r="G163" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D163))</f>
+        <f t="shared" si="16"/>
         <v>\x58</v>
       </c>
       <c r="I163" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A163,"() throws Exception { verify( (char) ",A163, ", """,C163,"""); }")</f>
+        <f t="shared" si="17"/>
         <v>@Test public void testConvert_88() throws Exception { verify( (char) 88, "X"); }</v>
       </c>
     </row>
     <row r="164" spans="1:9">
       <c r="A164">
-        <f>HEX2DEC(MID(B164,3,4))</f>
+        <f t="shared" si="15"/>
         <v>87</v>
       </c>
       <c r="B164" t="s">
@@ -11575,17 +11566,17 @@
         <v>300</v>
       </c>
       <c r="G164" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D164))</f>
+        <f t="shared" si="16"/>
         <v>\x57</v>
       </c>
       <c r="I164" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A164,"() throws Exception { verify( (char) ",A164, ", """,C164,"""); }")</f>
+        <f t="shared" si="17"/>
         <v>@Test public void testConvert_87() throws Exception { verify( (char) 87, "W"); }</v>
       </c>
     </row>
     <row r="165" spans="1:9">
       <c r="A165">
-        <f>HEX2DEC(MID(B165,3,4))</f>
+        <f t="shared" si="15"/>
         <v>86</v>
       </c>
       <c r="B165" t="s">
@@ -11601,17 +11592,17 @@
         <v>297</v>
       </c>
       <c r="G165" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D165))</f>
+        <f t="shared" si="16"/>
         <v>\x56</v>
       </c>
       <c r="I165" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A165,"() throws Exception { verify( (char) ",A165, ", """,C165,"""); }")</f>
+        <f t="shared" si="17"/>
         <v>@Test public void testConvert_86() throws Exception { verify( (char) 86, "V"); }</v>
       </c>
     </row>
     <row r="166" spans="1:9">
       <c r="A166">
-        <f>HEX2DEC(MID(B166,3,4))</f>
+        <f t="shared" si="15"/>
         <v>85</v>
       </c>
       <c r="B166" t="s">
@@ -11627,17 +11618,17 @@
         <v>294</v>
       </c>
       <c r="G166" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D166))</f>
+        <f t="shared" si="16"/>
         <v>\x55</v>
       </c>
       <c r="I166" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A166,"() throws Exception { verify( (char) ",A166, ", """,C166,"""); }")</f>
+        <f t="shared" si="17"/>
         <v>@Test public void testConvert_85() throws Exception { verify( (char) 85, "U"); }</v>
       </c>
     </row>
     <row r="167" spans="1:9">
       <c r="A167">
-        <f>HEX2DEC(MID(B167,3,4))</f>
+        <f t="shared" si="15"/>
         <v>84</v>
       </c>
       <c r="B167" t="s">
@@ -11653,17 +11644,17 @@
         <v>291</v>
       </c>
       <c r="G167" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D167))</f>
+        <f t="shared" si="16"/>
         <v>\x54</v>
       </c>
       <c r="I167" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A167,"() throws Exception { verify( (char) ",A167, ", """,C167,"""); }")</f>
+        <f t="shared" si="17"/>
         <v>@Test public void testConvert_84() throws Exception { verify( (char) 84, "T"); }</v>
       </c>
     </row>
     <row r="168" spans="1:9">
       <c r="A168">
-        <f>HEX2DEC(MID(B168,3,4))</f>
+        <f t="shared" si="15"/>
         <v>83</v>
       </c>
       <c r="B168" t="s">
@@ -11679,17 +11670,17 @@
         <v>288</v>
       </c>
       <c r="G168" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D168))</f>
+        <f t="shared" si="16"/>
         <v>\x53</v>
       </c>
       <c r="I168" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A168,"() throws Exception { verify( (char) ",A168, ", """,C168,"""); }")</f>
+        <f t="shared" si="17"/>
         <v>@Test public void testConvert_83() throws Exception { verify( (char) 83, "S"); }</v>
       </c>
     </row>
     <row r="169" spans="1:9">
       <c r="A169">
-        <f>HEX2DEC(MID(B169,3,4))</f>
+        <f t="shared" si="15"/>
         <v>82</v>
       </c>
       <c r="B169" t="s">
@@ -11708,17 +11699,17 @@
         <v>897</v>
       </c>
       <c r="G169" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D169))</f>
+        <f t="shared" si="16"/>
         <v>\x52</v>
       </c>
       <c r="I169" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A169,"() throws Exception { verify( (char) ",A169, ", """,C169,"""); }")</f>
+        <f t="shared" si="17"/>
         <v>@Test public void testConvert_82() throws Exception { verify( (char) 82, "R"); }</v>
       </c>
     </row>
     <row r="170" spans="1:9">
       <c r="A170">
-        <f>HEX2DEC(MID(B170,3,4))</f>
+        <f t="shared" si="15"/>
         <v>81</v>
       </c>
       <c r="B170" t="s">
@@ -11734,17 +11725,17 @@
         <v>282</v>
       </c>
       <c r="G170" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D170))</f>
+        <f t="shared" si="16"/>
         <v>\x51</v>
       </c>
       <c r="I170" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A170,"() throws Exception { verify( (char) ",A170, ", """,C170,"""); }")</f>
+        <f t="shared" si="17"/>
         <v>@Test public void testConvert_81() throws Exception { verify( (char) 81, "Q"); }</v>
       </c>
     </row>
     <row r="171" spans="1:9">
       <c r="A171">
-        <f>HEX2DEC(MID(B171,3,4))</f>
+        <f t="shared" si="15"/>
         <v>80</v>
       </c>
       <c r="B171" t="s">
@@ -11760,17 +11751,17 @@
         <v>279</v>
       </c>
       <c r="G171" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D171))</f>
+        <f t="shared" si="16"/>
         <v>\x50</v>
       </c>
       <c r="I171" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A171,"() throws Exception { verify( (char) ",A171, ", """,C171,"""); }")</f>
+        <f t="shared" si="17"/>
         <v>@Test public void testConvert_80() throws Exception { verify( (char) 80, "P"); }</v>
       </c>
     </row>
     <row r="172" spans="1:9">
       <c r="A172">
-        <f>HEX2DEC(MID(B172,3,4))</f>
+        <f t="shared" si="15"/>
         <v>79</v>
       </c>
       <c r="B172" t="s">
@@ -11786,17 +11777,17 @@
         <v>276</v>
       </c>
       <c r="G172" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D172))</f>
+        <f t="shared" si="16"/>
         <v>\x4f</v>
       </c>
       <c r="I172" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A172,"() throws Exception { verify( (char) ",A172, ", """,C172,"""); }")</f>
+        <f t="shared" si="17"/>
         <v>@Test public void testConvert_79() throws Exception { verify( (char) 79, "O"); }</v>
       </c>
     </row>
     <row r="173" spans="1:9">
       <c r="A173">
-        <f>HEX2DEC(MID(B173,3,4))</f>
+        <f t="shared" si="15"/>
         <v>78</v>
       </c>
       <c r="B173" t="s">
@@ -11812,17 +11803,17 @@
         <v>272</v>
       </c>
       <c r="G173" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D173))</f>
+        <f t="shared" si="16"/>
         <v>\x4e</v>
       </c>
       <c r="I173" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A173,"() throws Exception { verify( (char) ",A173, ", """,C173,"""); }")</f>
+        <f t="shared" si="17"/>
         <v>@Test public void testConvert_78() throws Exception { verify( (char) 78, "N"); }</v>
       </c>
     </row>
     <row r="174" spans="1:9">
       <c r="A174">
-        <f>HEX2DEC(MID(B174,3,4))</f>
+        <f t="shared" si="15"/>
         <v>77</v>
       </c>
       <c r="B174" t="s">
@@ -11838,17 +11829,17 @@
         <v>268</v>
       </c>
       <c r="G174" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D174))</f>
+        <f t="shared" si="16"/>
         <v>\x4d</v>
       </c>
       <c r="I174" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A174,"() throws Exception { verify( (char) ",A174, ", """,C174,"""); }")</f>
+        <f t="shared" si="17"/>
         <v>@Test public void testConvert_77() throws Exception { verify( (char) 77, "M"); }</v>
       </c>
     </row>
     <row r="175" spans="1:9">
       <c r="A175">
-        <f>HEX2DEC(MID(B175,3,4))</f>
+        <f t="shared" si="15"/>
         <v>76</v>
       </c>
       <c r="B175" t="s">
@@ -11864,17 +11855,17 @@
         <v>264</v>
       </c>
       <c r="G175" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D175))</f>
+        <f t="shared" si="16"/>
         <v>\x4c</v>
       </c>
       <c r="I175" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A175,"() throws Exception { verify( (char) ",A175, ", """,C175,"""); }")</f>
+        <f t="shared" si="17"/>
         <v>@Test public void testConvert_76() throws Exception { verify( (char) 76, "L"); }</v>
       </c>
     </row>
     <row r="176" spans="1:9">
       <c r="A176">
-        <f>HEX2DEC(MID(B176,3,4))</f>
+        <f t="shared" si="15"/>
         <v>75</v>
       </c>
       <c r="B176" t="s">
@@ -11890,17 +11881,17 @@
         <v>260</v>
       </c>
       <c r="G176" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D176))</f>
+        <f t="shared" si="16"/>
         <v>\x4b</v>
       </c>
       <c r="I176" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A176,"() throws Exception { verify( (char) ",A176, ", """,C176,"""); }")</f>
+        <f t="shared" si="17"/>
         <v>@Test public void testConvert_75() throws Exception { verify( (char) 75, "K"); }</v>
       </c>
     </row>
     <row r="177" spans="1:9">
       <c r="A177">
-        <f>HEX2DEC(MID(B177,3,4))</f>
+        <f t="shared" si="15"/>
         <v>74</v>
       </c>
       <c r="B177" t="s">
@@ -11916,17 +11907,17 @@
         <v>256</v>
       </c>
       <c r="G177" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D177))</f>
+        <f t="shared" si="16"/>
         <v>\x4a</v>
       </c>
       <c r="I177" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A177,"() throws Exception { verify( (char) ",A177, ", """,C177,"""); }")</f>
+        <f t="shared" si="17"/>
         <v>@Test public void testConvert_74() throws Exception { verify( (char) 74, "J"); }</v>
       </c>
     </row>
     <row r="178" spans="1:9">
       <c r="A178">
-        <f>HEX2DEC(MID(B178,3,4))</f>
+        <f t="shared" si="15"/>
         <v>73</v>
       </c>
       <c r="B178" t="s">
@@ -11942,17 +11933,17 @@
         <v>252</v>
       </c>
       <c r="G178" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D178))</f>
+        <f t="shared" si="16"/>
         <v>\x49</v>
       </c>
       <c r="I178" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A178,"() throws Exception { verify( (char) ",A178, ", """,C178,"""); }")</f>
+        <f t="shared" si="17"/>
         <v>@Test public void testConvert_73() throws Exception { verify( (char) 73, "I"); }</v>
       </c>
     </row>
     <row r="179" spans="1:9">
       <c r="A179">
-        <f>HEX2DEC(MID(B179,3,4))</f>
+        <f t="shared" si="15"/>
         <v>72</v>
       </c>
       <c r="B179" t="s">
@@ -11968,17 +11959,17 @@
         <v>249</v>
       </c>
       <c r="G179" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D179))</f>
+        <f t="shared" si="16"/>
         <v>\x48</v>
       </c>
       <c r="I179" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A179,"() throws Exception { verify( (char) ",A179, ", """,C179,"""); }")</f>
+        <f t="shared" si="17"/>
         <v>@Test public void testConvert_72() throws Exception { verify( (char) 72, "H"); }</v>
       </c>
     </row>
     <row r="180" spans="1:9">
       <c r="A180">
-        <f>HEX2DEC(MID(B180,3,4))</f>
+        <f t="shared" si="15"/>
         <v>71</v>
       </c>
       <c r="B180" t="s">
@@ -11994,17 +11985,17 @@
         <v>246</v>
       </c>
       <c r="G180" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D180))</f>
+        <f t="shared" si="16"/>
         <v>\x47</v>
       </c>
       <c r="I180" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A180,"() throws Exception { verify( (char) ",A180, ", """,C180,"""); }")</f>
+        <f t="shared" si="17"/>
         <v>@Test public void testConvert_71() throws Exception { verify( (char) 71, "G"); }</v>
       </c>
     </row>
     <row r="181" spans="1:9">
       <c r="A181">
-        <f>HEX2DEC(MID(B181,3,4))</f>
+        <f t="shared" si="15"/>
         <v>70</v>
       </c>
       <c r="B181" t="s">
@@ -12020,17 +12011,17 @@
         <v>243</v>
       </c>
       <c r="G181" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D181))</f>
+        <f t="shared" si="16"/>
         <v>\x46</v>
       </c>
       <c r="I181" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A181,"() throws Exception { verify( (char) ",A181, ", """,C181,"""); }")</f>
+        <f t="shared" si="17"/>
         <v>@Test public void testConvert_70() throws Exception { verify( (char) 70, "F"); }</v>
       </c>
     </row>
     <row r="182" spans="1:9">
       <c r="A182">
-        <f>HEX2DEC(MID(B182,3,4))</f>
+        <f t="shared" si="15"/>
         <v>69</v>
       </c>
       <c r="B182" t="s">
@@ -12046,17 +12037,17 @@
         <v>240</v>
       </c>
       <c r="G182" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D182))</f>
+        <f t="shared" si="16"/>
         <v>\x45</v>
       </c>
       <c r="I182" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A182,"() throws Exception { verify( (char) ",A182, ", """,C182,"""); }")</f>
+        <f t="shared" si="17"/>
         <v>@Test public void testConvert_69() throws Exception { verify( (char) 69, "E"); }</v>
       </c>
     </row>
     <row r="183" spans="1:9">
       <c r="A183">
-        <f>HEX2DEC(MID(B183,3,4))</f>
+        <f t="shared" si="15"/>
         <v>68</v>
       </c>
       <c r="B183" t="s">
@@ -12072,17 +12063,17 @@
         <v>237</v>
       </c>
       <c r="G183" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D183))</f>
+        <f t="shared" si="16"/>
         <v>\x44</v>
       </c>
       <c r="I183" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A183,"() throws Exception { verify( (char) ",A183, ", """,C183,"""); }")</f>
+        <f t="shared" si="17"/>
         <v>@Test public void testConvert_68() throws Exception { verify( (char) 68, "D"); }</v>
       </c>
     </row>
     <row r="184" spans="1:9">
       <c r="A184">
-        <f>HEX2DEC(MID(B184,3,4))</f>
+        <f t="shared" si="15"/>
         <v>67</v>
       </c>
       <c r="B184" t="s">
@@ -12098,17 +12089,17 @@
         <v>234</v>
       </c>
       <c r="G184" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D184))</f>
+        <f t="shared" si="16"/>
         <v>\x43</v>
       </c>
       <c r="I184" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A184,"() throws Exception { verify( (char) ",A184, ", """,C184,"""); }")</f>
+        <f t="shared" si="17"/>
         <v>@Test public void testConvert_67() throws Exception { verify( (char) 67, "C"); }</v>
       </c>
     </row>
     <row r="185" spans="1:9">
       <c r="A185">
-        <f>HEX2DEC(MID(B185,3,4))</f>
+        <f t="shared" si="15"/>
         <v>66</v>
       </c>
       <c r="B185" t="s">
@@ -12124,17 +12115,17 @@
         <v>231</v>
       </c>
       <c r="G185" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D185))</f>
+        <f t="shared" si="16"/>
         <v>\x42</v>
       </c>
       <c r="I185" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A185,"() throws Exception { verify( (char) ",A185, ", """,C185,"""); }")</f>
+        <f t="shared" si="17"/>
         <v>@Test public void testConvert_66() throws Exception { verify( (char) 66, "B"); }</v>
       </c>
     </row>
     <row r="186" spans="1:9">
       <c r="A186">
-        <f>HEX2DEC(MID(B186,3,4))</f>
+        <f t="shared" si="15"/>
         <v>65</v>
       </c>
       <c r="B186" t="s">
@@ -12150,17 +12141,17 @@
         <v>228</v>
       </c>
       <c r="G186" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D186))</f>
+        <f t="shared" si="16"/>
         <v>\x41</v>
       </c>
       <c r="I186" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A186,"() throws Exception { verify( (char) ",A186, ", """,C186,"""); }")</f>
+        <f t="shared" si="17"/>
         <v>@Test public void testConvert_65() throws Exception { verify( (char) 65, "A"); }</v>
       </c>
     </row>
     <row r="187" spans="1:9">
       <c r="A187">
-        <f>HEX2DEC(MID(B187,3,4))</f>
+        <f t="shared" si="15"/>
         <v>64</v>
       </c>
       <c r="B187" t="s">
@@ -12176,17 +12167,17 @@
         <v>225</v>
       </c>
       <c r="G187" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D187))</f>
+        <f t="shared" si="16"/>
         <v>\x40</v>
       </c>
       <c r="I187" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A187,"() throws Exception { verify( (char) ",A187, ", """,C187,"""); }")</f>
+        <f t="shared" si="17"/>
         <v>@Test public void testConvert_64() throws Exception { verify( (char) 64, "@"); }</v>
       </c>
     </row>
     <row r="188" spans="1:9">
       <c r="A188">
-        <f>HEX2DEC(MID(B188,3,4))</f>
+        <f t="shared" si="15"/>
         <v>63</v>
       </c>
       <c r="B188" t="s">
@@ -12202,17 +12193,17 @@
         <v>222</v>
       </c>
       <c r="G188" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D188))</f>
+        <f t="shared" si="16"/>
         <v>\x3f</v>
       </c>
       <c r="I188" s="18" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A188,"() throws Exception { verify( (char) ",A188, ", """,C188,"""); }")</f>
+        <f t="shared" si="17"/>
         <v>@Test public void testConvert_63() throws Exception { verify( (char) 63, "?"); }</v>
       </c>
     </row>
     <row r="189" spans="1:9">
       <c r="A189">
-        <f>HEX2DEC(MID(B189,3,4))</f>
+        <f t="shared" ref="A189:A220" si="18">HEX2DEC(MID(B189,3,4))</f>
         <v>62</v>
       </c>
       <c r="B189" t="s">
@@ -12228,17 +12219,17 @@
         <v>218</v>
       </c>
       <c r="G189" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D189))</f>
+        <f t="shared" ref="G189:G201" si="19">CONCATENATE("\x",TRIM(D189))</f>
         <v>\x3e</v>
       </c>
       <c r="I189" s="18" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A189,"() throws Exception { verify( (char) ",A189, ", """,C189,"""); }")</f>
+        <f t="shared" ref="I189:I202" si="20">CONCATENATE("@Test public void testConvert_",A189,"() throws Exception { verify( (char) ",A189, ", """,C189,"""); }")</f>
         <v>@Test public void testConvert_62() throws Exception { verify( (char) 62, "&gt;"); }</v>
       </c>
     </row>
     <row r="190" spans="1:9">
       <c r="A190">
-        <f>HEX2DEC(MID(B190,3,4))</f>
+        <f t="shared" si="18"/>
         <v>61</v>
       </c>
       <c r="B190" t="s">
@@ -12254,17 +12245,17 @@
         <v>214</v>
       </c>
       <c r="G190" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D190))</f>
+        <f t="shared" si="19"/>
         <v>\x3d</v>
       </c>
       <c r="I190" s="18" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A190,"() throws Exception { verify( (char) ",A190, ", """,C190,"""); }")</f>
+        <f t="shared" si="20"/>
         <v>@Test public void testConvert_61() throws Exception { verify( (char) 61, "="); }</v>
       </c>
     </row>
     <row r="191" spans="1:9">
       <c r="A191">
-        <f>HEX2DEC(MID(B191,3,4))</f>
+        <f t="shared" si="18"/>
         <v>60</v>
       </c>
       <c r="B191" t="s">
@@ -12280,17 +12271,17 @@
         <v>210</v>
       </c>
       <c r="G191" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D191))</f>
+        <f t="shared" si="19"/>
         <v>\x3c</v>
       </c>
       <c r="I191" s="18" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A191,"() throws Exception { verify( (char) ",A191, ", """,C191,"""); }")</f>
+        <f t="shared" si="20"/>
         <v>@Test public void testConvert_60() throws Exception { verify( (char) 60, "&lt;"); }</v>
       </c>
     </row>
     <row r="192" spans="1:9">
       <c r="A192">
-        <f>HEX2DEC(MID(B192,3,4))</f>
+        <f t="shared" si="18"/>
         <v>59</v>
       </c>
       <c r="B192" t="s">
@@ -12306,17 +12297,17 @@
         <v>206</v>
       </c>
       <c r="G192" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D192))</f>
+        <f t="shared" si="19"/>
         <v>\x3b</v>
       </c>
       <c r="I192" s="18" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A192,"() throws Exception { verify( (char) ",A192, ", """,C192,"""); }")</f>
+        <f t="shared" si="20"/>
         <v>@Test public void testConvert_59() throws Exception { verify( (char) 59, ";"); }</v>
       </c>
     </row>
     <row r="193" spans="1:9">
       <c r="A193">
-        <f>HEX2DEC(MID(B193,3,4))</f>
+        <f t="shared" si="18"/>
         <v>58</v>
       </c>
       <c r="B193" t="s">
@@ -12332,17 +12323,17 @@
         <v>202</v>
       </c>
       <c r="G193" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D193))</f>
+        <f t="shared" si="19"/>
         <v>\x3a</v>
       </c>
       <c r="I193" s="18" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A193,"() throws Exception { verify( (char) ",A193, ", """,C193,"""); }")</f>
+        <f t="shared" si="20"/>
         <v>@Test public void testConvert_58() throws Exception { verify( (char) 58, ":"); }</v>
       </c>
     </row>
     <row r="194" spans="1:9">
       <c r="A194">
-        <f>HEX2DEC(MID(B194,3,4))</f>
+        <f t="shared" si="18"/>
         <v>57</v>
       </c>
       <c r="B194" t="s">
@@ -12358,17 +12349,17 @@
         <v>198</v>
       </c>
       <c r="G194" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D194))</f>
+        <f t="shared" si="19"/>
         <v>\x39</v>
       </c>
       <c r="I194" s="18" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A194,"() throws Exception { verify( (char) ",A194, ", """,C194,"""); }")</f>
+        <f t="shared" si="20"/>
         <v>@Test public void testConvert_57() throws Exception { verify( (char) 57, "9"); }</v>
       </c>
     </row>
     <row r="195" spans="1:9">
       <c r="A195">
-        <f>HEX2DEC(MID(B195,3,4))</f>
+        <f t="shared" si="18"/>
         <v>56</v>
       </c>
       <c r="B195" t="s">
@@ -12384,17 +12375,17 @@
         <v>196</v>
       </c>
       <c r="G195" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D195))</f>
+        <f t="shared" si="19"/>
         <v>\x38</v>
       </c>
       <c r="I195" s="18" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A195,"() throws Exception { verify( (char) ",A195, ", """,C195,"""); }")</f>
+        <f t="shared" si="20"/>
         <v>@Test public void testConvert_56() throws Exception { verify( (char) 56, "8"); }</v>
       </c>
     </row>
     <row r="196" spans="1:9">
       <c r="A196">
-        <f>HEX2DEC(MID(B196,3,4))</f>
+        <f t="shared" si="18"/>
         <v>55</v>
       </c>
       <c r="B196" t="s">
@@ -12410,17 +12401,17 @@
         <v>194</v>
       </c>
       <c r="G196" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D196))</f>
+        <f t="shared" si="19"/>
         <v>\x37</v>
       </c>
       <c r="I196" s="18" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A196,"() throws Exception { verify( (char) ",A196, ", """,C196,"""); }")</f>
+        <f t="shared" si="20"/>
         <v>@Test public void testConvert_55() throws Exception { verify( (char) 55, "8"); }</v>
       </c>
     </row>
     <row r="197" spans="1:9">
       <c r="A197">
-        <f>HEX2DEC(MID(B197,3,4))</f>
+        <f t="shared" si="18"/>
         <v>54</v>
       </c>
       <c r="B197" t="s">
@@ -12436,17 +12427,17 @@
         <v>192</v>
       </c>
       <c r="G197" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D197))</f>
+        <f t="shared" si="19"/>
         <v>\x36</v>
       </c>
       <c r="I197" s="18" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A197,"() throws Exception { verify( (char) ",A197, ", """,C197,"""); }")</f>
+        <f t="shared" si="20"/>
         <v>@Test public void testConvert_54() throws Exception { verify( (char) 54, "6"); }</v>
       </c>
     </row>
     <row r="198" spans="1:9">
       <c r="A198">
-        <f>HEX2DEC(MID(B198,3,4))</f>
+        <f t="shared" si="18"/>
         <v>53</v>
       </c>
       <c r="B198" t="s">
@@ -12462,17 +12453,17 @@
         <v>190</v>
       </c>
       <c r="G198" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D198))</f>
+        <f t="shared" si="19"/>
         <v>\x35</v>
       </c>
       <c r="I198" s="18" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A198,"() throws Exception { verify( (char) ",A198, ", """,C198,"""); }")</f>
+        <f t="shared" si="20"/>
         <v>@Test public void testConvert_53() throws Exception { verify( (char) 53, "5"); }</v>
       </c>
     </row>
     <row r="199" spans="1:9">
       <c r="A199">
-        <f>HEX2DEC(MID(B199,3,4))</f>
+        <f t="shared" si="18"/>
         <v>52</v>
       </c>
       <c r="B199" t="s">
@@ -12488,17 +12479,17 @@
         <v>188</v>
       </c>
       <c r="G199" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D199))</f>
+        <f t="shared" si="19"/>
         <v>\x34</v>
       </c>
       <c r="I199" s="18" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A199,"() throws Exception { verify( (char) ",A199, ", """,C199,"""); }")</f>
+        <f t="shared" si="20"/>
         <v>@Test public void testConvert_52() throws Exception { verify( (char) 52, "4"); }</v>
       </c>
     </row>
     <row r="200" spans="1:9">
       <c r="A200">
-        <f>HEX2DEC(MID(B200,3,4))</f>
+        <f t="shared" si="18"/>
         <v>51</v>
       </c>
       <c r="B200" t="s">
@@ -12514,17 +12505,17 @@
         <v>186</v>
       </c>
       <c r="G200" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D200))</f>
+        <f t="shared" si="19"/>
         <v>\x33</v>
       </c>
       <c r="I200" s="18" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A200,"() throws Exception { verify( (char) ",A200, ", """,C200,"""); }")</f>
+        <f t="shared" si="20"/>
         <v>@Test public void testConvert_51() throws Exception { verify( (char) 51, "3"); }</v>
       </c>
     </row>
     <row r="201" spans="1:9">
       <c r="A201">
-        <f>HEX2DEC(MID(B201,3,4))</f>
+        <f t="shared" si="18"/>
         <v>50</v>
       </c>
       <c r="B201" t="s">
@@ -12540,17 +12531,17 @@
         <v>184</v>
       </c>
       <c r="G201" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D201))</f>
+        <f t="shared" si="19"/>
         <v>\x32</v>
       </c>
       <c r="I201" s="18" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A201,"() throws Exception { verify( (char) ",A201, ", """,C201,"""); }")</f>
+        <f t="shared" si="20"/>
         <v>@Test public void testConvert_50() throws Exception { verify( (char) 50, "2"); }</v>
       </c>
     </row>
     <row r="202" spans="1:9">
       <c r="A202">
-        <f>HEX2DEC(MID(B202,3,4))</f>
+        <f t="shared" si="18"/>
         <v>32</v>
       </c>
       <c r="B202" s="25" t="s">
@@ -12567,7 +12558,7 @@
       <c r="G202" s="19"/>
       <c r="H202" s="14"/>
       <c r="I202" s="18" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A202,"() throws Exception { verify( (char) ",A202, ", """,C202,"""); }")</f>
+        <f t="shared" si="20"/>
         <v>@Test public void testConvert_32() throws Exception { verify( (char) 32, ""); }</v>
       </c>
     </row>
@@ -12605,7 +12596,7 @@
       </c>
       <c r="F204" s="18"/>
       <c r="G204" s="18" t="str">
-        <f>CONCATENATE("\x",LEFT(D204,2),"\x",MID(D204,4,2))</f>
+        <f t="shared" ref="G204:G211" si="21">CONCATENATE("\x",LEFT(D204,2),"\x",MID(D204,4,2))</f>
         <v>\xc2\x80</v>
       </c>
       <c r="H204" s="18"/>
@@ -12625,7 +12616,7 @@
       </c>
       <c r="F205" s="18"/>
       <c r="G205" s="18" t="str">
-        <f>CONCATENATE("\x",LEFT(D205,2),"\x",MID(D205,4,2))</f>
+        <f t="shared" si="21"/>
         <v>\xc2\x81</v>
       </c>
       <c r="H205" s="18"/>
@@ -12645,7 +12636,7 @@
       </c>
       <c r="F206" s="18"/>
       <c r="G206" s="18" t="str">
-        <f>CONCATENATE("\x",LEFT(D206,2),"\x",MID(D206,4,2))</f>
+        <f t="shared" si="21"/>
         <v>\xc2\x8d</v>
       </c>
       <c r="H206" s="18"/>
@@ -12665,7 +12656,7 @@
       </c>
       <c r="F207" s="18"/>
       <c r="G207" s="18" t="str">
-        <f>CONCATENATE("\x",LEFT(D207,2),"\x",MID(D207,4,2))</f>
+        <f t="shared" si="21"/>
         <v>\xc2\x8e</v>
       </c>
       <c r="H207" s="18"/>
@@ -12685,7 +12676,7 @@
       </c>
       <c r="F208" s="18"/>
       <c r="G208" s="18" t="str">
-        <f>CONCATENATE("\x",LEFT(D208,2),"\x",MID(D208,4,2))</f>
+        <f t="shared" si="21"/>
         <v>\xc2\x8f</v>
       </c>
       <c r="H208" s="18"/>
@@ -12705,7 +12696,7 @@
       </c>
       <c r="F209" s="18"/>
       <c r="G209" s="18" t="str">
-        <f>CONCATENATE("\x",LEFT(D209,2),"\x",MID(D209,4,2))</f>
+        <f t="shared" si="21"/>
         <v>\xc2\x90</v>
       </c>
       <c r="H209" s="18"/>
@@ -12725,7 +12716,7 @@
       </c>
       <c r="F210" s="18"/>
       <c r="G210" s="18" t="str">
-        <f>CONCATENATE("\x",LEFT(D210,2),"\x",MID(D210,4,2))</f>
+        <f t="shared" si="21"/>
         <v>\xc2\x9d</v>
       </c>
       <c r="H210" s="18"/>
@@ -12745,7 +12736,7 @@
       </c>
       <c r="F211" s="18"/>
       <c r="G211" s="18" t="str">
-        <f>CONCATENATE("\x",LEFT(D211,2),"\x",MID(D211,4,2))</f>
+        <f t="shared" si="21"/>
         <v>\xc2\x9e</v>
       </c>
       <c r="H211" s="18"/>

--- a/notes/Sanskrit99_Conversion_Mapping.xlsx
+++ b/notes/Sanskrit99_Conversion_Mapping.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
@@ -7295,8 +7295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="I98" sqref="I98"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="I106" sqref="I106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9957,7 +9957,7 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98">
-        <f t="shared" ref="A98:A129" si="9">HEX2DEC(MID(B98,3,4))</f>
+        <f t="shared" ref="A98:A121" si="9">HEX2DEC(MID(B98,3,4))</f>
         <v>159</v>
       </c>
       <c r="B98" t="s">
@@ -9996,7 +9996,7 @@
         <f t="shared" si="10"/>
         <v>\xc2\x9c</v>
       </c>
-      <c r="I99" s="14" t="str">
+      <c r="I99" s="25" t="str">
         <f t="shared" si="11"/>
         <v>@Test public void testConvert_156() throws Exception { verify( (char) 156, ""); }</v>
       </c>
@@ -10042,7 +10042,7 @@
         <f t="shared" si="10"/>
         <v>\xc2\x9a</v>
       </c>
-      <c r="I101" s="14" t="str">
+      <c r="I101" s="25" t="str">
         <f t="shared" si="11"/>
         <v>@Test public void testConvert_154() throws Exception { verify( (char) 154, ""); }</v>
       </c>
@@ -10065,7 +10065,7 @@
         <f t="shared" si="10"/>
         <v>\xc2\x99</v>
       </c>
-      <c r="I102" s="14" t="str">
+      <c r="I102" s="25" t="str">
         <f t="shared" si="11"/>
         <v>@Test public void testConvert_153() throws Exception { verify( (char) 153, ""); }</v>
       </c>
@@ -10088,7 +10088,7 @@
         <f t="shared" si="10"/>
         <v>\xc2\x98</v>
       </c>
-      <c r="I103" s="14" t="str">
+      <c r="I103" s="25" t="str">
         <f t="shared" si="11"/>
         <v>@Test public void testConvert_152() throws Exception { verify( (char) 152, ""); }</v>
       </c>
@@ -10111,7 +10111,7 @@
         <f t="shared" si="10"/>
         <v>\xc2\x97</v>
       </c>
-      <c r="I104" s="14" t="str">
+      <c r="I104" s="25" t="str">
         <f t="shared" si="11"/>
         <v>@Test public void testConvert_151() throws Exception { verify( (char) 151, ""); }</v>
       </c>
@@ -10134,7 +10134,7 @@
         <f t="shared" si="10"/>
         <v>\xc2\x96</v>
       </c>
-      <c r="I105" s="14" t="str">
+      <c r="I105" s="25" t="str">
         <f t="shared" si="11"/>
         <v>@Test public void testConvert_150() throws Exception { verify( (char) 150, ""); }</v>
       </c>
@@ -10180,7 +10180,7 @@
         <f t="shared" si="10"/>
         <v>\xc2\x94</v>
       </c>
-      <c r="I107" s="14" t="str">
+      <c r="I107" s="25" t="str">
         <f t="shared" si="11"/>
         <v>@Test public void testConvert_148() throws Exception { verify( (char) 148, ""); }</v>
       </c>
@@ -10203,7 +10203,7 @@
         <f t="shared" si="10"/>
         <v>\xc2\x93</v>
       </c>
-      <c r="I108" s="14" t="str">
+      <c r="I108" s="25" t="str">
         <f t="shared" si="11"/>
         <v>@Test public void testConvert_147() throws Exception { verify( (char) 147, ""); }</v>
       </c>
@@ -10226,7 +10226,7 @@
         <f t="shared" si="10"/>
         <v>\xc2\x92</v>
       </c>
-      <c r="I109" s="14" t="str">
+      <c r="I109" s="25" t="str">
         <f t="shared" si="11"/>
         <v>@Test public void testConvert_146() throws Exception { verify( (char) 146, ""); }</v>
       </c>
@@ -10252,7 +10252,7 @@
         <v>\xc2\x91</v>
       </c>
       <c r="H110"/>
-      <c r="I110" s="14" t="str">
+      <c r="I110" s="25" t="str">
         <f t="shared" si="11"/>
         <v>@Test public void testConvert_145() throws Exception { verify( (char) 145, ""); }</v>
       </c>
@@ -10278,7 +10278,7 @@
         <v>\xc2\x8c</v>
       </c>
       <c r="H111"/>
-      <c r="I111" s="14" t="str">
+      <c r="I111" s="25" t="str">
         <f t="shared" si="11"/>
         <v>@Test public void testConvert_140() throws Exception { verify( (char) 140, ""); }</v>
       </c>
@@ -10301,7 +10301,7 @@
         <f t="shared" si="10"/>
         <v>\xc2\x8b</v>
       </c>
-      <c r="I112" s="14" t="str">
+      <c r="I112" s="25" t="str">
         <f t="shared" si="11"/>
         <v>@Test public void testConvert_139() throws Exception { verify( (char) 139, ""); }</v>
       </c>
@@ -10324,7 +10324,7 @@
         <f t="shared" si="10"/>
         <v>\xc2\x8a</v>
       </c>
-      <c r="I113" s="14" t="str">
+      <c r="I113" s="25" t="str">
         <f t="shared" si="11"/>
         <v>@Test public void testConvert_138() throws Exception { verify( (char) 138, ""); }</v>
       </c>
@@ -10347,7 +10347,7 @@
         <f t="shared" si="10"/>
         <v>\xc2\x89</v>
       </c>
-      <c r="I114" s="14" t="str">
+      <c r="I114" s="25" t="str">
         <f t="shared" si="11"/>
         <v>@Test public void testConvert_137() throws Exception { verify( (char) 137, ""); }</v>
       </c>
@@ -10370,7 +10370,7 @@
         <f t="shared" si="10"/>
         <v>\xc2\x88</v>
       </c>
-      <c r="I115" s="14" t="str">
+      <c r="I115" s="25" t="str">
         <f t="shared" si="11"/>
         <v>@Test public void testConvert_136() throws Exception { verify( (char) 136, ""); }</v>
       </c>
@@ -10416,7 +10416,7 @@
         <f t="shared" si="10"/>
         <v>\xc2\x86</v>
       </c>
-      <c r="I117" s="14" t="str">
+      <c r="I117" s="25" t="str">
         <f t="shared" si="11"/>
         <v>@Test public void testConvert_134() throws Exception { verify( (char) 134, ""); }</v>
       </c>
@@ -10439,7 +10439,7 @@
         <f t="shared" si="10"/>
         <v>\xc2\x85</v>
       </c>
-      <c r="I118" s="14" t="str">
+      <c r="I118" s="25" t="str">
         <f t="shared" si="11"/>
         <v>@Test public void testConvert_133() throws Exception { verify( (char) 133, ""); }</v>
       </c>
@@ -10462,7 +10462,7 @@
         <f t="shared" si="10"/>
         <v>\xc2\x84</v>
       </c>
-      <c r="I119" s="14" t="str">
+      <c r="I119" s="25" t="str">
         <f t="shared" si="11"/>
         <v>@Test public void testConvert_132() throws Exception { verify( (char) 132, ""); }</v>
       </c>
@@ -12203,7 +12203,7 @@
     </row>
     <row r="189" spans="1:9">
       <c r="A189">
-        <f t="shared" ref="A189:A220" si="18">HEX2DEC(MID(B189,3,4))</f>
+        <f t="shared" ref="A189:A202" si="18">HEX2DEC(MID(B189,3,4))</f>
         <v>62</v>
       </c>
       <c r="B189" t="s">
